--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="数值" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="object" sheetId="4" r:id="rId4"/>
     <sheet name="role" sheetId="5" r:id="rId5"/>
     <sheet name="item" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="flash" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0" shapeId="0">
+    <comment ref="Q7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
 1. 进入新地图
 2. 攻击
 3. 主角在相邻格子
-4. 主角主动触发
+4. 受击
 5. 接着上一句</t>
         </r>
       </text>
@@ -177,7 +177,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="284">
   <si>
     <t>战斗时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,10 +704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一个指引npc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1199,6 +1195,90 @@
   </si>
   <si>
     <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丫鬟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahuan-stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahuang-please</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,0,2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1001,1002,1003,1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc默认方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcdirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\item\item.plist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1378,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1431,22 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,8 +1538,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,7 +1592,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1890,7 +1972,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4399,236 +4480,236 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="27" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="30"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="26" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="31"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="31"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="31"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="31"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="26" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="31"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="31"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4655,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4974,7 +5055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4987,101 +5068,101 @@
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="32" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A3" s="34">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A5" s="34">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A6" s="34">
-        <v>4</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="34">
-        <v>5</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>173</v>
+      <c r="D7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1"/>
@@ -5094,727 +5175,866 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:P22"/>
+  <dimension ref="A6:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="42" customWidth="1"/>
-    <col min="2" max="6" width="11" style="32" customWidth="1"/>
-    <col min="7" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="11" style="36" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11" style="26" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="12" width="4.75" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="17" max="17" width="17.875" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:16" s="3" customFormat="1">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:18" s="3" customFormat="1">
+      <c r="A6" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="E6" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="F6" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1">
+      <c r="A7" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="38" t="s">
+      <c r="E7" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G7" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1">
+      <c r="A8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
+        <v>30</v>
+      </c>
+      <c r="I9" s="29">
+        <v>10</v>
+      </c>
+      <c r="J9" s="29">
+        <v>100</v>
+      </c>
+      <c r="K9" s="29">
+        <v>20</v>
+      </c>
+      <c r="L9" s="29">
+        <v>10</v>
+      </c>
+      <c r="M9" s="29">
+        <v>2</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29">
+        <v>10</v>
+      </c>
+      <c r="I10" s="29">
+        <v>10</v>
+      </c>
+      <c r="J10" s="29">
+        <v>10</v>
+      </c>
+      <c r="K10" s="29">
+        <v>10</v>
+      </c>
+      <c r="L10" s="29">
+        <v>10</v>
+      </c>
+      <c r="M10" s="29">
+        <v>2</v>
+      </c>
+      <c r="N10" s="29">
+        <v>2001</v>
+      </c>
+      <c r="O10" s="29">
+        <v>2</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="28">
+        <v>2</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29">
+        <v>10</v>
+      </c>
+      <c r="I11" s="29">
+        <v>10</v>
+      </c>
+      <c r="J11" s="29">
+        <v>10</v>
+      </c>
+      <c r="K11" s="29">
+        <v>10</v>
+      </c>
+      <c r="L11" s="29">
+        <v>10</v>
+      </c>
+      <c r="M11" s="29">
+        <v>2</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>3</v>
+      </c>
+      <c r="R11" s="29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="28">
+        <v>2</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="28">
+        <v>3</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <v>12</v>
+      </c>
+      <c r="I13" s="29">
+        <v>5</v>
+      </c>
+      <c r="J13" s="29">
+        <v>100</v>
+      </c>
+      <c r="K13" s="29">
+        <v>11</v>
+      </c>
+      <c r="L13" s="29">
+        <v>10</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>2</v>
+      </c>
+      <c r="R13" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="28">
+        <v>3</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
+        <v>16</v>
+      </c>
+      <c r="I14" s="29">
+        <v>10</v>
+      </c>
+      <c r="J14" s="29">
+        <v>100</v>
+      </c>
+      <c r="K14" s="29">
+        <v>12</v>
+      </c>
+      <c r="L14" s="29">
+        <v>15</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>2</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="28">
+        <v>3</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29">
+        <v>25</v>
+      </c>
+      <c r="I15" s="29">
+        <v>15</v>
+      </c>
+      <c r="J15" s="29">
+        <v>120</v>
+      </c>
+      <c r="K15" s="29">
+        <v>13</v>
+      </c>
+      <c r="L15" s="29">
+        <v>20</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>2</v>
+      </c>
+      <c r="R15" s="29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="28">
+        <v>3</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29">
+        <v>32</v>
+      </c>
+      <c r="I16" s="29">
+        <v>20</v>
+      </c>
+      <c r="J16" s="29">
+        <v>120</v>
+      </c>
+      <c r="K16" s="29">
+        <v>14</v>
+      </c>
+      <c r="L16" s="29">
+        <v>25</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>2</v>
+      </c>
+      <c r="R16" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="28">
+        <v>3</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29">
+        <v>45</v>
+      </c>
+      <c r="I17" s="29">
+        <v>25</v>
+      </c>
+      <c r="J17" s="29">
+        <v>150</v>
+      </c>
+      <c r="K17" s="29">
+        <v>15</v>
+      </c>
+      <c r="L17" s="29">
+        <v>30</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>2</v>
+      </c>
+      <c r="R17" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="28">
+        <v>3</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29">
+        <v>63</v>
+      </c>
+      <c r="I18" s="29">
+        <v>30</v>
+      </c>
+      <c r="J18" s="29">
+        <v>150</v>
+      </c>
+      <c r="K18" s="29">
+        <v>16</v>
+      </c>
+      <c r="L18" s="29">
+        <v>35</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>2</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="28">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29">
+        <v>85</v>
+      </c>
+      <c r="I19" s="29">
+        <v>35</v>
+      </c>
+      <c r="J19" s="29">
         <v>200</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1">
-      <c r="A7" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="P7" s="37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35">
-        <v>30</v>
-      </c>
-      <c r="I8" s="35">
-        <v>10</v>
-      </c>
-      <c r="J8" s="35">
-        <v>100</v>
-      </c>
-      <c r="K8" s="35">
+      <c r="K19" s="29">
+        <v>17</v>
+      </c>
+      <c r="L19" s="29">
+        <v>40</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>4</v>
+      </c>
+      <c r="R19" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="28">
+        <v>3</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29">
+        <v>110</v>
+      </c>
+      <c r="I20" s="29">
+        <v>40</v>
+      </c>
+      <c r="J20" s="29">
+        <v>200</v>
+      </c>
+      <c r="K20" s="29">
+        <v>18</v>
+      </c>
+      <c r="L20" s="29">
+        <v>45</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>2</v>
+      </c>
+      <c r="R20" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="28">
+        <v>3</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29">
+        <v>135</v>
+      </c>
+      <c r="I21" s="29">
+        <v>45</v>
+      </c>
+      <c r="J21" s="29">
+        <v>250</v>
+      </c>
+      <c r="K21" s="29">
+        <v>19</v>
+      </c>
+      <c r="L21" s="29">
+        <v>50</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>2</v>
+      </c>
+      <c r="R21" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="28">
+        <v>3</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29">
+        <v>170</v>
+      </c>
+      <c r="I22" s="29">
+        <v>50</v>
+      </c>
+      <c r="J22" s="29">
+        <v>250</v>
+      </c>
+      <c r="K22" s="29">
         <v>20</v>
       </c>
-      <c r="L8" s="35">
-        <v>10</v>
-      </c>
-      <c r="M8" s="35">
+      <c r="L22" s="29">
+        <v>55</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q22" s="29">
         <v>2</v>
       </c>
-      <c r="N8" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="R22" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="28">
+        <v>3</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29">
+        <v>200</v>
+      </c>
+      <c r="I23" s="29">
+        <v>55</v>
+      </c>
+      <c r="J23" s="29">
+        <v>300</v>
+      </c>
+      <c r="K23" s="29">
+        <v>21</v>
+      </c>
+      <c r="L23" s="29">
+        <v>60</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q23" s="29">
         <v>2</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35">
-        <v>10</v>
-      </c>
-      <c r="I9" s="35">
-        <v>10</v>
-      </c>
-      <c r="J9" s="35">
-        <v>10</v>
-      </c>
-      <c r="K9" s="35">
-        <v>10</v>
-      </c>
-      <c r="L9" s="35">
-        <v>10</v>
-      </c>
-      <c r="M9" s="35">
+      <c r="R23" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="28">
+        <v>3</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29">
+        <v>250</v>
+      </c>
+      <c r="I24" s="29">
+        <v>60</v>
+      </c>
+      <c r="J24" s="29">
+        <v>400</v>
+      </c>
+      <c r="K24" s="29">
+        <v>22</v>
+      </c>
+      <c r="L24" s="29">
+        <v>65</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q24" s="29">
         <v>2</v>
       </c>
-      <c r="N9" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="O9" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="34">
-        <v>2</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35">
-        <v>10</v>
-      </c>
-      <c r="I10" s="35">
-        <v>10</v>
-      </c>
-      <c r="J10" s="35">
-        <v>10</v>
-      </c>
-      <c r="K10" s="35">
-        <v>10</v>
-      </c>
-      <c r="L10" s="35">
-        <v>10</v>
-      </c>
-      <c r="M10" s="35">
-        <v>2</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="O10" s="35">
-        <v>3</v>
-      </c>
-      <c r="P10" s="35">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="34">
-        <v>3</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35">
-        <v>12</v>
-      </c>
-      <c r="I11" s="35">
-        <v>5</v>
-      </c>
-      <c r="J11" s="35">
-        <v>100</v>
-      </c>
-      <c r="K11" s="35">
-        <v>11</v>
-      </c>
-      <c r="L11" s="35">
-        <v>10</v>
-      </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="O11" s="35">
-        <v>2</v>
-      </c>
-      <c r="P11" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="34">
-        <v>3</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35">
-        <v>16</v>
-      </c>
-      <c r="I12" s="35">
-        <v>10</v>
-      </c>
-      <c r="J12" s="35">
-        <v>100</v>
-      </c>
-      <c r="K12" s="35">
-        <v>12</v>
-      </c>
-      <c r="L12" s="35">
-        <v>15</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="O12" s="35">
-        <v>2</v>
-      </c>
-      <c r="P12" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="34">
-        <v>3</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35">
-        <v>25</v>
-      </c>
-      <c r="I13" s="35">
-        <v>15</v>
-      </c>
-      <c r="J13" s="35">
-        <v>120</v>
-      </c>
-      <c r="K13" s="35">
-        <v>13</v>
-      </c>
-      <c r="L13" s="35">
-        <v>20</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="O13" s="35">
-        <v>2</v>
-      </c>
-      <c r="P13" s="35">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="34">
-        <v>3</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
-        <v>32</v>
-      </c>
-      <c r="I14" s="35">
-        <v>20</v>
-      </c>
-      <c r="J14" s="35">
-        <v>120</v>
-      </c>
-      <c r="K14" s="35">
-        <v>14</v>
-      </c>
-      <c r="L14" s="35">
-        <v>25</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="O14" s="35">
-        <v>2</v>
-      </c>
-      <c r="P14" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="34">
-        <v>3</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35">
-        <v>45</v>
-      </c>
-      <c r="I15" s="35">
-        <v>25</v>
-      </c>
-      <c r="J15" s="35">
-        <v>150</v>
-      </c>
-      <c r="K15" s="35">
-        <v>15</v>
-      </c>
-      <c r="L15" s="35">
-        <v>30</v>
-      </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="O15" s="35">
-        <v>2</v>
-      </c>
-      <c r="P15" s="35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="34">
-        <v>3</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35">
-        <v>63</v>
-      </c>
-      <c r="I16" s="35">
-        <v>30</v>
-      </c>
-      <c r="J16" s="35">
-        <v>150</v>
-      </c>
-      <c r="K16" s="35">
-        <v>16</v>
-      </c>
-      <c r="L16" s="35">
-        <v>35</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" s="35">
-        <v>2</v>
-      </c>
-      <c r="P16" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="34">
-        <v>3</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35">
-        <v>85</v>
-      </c>
-      <c r="I17" s="35">
-        <v>35</v>
-      </c>
-      <c r="J17" s="35">
-        <v>200</v>
-      </c>
-      <c r="K17" s="35">
-        <v>17</v>
-      </c>
-      <c r="L17" s="35">
-        <v>40</v>
-      </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="O17" s="35">
-        <v>2</v>
-      </c>
-      <c r="P17" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="34">
-        <v>3</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35">
-        <v>110</v>
-      </c>
-      <c r="I18" s="35">
-        <v>40</v>
-      </c>
-      <c r="J18" s="35">
-        <v>200</v>
-      </c>
-      <c r="K18" s="35">
-        <v>18</v>
-      </c>
-      <c r="L18" s="35">
-        <v>45</v>
-      </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="O18" s="35">
-        <v>2</v>
-      </c>
-      <c r="P18" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="34">
-        <v>3</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35">
-        <v>135</v>
-      </c>
-      <c r="I19" s="35">
-        <v>45</v>
-      </c>
-      <c r="J19" s="35">
-        <v>250</v>
-      </c>
-      <c r="K19" s="35">
-        <v>19</v>
-      </c>
-      <c r="L19" s="35">
-        <v>50</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="O19" s="35">
-        <v>2</v>
-      </c>
-      <c r="P19" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="34">
-        <v>3</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35">
-        <v>170</v>
-      </c>
-      <c r="I20" s="35">
-        <v>50</v>
-      </c>
-      <c r="J20" s="35">
-        <v>250</v>
-      </c>
-      <c r="K20" s="35">
-        <v>20</v>
-      </c>
-      <c r="L20" s="35">
-        <v>55</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="O20" s="35">
-        <v>2</v>
-      </c>
-      <c r="P20" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="34">
-        <v>3</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35">
-        <v>200</v>
-      </c>
-      <c r="I21" s="35">
-        <v>55</v>
-      </c>
-      <c r="J21" s="35">
-        <v>300</v>
-      </c>
-      <c r="K21" s="35">
-        <v>21</v>
-      </c>
-      <c r="L21" s="35">
-        <v>60</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="O21" s="35">
-        <v>2</v>
-      </c>
-      <c r="P21" s="35">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="34">
-        <v>3</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35">
-        <v>250</v>
-      </c>
-      <c r="I22" s="35">
-        <v>60</v>
-      </c>
-      <c r="J22" s="35">
-        <v>400</v>
-      </c>
-      <c r="K22" s="35">
-        <v>22</v>
-      </c>
-      <c r="L22" s="35">
-        <v>65</v>
-      </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="O22" s="35">
-        <v>2</v>
-      </c>
-      <c r="P22" s="35">
+      <c r="R24" s="29">
         <v>0.2</v>
       </c>
     </row>
@@ -5827,503 +6047,633 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:J25"/>
+  <dimension ref="A4:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:10">
-      <c r="A4" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="28">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="C6" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="28" t="str">
+        <f>A6&amp;".jpg"</f>
+        <v>1000.jpg</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="28">
+        <v>1001</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="28" t="str">
+        <f t="shared" ref="D7:D25" si="0">A7&amp;".jpg"</f>
+        <v>1001.jpg</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
+        <v>10</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="28">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1002.jpg</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28">
+        <v>15</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="28">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="C9" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1003.jpg</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
+        <v>5</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="28">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1004.jpg</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
+        <v>10</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="28">
+        <v>1005</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1005.jpg</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>15</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="28">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" s="38" t="s">
+      <c r="C12" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1006.jpg</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28">
+        <v>50</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="28">
+        <v>1007</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1007.jpg</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28">
+        <v>100</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="28">
+        <v>1008</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1008.jpg</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28">
+        <v>200</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="28">
+        <v>1009</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1009.jpg</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="28">
+        <v>1010</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1010.jpg</v>
+      </c>
+      <c r="E16" s="28">
+        <v>2</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="28">
+        <v>1011</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1011.jpg</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="28">
+        <v>1012</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="34">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34">
+      <c r="C18" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1012.jpg</v>
+      </c>
+      <c r="E18" s="28">
+        <v>2</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="28">
+        <v>1013</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1013.jpg</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="28">
+        <v>1014</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1014.jpg</v>
+      </c>
+      <c r="E20" s="28">
         <v>1</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34">
-        <v>5</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="34">
-        <v>1001</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28">
+        <v>2</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="28">
+        <v>1015</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1015.jpg</v>
+      </c>
+      <c r="E21" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
-        <v>10</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="34">
-        <v>1002</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28">
+        <v>4</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="28">
+        <v>1016</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1016.jpg</v>
+      </c>
+      <c r="E22" s="28">
         <v>1</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34">
-        <v>15</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="34">
-        <v>1003</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28">
+        <v>6</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="28">
+        <v>1017</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1017.jpg</v>
+      </c>
+      <c r="E23" s="28">
         <v>1</v>
       </c>
-      <c r="E9" s="34">
-        <v>5</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="34">
-        <v>1004</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28">
+        <v>2</v>
+      </c>
+      <c r="K23" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="28">
+        <v>1018</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1018.jpg</v>
+      </c>
+      <c r="E24" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="34">
-        <v>10</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="34">
-        <v>1005</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34">
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28">
+        <v>4</v>
+      </c>
+      <c r="K24" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="28">
+        <v>1019</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1019.jpg</v>
+      </c>
+      <c r="E25" s="28">
         <v>1</v>
       </c>
-      <c r="E11" s="34">
-        <v>15</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="34">
-        <v>1006</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34">
-        <v>1</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34">
-        <v>50</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="34">
-        <v>1007</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34">
-        <v>1</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34">
-        <v>100</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="34">
-        <v>1008</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34">
-        <v>200</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="34">
-        <v>1009</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34">
-        <v>2</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="34">
-        <v>1010</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34">
-        <v>2</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="34">
-        <v>1011</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34">
-        <v>2</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="34">
-        <v>1012</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34">
-        <v>2</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="34">
-        <v>1013</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34">
-        <v>2</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="34">
-        <v>1014</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34">
-        <v>1</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34">
-        <v>2</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="34">
-        <v>1015</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34">
-        <v>1</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34">
-        <v>4</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="34">
-        <v>1016</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34">
-        <v>1</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28">
         <v>6</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="34">
-        <v>1017</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34">
-        <v>1</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34">
-        <v>2</v>
-      </c>
-      <c r="J23" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="34">
-        <v>1018</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34">
-        <v>1</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34">
-        <v>4</v>
-      </c>
-      <c r="J24" s="34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="34">
-        <v>1019</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34">
-        <v>1</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34">
-        <v>6</v>
-      </c>
-      <c r="J25" s="34">
+      <c r="K25" s="28">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6332,135 +6682,173 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="29">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="C4" s="29">
         <v>8</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="29">
         <v>7</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="29">
         <f>C4*D4</f>
         <v>56</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="29">
         <f>SUM($E$4:E4)</f>
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="A5" s="29">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="29">
         <v>8</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="29">
         <v>8</v>
       </c>
-      <c r="E5" s="35">
-        <f t="shared" ref="E5:E8" si="0">C5*D5</f>
+      <c r="E5" s="29">
+        <f t="shared" ref="E5" si="0">C5*D5</f>
         <v>64</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="29">
         <f>SUM($E$4:E5)</f>
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="A6" s="29">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="29">
         <v>4</v>
       </c>
-      <c r="D6" s="35">
-        <v>2</v>
-      </c>
-      <c r="E6" s="35">
-        <f t="shared" si="0"/>
+      <c r="D6" s="29">
+        <v>16</v>
+      </c>
+      <c r="E6" s="29">
+        <f>C7*D7</f>
         <v>8</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="29">
         <f>SUM($E$4:E6)</f>
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="A7" s="29">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="29">
         <v>4</v>
       </c>
-      <c r="D7" s="35">
-        <v>10</v>
-      </c>
-      <c r="E7" s="35">
-        <f t="shared" si="0"/>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="29">
+        <f>C8*D8</f>
         <v>40</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="29">
         <f>SUM($E$4:E7)</f>
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="A8" s="29">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="29">
         <v>4</v>
       </c>
-      <c r="D8" s="35">
-        <v>16</v>
-      </c>
-      <c r="E8" s="35">
-        <f t="shared" si="0"/>
+      <c r="D8" s="29">
+        <v>10</v>
+      </c>
+      <c r="E8" s="29">
+        <f>C6*D6</f>
         <v>64</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="29">
         <f>SUM($E$4:E8)</f>
         <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="29">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="29">
+        <v>2001</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -6049,13 +6049,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C6:C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11">
@@ -6139,8 +6139,8 @@
         <v>283</v>
       </c>
       <c r="D6" s="28" t="str">
-        <f>A6&amp;".jpg"</f>
-        <v>1000.jpg</v>
+        <f>A6&amp;".tga"</f>
+        <v>1000.tga</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -6165,8 +6165,8 @@
         <v>283</v>
       </c>
       <c r="D7" s="28" t="str">
-        <f t="shared" ref="D7:D25" si="0">A7&amp;".jpg"</f>
-        <v>1001.jpg</v>
+        <f>A7&amp;".tga"</f>
+        <v>1001.tga</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
@@ -6191,8 +6191,8 @@
         <v>283</v>
       </c>
       <c r="D8" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1002.jpg</v>
+        <f>A8&amp;".tga"</f>
+        <v>1002.tga</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
@@ -6217,8 +6217,8 @@
         <v>283</v>
       </c>
       <c r="D9" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1003.jpg</v>
+        <f>A9&amp;".tga"</f>
+        <v>1003.tga</v>
       </c>
       <c r="E9" s="28">
         <v>1</v>
@@ -6243,8 +6243,8 @@
         <v>283</v>
       </c>
       <c r="D10" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1004.jpg</v>
+        <f>A10&amp;".tga"</f>
+        <v>1004.tga</v>
       </c>
       <c r="E10" s="28">
         <v>1</v>
@@ -6269,8 +6269,8 @@
         <v>283</v>
       </c>
       <c r="D11" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1005.jpg</v>
+        <f>A11&amp;".tga"</f>
+        <v>1005.tga</v>
       </c>
       <c r="E11" s="28">
         <v>1</v>
@@ -6295,8 +6295,8 @@
         <v>283</v>
       </c>
       <c r="D12" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1006.jpg</v>
+        <f>A12&amp;".tga"</f>
+        <v>1006.tga</v>
       </c>
       <c r="E12" s="28">
         <v>1</v>
@@ -6321,8 +6321,8 @@
         <v>283</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1007.jpg</v>
+        <f>A13&amp;".tga"</f>
+        <v>1007.tga</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
@@ -6347,8 +6347,8 @@
         <v>283</v>
       </c>
       <c r="D14" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1008.jpg</v>
+        <f>A14&amp;".tga"</f>
+        <v>1008.tga</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
@@ -6373,8 +6373,8 @@
         <v>283</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1009.jpg</v>
+        <f>A15&amp;".tga"</f>
+        <v>1009.tga</v>
       </c>
       <c r="E15" s="28">
         <v>2</v>
@@ -6399,8 +6399,8 @@
         <v>283</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1010.jpg</v>
+        <f>A16&amp;".tga"</f>
+        <v>1010.tga</v>
       </c>
       <c r="E16" s="28">
         <v>2</v>
@@ -6425,8 +6425,8 @@
         <v>283</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1011.jpg</v>
+        <f>A17&amp;".tga"</f>
+        <v>1011.tga</v>
       </c>
       <c r="E17" s="28">
         <v>2</v>
@@ -6451,8 +6451,8 @@
         <v>283</v>
       </c>
       <c r="D18" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1012.jpg</v>
+        <f>A18&amp;".tga"</f>
+        <v>1012.tga</v>
       </c>
       <c r="E18" s="28">
         <v>2</v>
@@ -6477,8 +6477,8 @@
         <v>283</v>
       </c>
       <c r="D19" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1013.jpg</v>
+        <f>A19&amp;".tga"</f>
+        <v>1013.tga</v>
       </c>
       <c r="E19" s="28">
         <v>2</v>
@@ -6503,8 +6503,8 @@
         <v>283</v>
       </c>
       <c r="D20" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1014.jpg</v>
+        <f>A20&amp;".tga"</f>
+        <v>1014.tga</v>
       </c>
       <c r="E20" s="28">
         <v>1</v>
@@ -6516,9 +6516,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="28"/>
-      <c r="K20" s="28">
-        <v>500</v>
-      </c>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28">
@@ -6531,8 +6529,8 @@
         <v>283</v>
       </c>
       <c r="D21" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1015.jpg</v>
+        <f>A21&amp;".tga"</f>
+        <v>1015.tga</v>
       </c>
       <c r="E21" s="28">
         <v>1</v>
@@ -6544,9 +6542,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="28"/>
-      <c r="K21" s="28">
-        <v>500</v>
-      </c>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="28">
@@ -6559,8 +6555,8 @@
         <v>283</v>
       </c>
       <c r="D22" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1016.jpg</v>
+        <f>A22&amp;".tga"</f>
+        <v>1016.tga</v>
       </c>
       <c r="E22" s="28">
         <v>1</v>
@@ -6572,9 +6568,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="28"/>
-      <c r="K22" s="28">
-        <v>500</v>
-      </c>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="28">
@@ -6587,8 +6581,8 @@
         <v>283</v>
       </c>
       <c r="D23" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1017.jpg</v>
+        <f>A23&amp;".tga"</f>
+        <v>1017.tga</v>
       </c>
       <c r="E23" s="28">
         <v>1</v>
@@ -6600,9 +6594,7 @@
       <c r="J23" s="28">
         <v>2</v>
       </c>
-      <c r="K23" s="28">
-        <v>500</v>
-      </c>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="28">
@@ -6615,8 +6607,8 @@
         <v>283</v>
       </c>
       <c r="D24" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1018.jpg</v>
+        <f>A24&amp;".tga"</f>
+        <v>1018.tga</v>
       </c>
       <c r="E24" s="28">
         <v>1</v>
@@ -6628,9 +6620,7 @@
       <c r="J24" s="28">
         <v>4</v>
       </c>
-      <c r="K24" s="28">
-        <v>500</v>
-      </c>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="28">
@@ -6643,8 +6633,8 @@
         <v>283</v>
       </c>
       <c r="D25" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v>1019.jpg</v>
+        <f>A25&amp;".tga"</f>
+        <v>1019.tga</v>
       </c>
       <c r="E25" s="28">
         <v>1</v>
@@ -6656,9 +6646,7 @@
       <c r="J25" s="28">
         <v>6</v>
       </c>
-      <c r="K25" s="28">
-        <v>500</v>
-      </c>
+      <c r="K25" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="数值" sheetId="2" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="297">
   <si>
     <t>战斗时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,45 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物2-2</t>
-  </si>
-  <si>
-    <t>怪物2-3</t>
-  </si>
-  <si>
-    <t>怪物3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物3-2</t>
-  </si>
-  <si>
-    <t>怪物3-3</t>
-  </si>
-  <si>
-    <t>怪物3-4</t>
-  </si>
-  <si>
-    <t>怪物4-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物4-2</t>
-  </si>
-  <si>
-    <t>怪物4-3</t>
-  </si>
-  <si>
-    <t>怪物4-4</t>
-  </si>
-  <si>
-    <t>怪物4-5</t>
-  </si>
-  <si>
     <t>3001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,10 +1116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,29 +1124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bgj-stand</t>
-  </si>
-  <si>
-    <t>bgj-run</t>
-  </si>
-  <si>
-    <t>bgj-hit</t>
-  </si>
-  <si>
-    <t>bgj-die</t>
-  </si>
-  <si>
-    <t>bgj-skill1</t>
-  </si>
-  <si>
     <t>flashID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fileName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>direction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1210,14 +1148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yahuan-stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yahuang-please</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>npc动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1279,6 +1209,127 @@
   </si>
   <si>
     <t>\item\item.plist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
+  <si>
+    <t>怪物4</t>
+  </si>
+  <si>
+    <t>怪物5</t>
+  </si>
+  <si>
+    <t>怪物6</t>
+  </si>
+  <si>
+    <t>怪物7</t>
+  </si>
+  <si>
+    <t>怪物8</t>
+  </si>
+  <si>
+    <t>怪物9</t>
+  </si>
+  <si>
+    <t>怪物10</t>
+  </si>
+  <si>
+    <t>怪物11</t>
+  </si>
+  <si>
+    <t>怪物12</t>
+  </si>
+  <si>
+    <t>怪物13</t>
+  </si>
+  <si>
+    <t>毛毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>怪物14</t>
+  </si>
+  <si>
+    <t>狐妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙族少年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乌龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛙妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画ID = 角色ID + 动作ID，共五位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作ID：站立、跑步、攻击、受击、死亡按顺序为1、2、3、4、5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名 = 动画ID + 方向编号 + 序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1454,11 +1505,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1560,6 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5070,13 +5133,13 @@
   <sheetData>
     <row r="2" spans="1:5" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>124</v>
@@ -5096,7 +5159,7 @@
         <v>113</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>120</v>
@@ -5142,7 +5205,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>125</v>
@@ -5156,13 +5219,13 @@
         <v>123</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21.75" customHeight="1"/>
@@ -5175,10 +5238,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:R24"/>
+  <dimension ref="A6:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5200,58 +5263,58 @@
   <sheetData>
     <row r="6" spans="1:18" s="3" customFormat="1">
       <c r="A6" s="33" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>207</v>
-      </c>
       <c r="N6" s="30" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="3" customFormat="1">
@@ -5259,111 +5322,111 @@
         <v>128</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>220</v>
-      </c>
       <c r="G7" s="31" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H7" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="Q7" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="R7" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1">
       <c r="A8" s="34" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="R8" s="31" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -5371,7 +5434,7 @@
         <v>130</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>129</v>
@@ -5381,7 +5444,7 @@
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="37" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29">
@@ -5405,13 +5468,13 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
       <c r="P9" s="29" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -5420,14 +5483,14 @@
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D10" s="28">
         <v>2</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="37" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29">
@@ -5455,22 +5518,22 @@
         <v>2</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="29" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="35" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D11" s="28">
         <v>2</v>
@@ -5499,7 +5562,7 @@
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="29">
         <v>3</v>
@@ -5510,11 +5573,11 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="35" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D12" s="28">
         <v>2</v>
@@ -5538,15 +5601,19 @@
       <c r="A13" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="28" t="s">
+        <v>277</v>
+      </c>
       <c r="C13" s="28" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="D13" s="28">
         <v>3</v>
       </c>
       <c r="E13" s="28"/>
-      <c r="F13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>293</v>
+      </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29">
         <v>12</v>
@@ -5567,7 +5634,7 @@
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="29">
         <v>2</v>
@@ -5578,11 +5645,13 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="28"/>
+        <v>133</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>285</v>
+      </c>
       <c r="C14" s="28" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
@@ -5609,7 +5678,7 @@
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
       <c r="P14" s="29" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="29">
         <v>2</v>
@@ -5620,11 +5689,13 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>288</v>
+      </c>
       <c r="C15" s="28" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -5651,7 +5722,7 @@
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
       <c r="P15" s="29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="Q15" s="29">
         <v>2</v>
@@ -5662,11 +5733,13 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="28"/>
+        <v>135</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>289</v>
+      </c>
       <c r="C16" s="28" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
@@ -5693,7 +5766,7 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="29">
         <v>2</v>
@@ -5704,11 +5777,13 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="28"/>
+        <v>136</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>286</v>
+      </c>
       <c r="C17" s="28" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
@@ -5735,7 +5810,7 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="29">
         <v>2</v>
@@ -5746,11 +5821,13 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>284</v>
+      </c>
       <c r="C18" s="28" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
@@ -5777,7 +5854,7 @@
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="29">
         <v>2</v>
@@ -5788,11 +5865,13 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="28"/>
+        <v>138</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>290</v>
+      </c>
       <c r="C19" s="28" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
@@ -5819,7 +5898,7 @@
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="29">
         <v>4</v>
@@ -5830,11 +5909,13 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="28"/>
+        <v>139</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>282</v>
+      </c>
       <c r="C20" s="28" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="D20" s="28">
         <v>3</v>
@@ -5861,7 +5942,7 @@
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
       <c r="P20" s="29" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="29">
         <v>2</v>
@@ -5872,11 +5953,13 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="28"/>
+        <v>140</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>283</v>
+      </c>
       <c r="C21" s="28" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="D21" s="28">
         <v>3</v>
@@ -5903,7 +5986,7 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
       <c r="P21" s="29" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="Q21" s="29">
         <v>2</v>
@@ -5914,11 +5997,13 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="28"/>
+        <v>141</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>291</v>
+      </c>
       <c r="C22" s="28" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="D22" s="28">
         <v>3</v>
@@ -5945,7 +6030,7 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
       <c r="P22" s="29" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="29">
         <v>2</v>
@@ -5956,11 +6041,13 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="28"/>
+        <v>142</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>292</v>
+      </c>
       <c r="C23" s="28" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="D23" s="28">
         <v>3</v>
@@ -5987,7 +6074,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="29" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="29">
         <v>2</v>
@@ -5998,11 +6085,13 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="28"/>
+        <v>143</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>287</v>
+      </c>
       <c r="C24" s="28" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="D24" s="28">
         <v>3</v>
@@ -6029,19 +6118,108 @@
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
       <c r="P24" s="29" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Q24" s="29">
         <v>2</v>
       </c>
       <c r="R24" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="28">
+        <v>3</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29">
+        <v>300</v>
+      </c>
+      <c r="I25" s="29">
+        <v>65</v>
+      </c>
+      <c r="J25" s="29">
+        <v>500</v>
+      </c>
+      <c r="K25" s="29">
+        <v>23</v>
+      </c>
+      <c r="L25" s="29">
+        <v>70</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>2</v>
+      </c>
+      <c r="R25" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" s="28">
+        <v>3</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29">
+        <v>300</v>
+      </c>
+      <c r="I26" s="29">
+        <v>65</v>
+      </c>
+      <c r="J26" s="29">
+        <v>500</v>
+      </c>
+      <c r="K26" s="29">
+        <v>23</v>
+      </c>
+      <c r="L26" s="29">
+        <v>70</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>2</v>
+      </c>
+      <c r="R26" s="29">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6049,8 +6227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6060,72 +6238,72 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="32" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6133,13 +6311,13 @@
         <v>1000</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D6" s="28" t="str">
-        <f>A6&amp;".tga"</f>
+        <f t="shared" ref="D6:D25" si="0">A6&amp;".tga"</f>
         <v>1000.tga</v>
       </c>
       <c r="E6" s="28">
@@ -6159,13 +6337,13 @@
         <v>1001</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D7" s="28" t="str">
-        <f>A7&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1001.tga</v>
       </c>
       <c r="E7" s="28">
@@ -6185,13 +6363,13 @@
         <v>1002</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D8" s="28" t="str">
-        <f>A8&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1002.tga</v>
       </c>
       <c r="E8" s="28">
@@ -6211,13 +6389,13 @@
         <v>1003</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D9" s="28" t="str">
-        <f>A9&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1003.tga</v>
       </c>
       <c r="E9" s="28">
@@ -6237,13 +6415,13 @@
         <v>1004</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D10" s="28" t="str">
-        <f>A10&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1004.tga</v>
       </c>
       <c r="E10" s="28">
@@ -6263,13 +6441,13 @@
         <v>1005</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D11" s="28" t="str">
-        <f>A11&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1005.tga</v>
       </c>
       <c r="E11" s="28">
@@ -6289,13 +6467,13 @@
         <v>1006</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D12" s="28" t="str">
-        <f>A12&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1006.tga</v>
       </c>
       <c r="E12" s="28">
@@ -6315,13 +6493,13 @@
         <v>1007</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f>A13&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1007.tga</v>
       </c>
       <c r="E13" s="28">
@@ -6341,13 +6519,13 @@
         <v>1008</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D14" s="28" t="str">
-        <f>A14&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1008.tga</v>
       </c>
       <c r="E14" s="28">
@@ -6367,13 +6545,13 @@
         <v>1009</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>A15&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1009.tga</v>
       </c>
       <c r="E15" s="28">
@@ -6393,13 +6571,13 @@
         <v>1010</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f>A16&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1010.tga</v>
       </c>
       <c r="E16" s="28">
@@ -6419,13 +6597,13 @@
         <v>1011</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f>A17&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1011.tga</v>
       </c>
       <c r="E17" s="28">
@@ -6445,13 +6623,13 @@
         <v>1012</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D18" s="28" t="str">
-        <f>A18&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1012.tga</v>
       </c>
       <c r="E18" s="28">
@@ -6471,13 +6649,13 @@
         <v>1013</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D19" s="28" t="str">
-        <f>A19&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1013.tga</v>
       </c>
       <c r="E19" s="28">
@@ -6497,13 +6675,13 @@
         <v>1014</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D20" s="28" t="str">
-        <f>A20&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1014.tga</v>
       </c>
       <c r="E20" s="28">
@@ -6523,13 +6701,13 @@
         <v>1015</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D21" s="28" t="str">
-        <f>A21&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1015.tga</v>
       </c>
       <c r="E21" s="28">
@@ -6549,13 +6727,13 @@
         <v>1016</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D22" s="28" t="str">
-        <f>A22&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1016.tga</v>
       </c>
       <c r="E22" s="28">
@@ -6575,13 +6753,13 @@
         <v>1017</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D23" s="28" t="str">
-        <f>A23&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1017.tga</v>
       </c>
       <c r="E23" s="28">
@@ -6601,13 +6779,13 @@
         <v>1018</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D24" s="28" t="str">
-        <f>A24&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1018.tga</v>
       </c>
       <c r="E24" s="28">
@@ -6627,13 +6805,13 @@
         <v>1019</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D25" s="28" t="str">
-        <f>A25&amp;".tga"</f>
+        <f t="shared" si="0"/>
         <v>1019.tga</v>
       </c>
       <c r="E25" s="28">
@@ -6658,185 +6836,511 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="29">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="29">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="29">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="29">
         <v>8</v>
       </c>
-      <c r="D4" s="29">
+      <c r="C6" s="29">
         <v>7</v>
       </c>
-      <c r="E4" s="29">
-        <f>C4*D4</f>
-        <v>56</v>
-      </c>
-      <c r="F4" s="29">
-        <f>SUM($E$4:E4)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="29">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="29">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29">
+        <v>10002</v>
+      </c>
+      <c r="B7" s="29">
         <v>8</v>
       </c>
-      <c r="D5" s="29">
+      <c r="C7" s="29">
         <v>8</v>
       </c>
-      <c r="E5" s="29">
-        <f t="shared" ref="E5" si="0">C5*D5</f>
-        <v>64</v>
-      </c>
-      <c r="F5" s="29">
-        <f>SUM($E$4:E5)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="29">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="29">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="29">
+        <v>10003</v>
+      </c>
+      <c r="B8" s="29">
         <v>4</v>
       </c>
-      <c r="D6" s="29">
+      <c r="C8" s="29">
         <v>16</v>
       </c>
-      <c r="E6" s="29">
-        <f>C7*D7</f>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="29">
+        <v>10004</v>
+      </c>
+      <c r="B9" s="29">
+        <v>4</v>
+      </c>
+      <c r="C9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="29">
+        <v>10005</v>
+      </c>
+      <c r="B10" s="29">
+        <v>4</v>
+      </c>
+      <c r="C10" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="29">
+        <v>20000</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
         <v>8</v>
       </c>
-      <c r="F6" s="29">
-        <f>SUM($E$4:E6)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="29">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="29">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="29">
+        <v>20001</v>
+      </c>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="45">
+        <v>30001</v>
+      </c>
+      <c r="B13" s="45">
         <v>4</v>
       </c>
-      <c r="D7" s="29">
+      <c r="C13" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="45">
+        <v>30002</v>
+      </c>
+      <c r="B14" s="45">
+        <v>4</v>
+      </c>
+      <c r="C14" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="45">
+        <v>30003</v>
+      </c>
+      <c r="B15" s="45">
+        <v>4</v>
+      </c>
+      <c r="C15" s="45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="45">
+        <v>30004</v>
+      </c>
+      <c r="B16" s="45">
+        <v>4</v>
+      </c>
+      <c r="C16" s="45">
         <v>2</v>
       </c>
-      <c r="E7" s="29">
-        <f>C8*D8</f>
-        <v>40</v>
-      </c>
-      <c r="F7" s="29">
-        <f>SUM($E$4:E7)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="29">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="29">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="45">
+        <v>30005</v>
+      </c>
+      <c r="B17" s="45">
         <v>4</v>
       </c>
-      <c r="D8" s="29">
+      <c r="C17" s="45">
         <v>10</v>
       </c>
-      <c r="E8" s="29">
-        <f>C6*D6</f>
-        <v>64</v>
-      </c>
-      <c r="F8" s="29">
-        <f>SUM($E$4:E8)</f>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="29">
-        <v>2000</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="29">
-        <v>2001</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="29">
-        <v>12</v>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="45">
+        <v>30011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="45">
+        <v>30012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="45">
+        <v>30013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="45">
+        <v>30014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="45">
+        <v>30015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="45">
+        <v>30021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="45">
+        <v>30022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="45">
+        <v>30023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="45">
+        <v>30024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="45">
+        <v>30025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="45">
+        <v>30031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="45">
+        <v>30032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="45">
+        <v>30033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="45">
+        <v>30034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="45">
+        <v>30035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>30041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>30042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>30043</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>30044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>30045</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>30051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>30052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>30053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>30054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>30055</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>30061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>30062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>30063</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>30064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>30065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>30071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>30072</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>30073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>30074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>30075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>30081</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>30082</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>30083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>30084</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>30085</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>30091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>30092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>30093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>30094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>30095</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>30101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>30102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>30103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>30104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>30105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>30111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>30112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>30113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>30114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>30115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>30121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>30122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>30123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>30124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>30125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>30131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>30132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>30133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>30134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>30135</v>
       </c>
     </row>
   </sheetData>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数值" sheetId="2" r:id="rId1"/>
@@ -106,38 +106,11 @@
           </rPr>
           <t xml:space="preserve">
 列表顺序：
-站立、跑步、攻击、受击、死亡</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>zhaona:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-列表顺序：
 跑步、攻击、受击、死亡</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="280">
   <si>
     <t>战斗时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,52 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>3008</t>
-  </si>
-  <si>
-    <t>3009</t>
-  </si>
-  <si>
-    <t>3010</t>
-  </si>
-  <si>
-    <t>3011</t>
-  </si>
-  <si>
     <t>itemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -992,14 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动画列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flashList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,14 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2000,0,2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1001,1002,1003,1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1180,10 +1087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1200,10 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>师傅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,9 +1111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3012</t>
-  </si>
-  <si>
     <t>怪物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1259,9 +1155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3013</t>
-  </si>
-  <si>
     <t>怪物14</t>
   </si>
   <si>
@@ -1317,10 +1210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动画ID = 角色ID + 动作ID，共五位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1329,7 +1218,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件名 = 动画ID + 方向编号 + 序号</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个怪物存贮一份自愿，自愿内每个帧动画命名 = 动画ID + 方向编号 + 序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,7 +1349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1516,11 +1433,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1594,14 +1520,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1622,7 +1542,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2988,7 +2915,7 @@
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -3000,12 +2927,12 @@
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -3055,7 +2982,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -3097,7 +3024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3142,7 +3069,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3190,7 +3117,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -3238,7 +3165,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -3286,7 +3213,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -3334,7 +3261,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -3348,7 +3275,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3359,7 +3286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -3389,7 +3316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3400,7 +3327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3411,7 +3338,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3422,7 +3349,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3436,7 +3363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3447,7 +3374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3458,7 +3385,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3469,7 +3396,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3483,7 +3410,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -3494,7 +3421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3505,7 +3432,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3516,7 +3443,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -3524,7 +3451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3532,7 +3459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3540,7 +3467,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3551,7 +3478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3562,7 +3489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3573,7 +3500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3584,7 +3511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3595,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -3636,7 +3563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -3677,7 +3604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -3753,13 +3680,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="C40">
         <f>D38/(B38-C38)</f>
         <v>49.28</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -3770,7 +3697,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="str">
         <f t="shared" ref="A43:C44" si="5">E6</f>
         <v>技能攻击倍率</v>
@@ -3809,7 +3736,7 @@
         <v>生命</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3848,7 +3775,7 @@
         <v>37571.052631578947</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B45" s="8" t="s">
         <v>60</v>
       </c>
@@ -3910,7 +3837,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3982,7 +3909,7 @@
         <v>299.12754466140422</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -4024,7 +3951,7 @@
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4063,7 +3990,7 @@
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4127,7 +4054,7 @@
       </c>
       <c r="U49" s="19"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -4138,7 +4065,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="str">
         <f t="shared" ref="A52:G53" si="10">A43</f>
         <v>技能攻击倍率</v>
@@ -4180,7 +4107,7 @@
         <v>生命</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <f t="shared" ref="A53:B53" si="12">E8</f>
         <v>1.5</v>
@@ -4222,7 +4149,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B54" s="8" t="s">
         <v>60</v>
       </c>
@@ -4284,7 +4211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -4358,7 +4285,7 @@
         <v>402.0100502512563</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -4400,7 +4327,7 @@
       <c r="T56" s="19"/>
       <c r="U56" s="19"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -4441,7 +4368,7 @@
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -4520,12 +4447,12 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="22"/>
       <c r="B2" s="22" t="s">
         <v>93</v>
@@ -4542,237 +4469,237 @@
       <c r="J2" s="23"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="39"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="39"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="39" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="41" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="40" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="41" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="40" t="s">
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="38"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="41" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="40"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="40"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4803,9 +4730,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4815,7 +4742,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4829,7 +4756,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4844,7 +4771,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4860,7 +4787,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4876,7 +4803,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4892,7 +4819,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4908,7 +4835,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4924,7 +4851,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4940,7 +4867,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4956,12 +4883,12 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4971,7 +4898,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4985,7 +4912,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5000,7 +4927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5016,7 +4943,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5032,7 +4959,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="11:13">
+    <row r="17" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K17">
         <v>3</v>
       </c>
@@ -5045,14 +4972,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="11:13">
+    <row r="19" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K19" s="25" t="s">
         <v>112</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="11:13">
+    <row r="20" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K20" s="2" t="s">
         <v>107</v>
       </c>
@@ -5063,7 +4990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="11:13">
+    <row r="21" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K21">
         <v>0</v>
       </c>
@@ -5074,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="11:13">
+    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K22">
         <v>1</v>
       </c>
@@ -5085,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="11:13">
+    <row r="23" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K23">
         <v>2</v>
       </c>
@@ -5096,7 +5023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="11:13">
+    <row r="24" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K24">
         <v>3</v>
       </c>
@@ -5122,7 +5049,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -5131,15 +5058,15 @@
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="20.25" customHeight="1">
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>124</v>
@@ -5148,7 +5075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -5159,13 +5086,13 @@
         <v>113</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1">
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -5180,7 +5107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -5194,7 +5121,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1">
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -5205,13 +5132,13 @@
         <v>118</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -5219,16 +5146,16 @@
         <v>123</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5238,203 +5165,193 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:R26"/>
+  <dimension ref="A6:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="36" customWidth="1"/>
+    <col min="1" max="1" width="11" style="35" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="26" customWidth="1"/>
     <col min="3" max="3" width="11" style="26" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="26" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="12" width="4.75" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
-    <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
-    <col min="17" max="17" width="17.875" customWidth="1"/>
-    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="11" width="4.75" customWidth="1"/>
+    <col min="12" max="12" width="3.875" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="16" max="16" width="17.875" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:18" s="3" customFormat="1">
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>207</v>
+        <v>171</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K6" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>258</v>
-      </c>
       <c r="P6" s="30" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="H7" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>211</v>
-      </c>
       <c r="Q7" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="35" t="s">
-        <v>130</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="43">
+        <v>1000</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>129</v>
@@ -5443,56 +5360,55 @@
         <v>1</v>
       </c>
       <c r="E9" s="28"/>
-      <c r="F9" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="G9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
+        <v>30</v>
+      </c>
       <c r="H9" s="29">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I9" s="29">
+        <v>100</v>
+      </c>
+      <c r="J9" s="29">
+        <v>20</v>
+      </c>
+      <c r="K9" s="29">
         <v>10</v>
       </c>
-      <c r="J9" s="29">
-        <v>100</v>
-      </c>
-      <c r="K9" s="29">
-        <v>20</v>
-      </c>
       <c r="L9" s="29">
-        <v>10</v>
-      </c>
-      <c r="M9" s="29">
         <v>2</v>
       </c>
+      <c r="M9" s="29"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="O9" s="29" t="s">
+        <v>200</v>
+      </c>
       <c r="P9" s="29" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="28"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="43">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>229</v>
+      </c>
       <c r="C10" s="28" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D10" s="28">
         <v>2</v>
       </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
+        <v>10</v>
+      </c>
       <c r="H10" s="29">
         <v>10</v>
       </c>
@@ -5506,41 +5422,42 @@
         <v>10</v>
       </c>
       <c r="L10" s="29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M10" s="29">
+        <v>2001</v>
+      </c>
+      <c r="N10" s="29">
         <v>2</v>
       </c>
-      <c r="N10" s="29">
+      <c r="O10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="43">
         <v>2001</v>
       </c>
-      <c r="O10" s="29">
-        <v>2</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>147</v>
+      </c>
       <c r="C11" s="28" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D11" s="28">
         <v>2</v>
       </c>
       <c r="E11" s="28"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29">
+        <v>10</v>
+      </c>
       <c r="H11" s="29">
         <v>10</v>
       </c>
@@ -5554,36 +5471,35 @@
         <v>10</v>
       </c>
       <c r="L11" s="29">
-        <v>10</v>
-      </c>
-      <c r="M11" s="29">
         <v>2</v>
       </c>
+      <c r="M11" s="29"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29" t="s">
-        <v>221</v>
+      <c r="O11" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="P11" s="29">
+        <v>3</v>
       </c>
       <c r="Q11" s="29">
-        <v>3</v>
-      </c>
-      <c r="R11" s="29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="43">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>240</v>
+      </c>
       <c r="C12" s="28" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D12" s="28">
         <v>2</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -5595,623 +5511,606 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="35" t="s">
-        <v>132</v>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="43">
+        <v>3000</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D13" s="28">
         <v>3</v>
       </c>
       <c r="E13" s="28"/>
-      <c r="F13" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="G13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29">
+        <v>12</v>
+      </c>
       <c r="H13" s="29">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I13" s="29">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="J13" s="29">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="K13" s="29">
-        <v>11</v>
-      </c>
-      <c r="L13" s="29">
         <v>10</v>
       </c>
+      <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29" t="s">
-        <v>222</v>
+      <c r="O13" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="29">
+        <v>2</v>
       </c>
       <c r="Q13" s="29">
-        <v>2</v>
-      </c>
-      <c r="R13" s="29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="35" t="s">
-        <v>133</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="43">
+        <v>3001</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29">
+        <v>16</v>
+      </c>
       <c r="H14" s="29">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I14" s="29">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J14" s="29">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="K14" s="29">
-        <v>12</v>
-      </c>
-      <c r="L14" s="29">
         <v>15</v>
       </c>
+      <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29" t="s">
-        <v>222</v>
+      <c r="O14" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="29">
+        <v>2</v>
       </c>
       <c r="Q14" s="29">
-        <v>2</v>
-      </c>
-      <c r="R14" s="29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="35" t="s">
-        <v>134</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="43">
+        <v>3002</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
       </c>
       <c r="E15" s="28"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29">
+        <v>25</v>
+      </c>
       <c r="H15" s="29">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I15" s="29">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="J15" s="29">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="K15" s="29">
-        <v>13</v>
-      </c>
-      <c r="L15" s="29">
         <v>20</v>
       </c>
+      <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29" t="s">
-        <v>227</v>
+      <c r="O15" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="P15" s="29">
+        <v>2</v>
       </c>
       <c r="Q15" s="29">
-        <v>2</v>
-      </c>
-      <c r="R15" s="29">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="35" t="s">
-        <v>135</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="43">
+        <v>3003</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29">
+        <v>32</v>
+      </c>
       <c r="H16" s="29">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I16" s="29">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="J16" s="29">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="K16" s="29">
-        <v>14</v>
-      </c>
-      <c r="L16" s="29">
         <v>25</v>
       </c>
+      <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29" t="s">
-        <v>223</v>
+      <c r="O16" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="29">
+        <v>2</v>
       </c>
       <c r="Q16" s="29">
-        <v>2</v>
-      </c>
-      <c r="R16" s="29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="35" t="s">
-        <v>136</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="43">
+        <v>3004</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29">
+        <v>45</v>
+      </c>
       <c r="H17" s="29">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I17" s="29">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J17" s="29">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="K17" s="29">
-        <v>15</v>
-      </c>
-      <c r="L17" s="29">
         <v>30</v>
       </c>
+      <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29" t="s">
-        <v>223</v>
+      <c r="O17" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="29">
+        <v>2</v>
       </c>
       <c r="Q17" s="29">
-        <v>2</v>
-      </c>
-      <c r="R17" s="29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="35" t="s">
-        <v>137</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="43">
+        <v>3005</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
       </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29">
+        <v>63</v>
+      </c>
       <c r="H18" s="29">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I18" s="29">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="J18" s="29">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="K18" s="29">
-        <v>16</v>
-      </c>
-      <c r="L18" s="29">
         <v>35</v>
       </c>
+      <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29" t="s">
-        <v>224</v>
+      <c r="O18" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="P18" s="29">
+        <v>2</v>
       </c>
       <c r="Q18" s="29">
-        <v>2</v>
-      </c>
-      <c r="R18" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="35" t="s">
-        <v>138</v>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="43">
+        <v>3006</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
       </c>
       <c r="E19" s="28"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29">
+        <v>85</v>
+      </c>
       <c r="H19" s="29">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I19" s="29">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="J19" s="29">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="K19" s="29">
-        <v>17</v>
-      </c>
-      <c r="L19" s="29">
         <v>40</v>
       </c>
+      <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29" t="s">
-        <v>225</v>
+      <c r="O19" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="P19" s="29">
+        <v>4</v>
       </c>
       <c r="Q19" s="29">
-        <v>4</v>
-      </c>
-      <c r="R19" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="35" t="s">
-        <v>139</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="43">
+        <v>3007</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D20" s="28">
         <v>3</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29">
+        <v>110</v>
+      </c>
       <c r="H20" s="29">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I20" s="29">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="J20" s="29">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="K20" s="29">
-        <v>18</v>
-      </c>
-      <c r="L20" s="29">
         <v>45</v>
       </c>
+      <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29" t="s">
-        <v>226</v>
+      <c r="O20" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" s="29">
+        <v>2</v>
       </c>
       <c r="Q20" s="29">
-        <v>2</v>
-      </c>
-      <c r="R20" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="35" t="s">
-        <v>140</v>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="43">
+        <v>3008</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D21" s="28">
         <v>3</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29">
+        <v>135</v>
+      </c>
       <c r="H21" s="29">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I21" s="29">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="J21" s="29">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="K21" s="29">
-        <v>19</v>
-      </c>
-      <c r="L21" s="29">
         <v>50</v>
       </c>
+      <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29" t="s">
-        <v>227</v>
+      <c r="O21" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="P21" s="29">
+        <v>2</v>
       </c>
       <c r="Q21" s="29">
-        <v>2</v>
-      </c>
-      <c r="R21" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="35" t="s">
-        <v>141</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="43">
+        <v>3009</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D22" s="28">
         <v>3</v>
       </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29">
+        <v>170</v>
+      </c>
       <c r="H22" s="29">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="I22" s="29">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J22" s="29">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="K22" s="29">
-        <v>20</v>
-      </c>
-      <c r="L22" s="29">
         <v>55</v>
       </c>
+      <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29" t="s">
-        <v>228</v>
+      <c r="O22" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="P22" s="29">
+        <v>2</v>
       </c>
       <c r="Q22" s="29">
-        <v>2</v>
-      </c>
-      <c r="R22" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="35" t="s">
-        <v>142</v>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="43">
+        <v>3010</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D23" s="28">
         <v>3</v>
       </c>
       <c r="E23" s="28"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29">
+        <v>200</v>
+      </c>
       <c r="H23" s="29">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="I23" s="29">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="J23" s="29">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="K23" s="29">
-        <v>21</v>
-      </c>
-      <c r="L23" s="29">
         <v>60</v>
       </c>
+      <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29" t="s">
-        <v>229</v>
+      <c r="O23" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" s="29">
+        <v>2</v>
       </c>
       <c r="Q23" s="29">
-        <v>2</v>
-      </c>
-      <c r="R23" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="35" t="s">
-        <v>143</v>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="43">
+        <v>3011</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D24" s="28">
         <v>3</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29">
+        <v>250</v>
+      </c>
       <c r="H24" s="29">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="I24" s="29">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="J24" s="29">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="K24" s="29">
-        <v>22</v>
-      </c>
-      <c r="L24" s="29">
         <v>65</v>
       </c>
+      <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29" t="s">
-        <v>230</v>
+      <c r="O24" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="P24" s="29">
+        <v>2</v>
       </c>
       <c r="Q24" s="29">
-        <v>2</v>
-      </c>
-      <c r="R24" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="35" t="s">
-        <v>263</v>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="43">
+        <v>3012</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D25" s="28">
         <v>3</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29">
+        <v>300</v>
+      </c>
       <c r="H25" s="29">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="I25" s="29">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="J25" s="29">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="K25" s="29">
-        <v>23</v>
-      </c>
-      <c r="L25" s="29">
         <v>70</v>
       </c>
+      <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29" t="s">
-        <v>229</v>
+      <c r="O25" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="29">
+        <v>2</v>
       </c>
       <c r="Q25" s="29">
-        <v>2</v>
-      </c>
-      <c r="R25" s="29">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="35" t="s">
-        <v>278</v>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="43">
+        <v>3013</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="D26" s="28">
         <v>3</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29">
+        <v>300</v>
+      </c>
       <c r="H26" s="29">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="I26" s="29">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="J26" s="29">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="K26" s="29">
-        <v>23</v>
-      </c>
-      <c r="L26" s="29">
         <v>70</v>
       </c>
+      <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29" t="s">
-        <v>229</v>
+      <c r="O26" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="P26" s="29">
+        <v>2</v>
       </c>
       <c r="Q26" s="29">
-        <v>2</v>
-      </c>
-      <c r="R26" s="29">
         <v>0.2</v>
       </c>
     </row>
@@ -6227,94 +6126,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
         <v>1000</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>262</v>
+        <v>132</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D6" s="28" t="str">
         <f t="shared" ref="D6:D25" si="0">A6&amp;".tga"</f>
@@ -6332,15 +6231,15 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>1001</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>262</v>
+        <v>133</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D7" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6358,15 +6257,15 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
         <v>1002</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>262</v>
+        <v>134</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6384,15 +6283,15 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
         <v>1003</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>262</v>
+        <v>136</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D9" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6410,15 +6309,15 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="28">
         <v>1004</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>262</v>
+        <v>137</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6436,15 +6335,15 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
         <v>1005</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>262</v>
+        <v>138</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D11" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6462,15 +6361,15 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="28">
         <v>1006</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>262</v>
+        <v>140</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D12" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6488,15 +6387,15 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
         <v>1007</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>262</v>
+        <v>141</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D13" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6514,15 +6413,15 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="28">
         <v>1008</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>262</v>
+        <v>142</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D14" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6540,15 +6439,15 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="28">
         <v>1009</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>262</v>
+        <v>143</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6566,15 +6465,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="28">
         <v>1010</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>262</v>
+        <v>144</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6592,15 +6491,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="28">
         <v>1011</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>262</v>
+        <v>145</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D17" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6618,15 +6517,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="28">
         <v>1012</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>262</v>
+        <v>159</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6644,15 +6543,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="28">
         <v>1013</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>262</v>
+        <v>160</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D19" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6670,15 +6569,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="28">
         <v>1014</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>262</v>
+        <v>214</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6696,15 +6595,15 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="28">
         <v>1015</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>262</v>
+        <v>215</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D21" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6722,15 +6621,15 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="28">
         <v>1016</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>262</v>
+        <v>216</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6748,15 +6647,15 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="28">
         <v>1017</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>262</v>
+        <v>217</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D23" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6774,15 +6673,15 @@
       </c>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="28">
         <v>1018</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>262</v>
+        <v>218</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6800,15 +6699,15 @@
       </c>
       <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="28">
         <v>1019</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>262</v>
+        <v>219</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="D25" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6836,57 +6735,100 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>271</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>270</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>226</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>10001</v>
       </c>
@@ -6896,8 +6838,16 @@
       <c r="C6" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="str">
+        <f>VLOOKUP(INT(A6/10),role!$A$9:$B$26,2,0)</f>
+        <v>lkk</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(A6-INT(A6/10)*10,$G$1:$H$5,2,0)</f>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="29">
         <v>10002</v>
       </c>
@@ -6907,8 +6857,16 @@
       <c r="C7" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="str">
+        <f>VLOOKUP(INT(A7/10),role!$A$9:$B$26,2,0)</f>
+        <v>lkk</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E70" si="0">VLOOKUP(A7-INT(A7/10)*10,$G$1:$H$5,2,0)</f>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>10003</v>
       </c>
@@ -6918,8 +6876,16 @@
       <c r="C8" s="29">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="str">
+        <f>VLOOKUP(INT(A8/10),role!$A$9:$B$26,2,0)</f>
+        <v>lkk</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="29">
         <v>10004</v>
       </c>
@@ -6929,8 +6895,16 @@
       <c r="C9" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="str">
+        <f>VLOOKUP(INT(A9/10),role!$A$9:$B$26,2,0)</f>
+        <v>lkk</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="29">
         <v>10005</v>
       </c>
@@ -6940,10 +6914,18 @@
       <c r="C10" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="str">
+        <f>VLOOKUP(INT(A10/10),role!$A$9:$B$26,2,0)</f>
+        <v>lkk</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="29">
-        <v>20000</v>
+        <v>20001</v>
       </c>
       <c r="B11" s="29">
         <v>1</v>
@@ -6951,10 +6933,18 @@
       <c r="C11" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="str">
+        <f>VLOOKUP(INT(A11/10),role!$A$9:$B$26,2,0)</f>
+        <v>丫鬟</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="29">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B12" s="29">
         <v>1</v>
@@ -6962,385 +6952,1343 @@
       <c r="C12" s="29">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="45">
+      <c r="D12" t="str">
+        <f>VLOOKUP(INT(A12/10),role!$A$9:$B$26,2,0)</f>
+        <v>丫鬟</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="48">
         <v>30001</v>
       </c>
-      <c r="B13" s="45">
-        <v>4</v>
-      </c>
-      <c r="C13" s="45">
+      <c r="B13" s="48">
+        <v>4</v>
+      </c>
+      <c r="C13" s="48">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="45">
+      <c r="D13" t="str">
+        <f>VLOOKUP(INT(A13/10),role!$A$9:$B$26,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="48">
         <v>30002</v>
       </c>
-      <c r="B14" s="45">
-        <v>4</v>
-      </c>
-      <c r="C14" s="45">
+      <c r="B14" s="48">
+        <v>4</v>
+      </c>
+      <c r="C14" s="48">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="45">
+      <c r="D14" t="str">
+        <f>VLOOKUP(INT(A14/10),role!$A$9:$B$26,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="48">
         <v>30003</v>
       </c>
-      <c r="B15" s="45">
-        <v>4</v>
-      </c>
-      <c r="C15" s="45">
+      <c r="B15" s="48">
+        <v>4</v>
+      </c>
+      <c r="C15" s="48">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="45">
+      <c r="D15" t="str">
+        <f>VLOOKUP(INT(A15/10),role!$A$9:$B$26,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="48">
         <v>30004</v>
       </c>
-      <c r="B16" s="45">
-        <v>4</v>
-      </c>
-      <c r="C16" s="45">
+      <c r="B16" s="48">
+        <v>4</v>
+      </c>
+      <c r="C16" s="48">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="45">
+      <c r="D16" t="str">
+        <f>VLOOKUP(INT(A16/10),role!$A$9:$B$26,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="48">
         <v>30005</v>
       </c>
-      <c r="B17" s="45">
-        <v>4</v>
-      </c>
-      <c r="C17" s="45">
+      <c r="B17" s="48">
+        <v>4</v>
+      </c>
+      <c r="C17" s="48">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="45">
+      <c r="D17" t="str">
+        <f>VLOOKUP(INT(A17/10),role!$A$9:$B$26,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="48">
         <v>30011</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="45">
+      <c r="B18" s="48">
+        <v>4</v>
+      </c>
+      <c r="C18" s="48">
+        <v>8</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(INT(A18/10),role!$A$9:$B$26,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="48">
         <v>30012</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="45">
+      <c r="B19" s="48">
+        <v>4</v>
+      </c>
+      <c r="C19" s="48">
+        <v>7</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(INT(A19/10),role!$A$9:$B$26,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="48">
         <v>30013</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="45">
+      <c r="B20" s="29">
+        <v>4</v>
+      </c>
+      <c r="C20" s="29">
+        <v>13</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(INT(A20/10),role!$A$9:$B$26,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="48">
         <v>30014</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="45">
+      <c r="B21" s="29">
+        <v>4</v>
+      </c>
+      <c r="C21" s="29">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(INT(A21/10),role!$A$9:$B$26,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="48">
         <v>30015</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="45">
+      <c r="B22" s="29">
+        <v>4</v>
+      </c>
+      <c r="C22" s="29">
+        <v>8</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(INT(A22/10),role!$A$9:$B$26,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="48">
         <v>30021</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="45">
+      <c r="B23" s="29">
+        <v>4</v>
+      </c>
+      <c r="C23" s="29">
+        <v>8</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(INT(A23/10),role!$A$9:$B$26,2,0)</f>
+        <v>小乌龟</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="48">
         <v>30022</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="45">
+      <c r="B24" s="29">
+        <v>4</v>
+      </c>
+      <c r="C24" s="29">
+        <v>5</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(INT(A24/10),role!$A$9:$B$26,2,0)</f>
+        <v>小乌龟</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="48">
         <v>30023</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="45">
+      <c r="B25" s="29">
+        <v>4</v>
+      </c>
+      <c r="C25" s="29">
+        <v>15</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(INT(A25/10),role!$A$9:$B$26,2,0)</f>
+        <v>小乌龟</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="48">
         <v>30024</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="45">
+      <c r="B26" s="29">
+        <v>4</v>
+      </c>
+      <c r="C26" s="29">
+        <v>6</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(INT(A26/10),role!$A$9:$B$26,2,0)</f>
+        <v>小乌龟</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="48">
         <v>30025</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="45">
+      <c r="B27" s="29">
+        <v>4</v>
+      </c>
+      <c r="C27" s="29">
+        <v>10</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(INT(A27/10),role!$A$9:$B$26,2,0)</f>
+        <v>小乌龟</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="48">
         <v>30031</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="45">
+      <c r="B28" s="29">
+        <v>4</v>
+      </c>
+      <c r="C28" s="29">
+        <v>10</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(INT(A28/10),role!$A$9:$B$26,2,0)</f>
+        <v>狼</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="48">
         <v>30032</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="45">
+      <c r="B29" s="29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(INT(A29/10),role!$A$9:$B$26,2,0)</f>
+        <v>狼</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="48">
         <v>30033</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="45">
+      <c r="B30" s="29">
+        <v>4</v>
+      </c>
+      <c r="C30" s="29">
+        <v>9</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(INT(A30/10),role!$A$9:$B$26,2,0)</f>
+        <v>狼</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="48">
         <v>30034</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="45">
+      <c r="B31" s="29">
+        <v>4</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(INT(A31/10),role!$A$9:$B$26,2,0)</f>
+        <v>狼</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="48">
         <v>30035</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+      <c r="B32" s="29">
+        <v>4</v>
+      </c>
+      <c r="C32" s="29">
+        <v>9</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(INT(A32/10),role!$A$9:$B$26,2,0)</f>
+        <v>狼</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="29">
         <v>30041</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+      <c r="B33" s="29">
+        <v>4</v>
+      </c>
+      <c r="C33" s="29">
+        <v>9</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(INT(A33/10),role!$A$9:$B$26,2,0)</f>
+        <v>老虎</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="29">
         <v>30042</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+      <c r="B34" s="29">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29">
+        <v>5</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(INT(A34/10),role!$A$9:$B$26,2,0)</f>
+        <v>老虎</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="29">
         <v>30043</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+      <c r="B35" s="29">
+        <v>4</v>
+      </c>
+      <c r="C35" s="29">
+        <v>10</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(INT(A35/10),role!$A$9:$B$26,2,0)</f>
+        <v>老虎</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="29">
         <v>30044</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+      <c r="B36" s="29">
+        <v>4</v>
+      </c>
+      <c r="C36" s="29">
+        <v>2</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(INT(A36/10),role!$A$9:$B$26,2,0)</f>
+        <v>老虎</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="29">
         <v>30045</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+      <c r="B37" s="29">
+        <v>4</v>
+      </c>
+      <c r="C37" s="29">
+        <v>7</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(INT(A37/10),role!$A$9:$B$26,2,0)</f>
+        <v>老虎</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="29">
         <v>30051</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+      <c r="B38" s="29">
+        <v>4</v>
+      </c>
+      <c r="C38" s="29">
+        <v>1</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(INT(A38/10),role!$A$9:$B$26,2,0)</f>
+        <v>树精</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="29">
         <v>30052</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+      <c r="B39" s="29">
+        <v>4</v>
+      </c>
+      <c r="C39" s="29">
+        <v>8</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(INT(A39/10),role!$A$9:$B$26,2,0)</f>
+        <v>树精</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="29">
         <v>30053</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+      <c r="B40" s="29">
+        <v>4</v>
+      </c>
+      <c r="C40" s="29">
+        <v>8</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(INT(A40/10),role!$A$9:$B$26,2,0)</f>
+        <v>树精</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="29">
         <v>30054</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+      <c r="B41" s="29">
+        <v>4</v>
+      </c>
+      <c r="C41" s="29">
+        <v>2</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(INT(A41/10),role!$A$9:$B$26,2,0)</f>
+        <v>树精</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="29">
         <v>30055</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+      <c r="B42" s="29">
+        <v>4</v>
+      </c>
+      <c r="C42" s="29">
+        <v>7</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(INT(A42/10),role!$A$9:$B$26,2,0)</f>
+        <v>树精</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="29">
         <v>30061</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+      <c r="B43" s="29">
+        <v>4</v>
+      </c>
+      <c r="C43" s="29">
+        <v>9</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(INT(A43/10),role!$A$9:$B$26,2,0)</f>
+        <v>刀兵</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="29">
         <v>30062</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+      <c r="B44" s="29">
+        <v>4</v>
+      </c>
+      <c r="C44" s="29">
+        <v>5</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(INT(A44/10),role!$A$9:$B$26,2,0)</f>
+        <v>刀兵</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="29">
         <v>30063</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+      <c r="B45" s="29">
+        <v>4</v>
+      </c>
+      <c r="C45" s="29">
+        <v>14</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(INT(A45/10),role!$A$9:$B$26,2,0)</f>
+        <v>刀兵</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="29">
         <v>30064</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+      <c r="B46" s="29">
+        <v>4</v>
+      </c>
+      <c r="C46" s="29">
+        <v>2</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(INT(A46/10),role!$A$9:$B$26,2,0)</f>
+        <v>刀兵</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="29">
         <v>30065</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+      <c r="B47" s="29">
+        <v>4</v>
+      </c>
+      <c r="C47" s="29">
+        <v>8</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(INT(A47/10),role!$A$9:$B$26,2,0)</f>
+        <v>刀兵</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="29">
         <v>30071</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+      <c r="B48" s="29">
+        <v>4</v>
+      </c>
+      <c r="C48" s="29">
+        <v>9</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(INT(A48/10),role!$A$9:$B$26,2,0)</f>
+        <v>虾兵</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="29">
         <v>30072</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+      <c r="B49" s="29">
+        <v>4</v>
+      </c>
+      <c r="C49" s="29">
+        <v>5</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(INT(A49/10),role!$A$9:$B$26,2,0)</f>
+        <v>虾兵</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="29">
         <v>30073</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+      <c r="B50" s="29">
+        <v>4</v>
+      </c>
+      <c r="C50" s="29">
+        <v>11</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(INT(A50/10),role!$A$9:$B$26,2,0)</f>
+        <v>虾兵</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="29">
         <v>30074</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+      <c r="B51" s="29">
+        <v>4</v>
+      </c>
+      <c r="C51" s="29">
+        <v>2</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(INT(A51/10),role!$A$9:$B$26,2,0)</f>
+        <v>虾兵</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="29">
         <v>30075</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+      <c r="B52" s="29">
+        <v>4</v>
+      </c>
+      <c r="C52" s="29">
+        <v>8</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(INT(A52/10),role!$A$9:$B$26,2,0)</f>
+        <v>虾兵</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="29">
         <v>30081</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+      <c r="B53" s="29">
+        <v>4</v>
+      </c>
+      <c r="C53" s="29">
+        <v>8</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(INT(A53/10),role!$A$9:$B$26,2,0)</f>
+        <v>蟹将</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="29">
         <v>30082</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+      <c r="B54" s="29">
+        <v>4</v>
+      </c>
+      <c r="C54" s="29">
+        <v>5</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(INT(A54/10),role!$A$9:$B$26,2,0)</f>
+        <v>蟹将</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="29">
         <v>30083</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+      <c r="B55" s="29">
+        <v>4</v>
+      </c>
+      <c r="C55" s="29">
+        <v>11</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(INT(A55/10),role!$A$9:$B$26,2,0)</f>
+        <v>蟹将</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="29">
         <v>30084</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+      <c r="B56" s="29">
+        <v>4</v>
+      </c>
+      <c r="C56" s="29">
+        <v>2</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(INT(A56/10),role!$A$9:$B$26,2,0)</f>
+        <v>蟹将</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="29">
         <v>30085</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+      <c r="B57" s="29">
+        <v>4</v>
+      </c>
+      <c r="C57" s="29">
+        <v>8</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(INT(A57/10),role!$A$9:$B$26,2,0)</f>
+        <v>蟹将</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="29">
         <v>30091</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+      <c r="B58" s="29">
+        <v>4</v>
+      </c>
+      <c r="C58" s="29">
+        <v>8</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(INT(A58/10),role!$A$9:$B$26,2,0)</f>
+        <v>蛙妖</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="29">
         <v>30092</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+      <c r="B59" s="29">
+        <v>4</v>
+      </c>
+      <c r="C59" s="29">
+        <v>4</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(INT(A59/10),role!$A$9:$B$26,2,0)</f>
+        <v>蛙妖</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="29">
         <v>30093</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+      <c r="B60" s="29">
+        <v>4</v>
+      </c>
+      <c r="C60" s="29">
+        <v>12</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(INT(A60/10),role!$A$9:$B$26,2,0)</f>
+        <v>蛙妖</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="29">
         <v>30094</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+      <c r="B61" s="29">
+        <v>4</v>
+      </c>
+      <c r="C61" s="29">
+        <v>2</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(INT(A61/10),role!$A$9:$B$26,2,0)</f>
+        <v>蛙妖</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="29">
         <v>30095</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+      <c r="B62" s="29">
+        <v>4</v>
+      </c>
+      <c r="C62" s="29">
+        <v>12</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(INT(A62/10),role!$A$9:$B$26,2,0)</f>
+        <v>蛙妖</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="29">
         <v>30101</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+      <c r="B63" s="29">
+        <v>4</v>
+      </c>
+      <c r="C63" s="29">
+        <v>10</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(INT(A63/10),role!$A$9:$B$26,2,0)</f>
+        <v>鬼灵</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="29">
         <v>30102</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+      <c r="B64" s="29">
+        <v>4</v>
+      </c>
+      <c r="C64" s="29">
+        <v>5</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(INT(A64/10),role!$A$9:$B$26,2,0)</f>
+        <v>鬼灵</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="29">
         <v>30103</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+      <c r="B65" s="29">
+        <v>4</v>
+      </c>
+      <c r="C65" s="29">
+        <v>12</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(INT(A65/10),role!$A$9:$B$26,2,0)</f>
+        <v>鬼灵</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="29">
         <v>30104</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+      <c r="B66" s="29">
+        <v>4</v>
+      </c>
+      <c r="C66" s="29">
+        <v>2</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(INT(A66/10),role!$A$9:$B$26,2,0)</f>
+        <v>鬼灵</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="29">
         <v>30105</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+      <c r="B67" s="29">
+        <v>4</v>
+      </c>
+      <c r="C67" s="29">
+        <v>9</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(INT(A67/10),role!$A$9:$B$26,2,0)</f>
+        <v>鬼灵</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="29">
         <v>30111</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+      <c r="B68" s="29">
+        <v>4</v>
+      </c>
+      <c r="C68" s="29">
+        <v>8</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(INT(A68/10),role!$A$9:$B$26,2,0)</f>
+        <v>牛妖</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="0"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="29">
         <v>30112</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+      <c r="B69" s="29">
+        <v>4</v>
+      </c>
+      <c r="C69" s="29">
+        <v>4</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(INT(A69/10),role!$A$9:$B$26,2,0)</f>
+        <v>牛妖</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="0"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="29">
         <v>30113</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+      <c r="B70" s="29">
+        <v>4</v>
+      </c>
+      <c r="C70" s="29">
+        <v>13</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(INT(A70/10),role!$A$9:$B$26,2,0)</f>
+        <v>牛妖</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="0"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="29">
         <v>30114</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
+      <c r="B71" s="29">
+        <v>4</v>
+      </c>
+      <c r="C71" s="29">
+        <v>2</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(INT(A71/10),role!$A$9:$B$26,2,0)</f>
+        <v>牛妖</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ref="E71:E82" si="1">VLOOKUP(A71-INT(A71/10)*10,$G$1:$H$5,2,0)</f>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="29">
         <v>30115</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+      <c r="B72" s="29">
+        <v>4</v>
+      </c>
+      <c r="C72" s="29">
+        <v>8</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(INT(A72/10),role!$A$9:$B$26,2,0)</f>
+        <v>牛妖</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="29">
         <v>30121</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+      <c r="B73" s="29">
+        <v>4</v>
+      </c>
+      <c r="C73" s="29">
+        <v>13</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(INT(A73/10),role!$A$9:$B$26,2,0)</f>
+        <v>龙族少年</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="29">
         <v>30122</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+      <c r="B74" s="29">
+        <v>4</v>
+      </c>
+      <c r="C74" s="29">
+        <v>5</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(INT(A74/10),role!$A$9:$B$26,2,0)</f>
+        <v>龙族少年</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="29">
         <v>30123</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+      <c r="B75" s="29">
+        <v>4</v>
+      </c>
+      <c r="C75" s="29">
+        <v>12</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(INT(A75/10),role!$A$9:$B$26,2,0)</f>
+        <v>龙族少年</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="29">
         <v>30124</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+      <c r="B76" s="29">
+        <v>4</v>
+      </c>
+      <c r="C76" s="29">
+        <v>2</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(INT(A76/10),role!$A$9:$B$26,2,0)</f>
+        <v>龙族少年</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="29">
         <v>30125</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+      <c r="B77" s="29">
+        <v>4</v>
+      </c>
+      <c r="C77" s="29">
+        <v>10</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(INT(A77/10),role!$A$9:$B$26,2,0)</f>
+        <v>龙族少年</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>die</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="29">
         <v>30131</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+      <c r="B78" s="29">
+        <v>4</v>
+      </c>
+      <c r="C78" s="29">
+        <v>10</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(INT(A78/10),role!$A$9:$B$26,2,0)</f>
+        <v>狐妖</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>stand</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="29">
         <v>30132</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+      <c r="B79" s="29">
+        <v>4</v>
+      </c>
+      <c r="C79" s="29">
+        <v>5</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(INT(A79/10),role!$A$9:$B$26,2,0)</f>
+        <v>狐妖</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>run</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="29">
         <v>30133</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
+      <c r="B80" s="29">
+        <v>4</v>
+      </c>
+      <c r="C80" s="29">
+        <v>10</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(INT(A80/10),role!$A$9:$B$26,2,0)</f>
+        <v>狐妖</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>attack</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="29">
         <v>30134</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
+      <c r="B81" s="29">
+        <v>4</v>
+      </c>
+      <c r="C81" s="29">
+        <v>2</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(INT(A81/10),role!$A$9:$B$26,2,0)</f>
+        <v>狐妖</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>hit</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="29">
         <v>30135</v>
+      </c>
+      <c r="B82" s="29">
+        <v>4</v>
+      </c>
+      <c r="C82" s="29">
+        <v>10</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(INT(A82/10),role!$A$9:$B$26,2,0)</f>
+        <v>狐妖</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>die</v>
       </c>
     </row>
   </sheetData>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,36 +107,6 @@
           <t xml:space="preserve">
 列表顺序：
 跑步、攻击、受击、死亡</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>zhaona:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1. 进入新地图
-2. 攻击
-3. 主角在相邻格子
-4. 受击
-5. 接着上一句</t>
         </r>
       </text>
     </comment>
@@ -172,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="273">
   <si>
     <t>战斗时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,34 +889,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对话触发概率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>conversation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>possibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话触发条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"娜娜，我一定会踩着七彩祥云去救你的！","打死你打死你打死你！"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -955,14 +901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"价格公道，包您满意~"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,14 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npc动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npcAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1091,10 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>npc默认方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1247,6 +1173,22 @@
   </si>
   <si>
     <t>每个怪物存贮一份自愿，自愿内每个帧动画命名 = 动画ID + 方向编号 + 序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aaffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"对娜娜喊一百句我爱你可以立刻通关！"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,7 +1199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1468,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1542,14 +1492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2915,7 +2857,7 @@
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -2927,12 +2869,12 @@
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2982,7 +2924,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -3024,7 +2966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3069,7 +3011,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3117,7 +3059,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -3165,7 +3107,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -3213,7 +3155,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3203,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
@@ -3275,7 +3217,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3286,7 +3228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -3316,7 +3258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3327,7 +3269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3338,7 +3280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3349,7 +3291,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3363,7 +3305,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3374,7 +3316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3385,7 +3327,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3396,7 +3338,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3410,7 +3352,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -3421,7 +3363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3432,7 +3374,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3443,7 +3385,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -3451,7 +3393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3459,7 +3401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3467,7 +3409,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3478,7 +3420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3489,7 +3431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3500,7 +3442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3522,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -3563,7 +3505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -3604,7 +3546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -3645,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -3680,13 +3622,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21">
       <c r="C40">
         <f>D38/(B38-C38)</f>
         <v>49.28</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -3697,7 +3639,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21">
       <c r="A43" s="2" t="str">
         <f t="shared" ref="A43:C44" si="5">E6</f>
         <v>技能攻击倍率</v>
@@ -3736,7 +3678,7 @@
         <v>生命</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21">
       <c r="A44">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3775,7 +3717,7 @@
         <v>37571.052631578947</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21">
       <c r="B45" s="8" t="s">
         <v>60</v>
       </c>
@@ -3837,7 +3779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3909,7 +3851,7 @@
         <v>299.12754466140422</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3951,7 +3893,7 @@
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3990,7 +3932,7 @@
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4054,7 +3996,7 @@
       </c>
       <c r="U49" s="19"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -4065,7 +4007,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21">
       <c r="A52" s="2" t="str">
         <f t="shared" ref="A52:G53" si="10">A43</f>
         <v>技能攻击倍率</v>
@@ -4107,7 +4049,7 @@
         <v>生命</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21">
       <c r="A53">
         <f t="shared" ref="A53:B53" si="12">E8</f>
         <v>1.5</v>
@@ -4149,7 +4091,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21">
       <c r="B54" s="8" t="s">
         <v>60</v>
       </c>
@@ -4211,7 +4153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -4285,7 +4227,7 @@
         <v>402.0100502512563</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -4327,7 +4269,7 @@
       <c r="T56" s="19"/>
       <c r="U56" s="19"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -4368,7 +4310,7 @@
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -4447,12 +4389,12 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="22"/>
       <c r="B2" s="22" t="s">
         <v>93</v>
@@ -4469,237 +4411,237 @@
       <c r="J2" s="23"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="40" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="43"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="43"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="39" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="43"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="39" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="38" t="s">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="44"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="44"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="44"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="39" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="44"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="44"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="44"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4730,9 +4672,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4742,7 +4684,7 @@
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4756,7 +4698,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4771,7 +4713,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4787,7 +4729,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4803,7 +4745,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4819,7 +4761,7 @@
         <v>157.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4835,7 +4777,7 @@
         <v>202.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4851,7 +4793,7 @@
         <v>247.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4867,7 +4809,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4883,12 +4825,12 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4898,7 +4840,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4912,7 +4854,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4927,7 +4869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4943,7 +4885,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4959,7 +4901,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="11:13">
       <c r="K17">
         <v>3</v>
       </c>
@@ -4972,14 +4914,14 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="11:13">
       <c r="K19" s="25" t="s">
         <v>112</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="11:13">
       <c r="K20" s="2" t="s">
         <v>107</v>
       </c>
@@ -4990,7 +4932,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="11:13">
       <c r="K21">
         <v>0</v>
       </c>
@@ -5001,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="11:13">
       <c r="K22">
         <v>1</v>
       </c>
@@ -5012,7 +4954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="11:13">
       <c r="K23">
         <v>2</v>
       </c>
@@ -5023,7 +4965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="11:13">
       <c r="K24">
         <v>3</v>
       </c>
@@ -5049,7 +4991,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -5058,7 +5000,7 @@
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>152</v>
       </c>
@@ -5075,7 +5017,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -5092,7 +5034,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="20.25" customHeight="1">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -5107,7 +5049,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -5121,7 +5063,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="20.25" customHeight="1">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -5138,7 +5080,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -5155,7 +5097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5165,29 +5107,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:Q26"/>
+  <dimension ref="A6:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="35" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="26" customWidth="1"/>
     <col min="3" max="3" width="11" style="26" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="7" max="11" width="4.75" customWidth="1"/>
-    <col min="12" max="12" width="3.875" customWidth="1"/>
+    <col min="5" max="6" width="9.5" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="12" width="4.75" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
     <col min="14" max="14" width="11.25" customWidth="1"/>
     <col min="15" max="15" width="21.75" customWidth="1"/>
-    <col min="16" max="16" width="17.875" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="3" customFormat="1">
       <c r="A6" s="33" t="s">
         <v>167</v>
       </c>
@@ -5203,44 +5143,38 @@
       <c r="E6" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="L6" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="M6" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="M6" s="30" t="s">
-        <v>230</v>
-      </c>
       <c r="N6" s="30" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="O6" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="P6" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1">
       <c r="A7" s="34" t="s">
         <v>128</v>
       </c>
@@ -5256,98 +5190,86 @@
       <c r="E7" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="H7" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="I7" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="J7" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="K7" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="L7" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="M7" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>231</v>
-      </c>
       <c r="N7" s="31" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1">
       <c r="A8" s="34" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>235</v>
+        <v>223</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="N8" s="31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="43">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="37">
         <v>1000</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -5359,56 +5281,50 @@
       <c r="D9" s="28">
         <v>1</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="E9" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
         <v>30</v>
       </c>
-      <c r="H9" s="29">
+      <c r="I9" s="29">
         <v>10</v>
       </c>
-      <c r="I9" s="29">
+      <c r="J9" s="29">
         <v>100</v>
       </c>
-      <c r="J9" s="29">
+      <c r="K9" s="29">
         <v>20</v>
       </c>
-      <c r="K9" s="29">
+      <c r="L9" s="29">
         <v>10</v>
       </c>
-      <c r="L9" s="29">
+      <c r="M9" s="29">
         <v>2</v>
       </c>
-      <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="43">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="37">
         <v>2000</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D10" s="28">
         <v>2</v>
       </c>
       <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
-        <v>10</v>
-      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="29">
         <v>10</v>
       </c>
@@ -5422,26 +5338,20 @@
         <v>10</v>
       </c>
       <c r="L10" s="29">
+        <v>10</v>
+      </c>
+      <c r="M10" s="29">
         <v>2</v>
-      </c>
-      <c r="M10" s="29">
-        <v>2001</v>
       </c>
       <c r="N10" s="29">
         <v>2</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="43">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="37">
         <v>2001</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -5454,10 +5364,8 @@
         <v>2</v>
       </c>
       <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29">
-        <v>10</v>
-      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="29">
         <v>10</v>
       </c>
@@ -5471,35 +5379,31 @@
         <v>10</v>
       </c>
       <c r="L11" s="29">
+        <v>10</v>
+      </c>
+      <c r="M11" s="29">
         <v>2</v>
       </c>
-      <c r="M11" s="29"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="P11" s="29">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="43">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="37">
         <v>2002</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D12" s="28">
         <v>2</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -5509,609 +5413,565 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="43">
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="37">
         <v>3000</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D13" s="28">
         <v>3</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29">
+      <c r="E13" s="28">
+        <f>A13</f>
+        <v>3000</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
         <v>12</v>
       </c>
-      <c r="H13" s="29">
+      <c r="I13" s="29">
         <v>5</v>
       </c>
-      <c r="I13" s="29">
+      <c r="J13" s="29">
         <v>100</v>
       </c>
-      <c r="J13" s="29">
+      <c r="K13" s="29">
         <v>11</v>
       </c>
-      <c r="K13" s="29">
+      <c r="L13" s="29">
         <v>10</v>
       </c>
-      <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="P13" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="43">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="37">
         <v>3001</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29">
+      <c r="E14" s="28">
+        <f t="shared" ref="E14:E26" si="0">A14</f>
+        <v>3001</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
         <v>16</v>
       </c>
-      <c r="H14" s="29">
+      <c r="I14" s="29">
         <v>10</v>
       </c>
-      <c r="I14" s="29">
+      <c r="J14" s="29">
         <v>100</v>
       </c>
-      <c r="J14" s="29">
+      <c r="K14" s="29">
         <v>12</v>
       </c>
-      <c r="K14" s="29">
+      <c r="L14" s="29">
         <v>15</v>
       </c>
-      <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="P14" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="43">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="37">
         <v>3002</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29">
+      <c r="E15" s="28">
+        <f t="shared" si="0"/>
+        <v>3002</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29">
         <v>25</v>
       </c>
-      <c r="H15" s="29">
+      <c r="I15" s="29">
         <v>15</v>
       </c>
-      <c r="I15" s="29">
+      <c r="J15" s="29">
         <v>120</v>
       </c>
-      <c r="J15" s="29">
+      <c r="K15" s="29">
         <v>13</v>
       </c>
-      <c r="K15" s="29">
+      <c r="L15" s="29">
         <v>20</v>
       </c>
-      <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="P15" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="43">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="37">
         <v>3003</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29">
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>3003</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29">
         <v>32</v>
       </c>
-      <c r="H16" s="29">
+      <c r="I16" s="29">
         <v>20</v>
       </c>
-      <c r="I16" s="29">
+      <c r="J16" s="29">
         <v>120</v>
       </c>
-      <c r="J16" s="29">
+      <c r="K16" s="29">
         <v>14</v>
       </c>
-      <c r="K16" s="29">
+      <c r="L16" s="29">
         <v>25</v>
       </c>
-      <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
       <c r="O16" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="P16" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="43">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="37">
         <v>3004</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29">
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
+        <v>3004</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29">
         <v>45</v>
       </c>
-      <c r="H17" s="29">
+      <c r="I17" s="29">
         <v>25</v>
       </c>
-      <c r="I17" s="29">
+      <c r="J17" s="29">
         <v>150</v>
       </c>
-      <c r="J17" s="29">
+      <c r="K17" s="29">
         <v>15</v>
       </c>
-      <c r="K17" s="29">
+      <c r="L17" s="29">
         <v>30</v>
       </c>
-      <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="P17" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="43">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="37">
         <v>3005</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29">
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
+        <v>3005</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29">
         <v>63</v>
       </c>
-      <c r="H18" s="29">
+      <c r="I18" s="29">
         <v>30</v>
       </c>
-      <c r="I18" s="29">
+      <c r="J18" s="29">
         <v>150</v>
       </c>
-      <c r="J18" s="29">
+      <c r="K18" s="29">
         <v>16</v>
       </c>
-      <c r="K18" s="29">
+      <c r="L18" s="29">
         <v>35</v>
       </c>
-      <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="P18" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="43">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="37">
         <v>3006</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29">
+      <c r="E19" s="28">
+        <f t="shared" si="0"/>
+        <v>3006</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29">
         <v>85</v>
       </c>
-      <c r="H19" s="29">
+      <c r="I19" s="29">
         <v>35</v>
       </c>
-      <c r="I19" s="29">
+      <c r="J19" s="29">
         <v>200</v>
       </c>
-      <c r="J19" s="29">
+      <c r="K19" s="29">
         <v>17</v>
       </c>
-      <c r="K19" s="29">
+      <c r="L19" s="29">
         <v>40</v>
       </c>
-      <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
       <c r="O19" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="P19" s="29">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="37">
         <v>3007</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D20" s="28">
         <v>3</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>3007</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29">
         <v>110</v>
       </c>
-      <c r="H20" s="29">
+      <c r="I20" s="29">
         <v>40</v>
       </c>
-      <c r="I20" s="29">
+      <c r="J20" s="29">
         <v>200</v>
       </c>
-      <c r="J20" s="29">
+      <c r="K20" s="29">
         <v>18</v>
       </c>
-      <c r="K20" s="29">
+      <c r="L20" s="29">
         <v>45</v>
       </c>
-      <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="P20" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="43">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="37">
         <v>3008</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D21" s="28">
         <v>3</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29">
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
+        <v>3008</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29">
         <v>135</v>
       </c>
-      <c r="H21" s="29">
+      <c r="I21" s="29">
         <v>45</v>
       </c>
-      <c r="I21" s="29">
+      <c r="J21" s="29">
         <v>250</v>
       </c>
-      <c r="J21" s="29">
+      <c r="K21" s="29">
         <v>19</v>
       </c>
-      <c r="K21" s="29">
+      <c r="L21" s="29">
         <v>50</v>
       </c>
-      <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="P21" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="43">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="37">
         <v>3009</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D22" s="28">
         <v>3</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29">
+      <c r="E22" s="28">
+        <f t="shared" si="0"/>
+        <v>3009</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29">
         <v>170</v>
       </c>
-      <c r="H22" s="29">
+      <c r="I22" s="29">
         <v>50</v>
       </c>
-      <c r="I22" s="29">
+      <c r="J22" s="29">
         <v>250</v>
       </c>
-      <c r="J22" s="29">
+      <c r="K22" s="29">
         <v>20</v>
       </c>
-      <c r="K22" s="29">
+      <c r="L22" s="29">
         <v>55</v>
       </c>
-      <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="P22" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="43">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="37">
         <v>3010</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D23" s="28">
         <v>3</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29">
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>3010</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29">
         <v>200</v>
       </c>
-      <c r="H23" s="29">
+      <c r="I23" s="29">
         <v>55</v>
       </c>
-      <c r="I23" s="29">
+      <c r="J23" s="29">
         <v>300</v>
       </c>
-      <c r="J23" s="29">
+      <c r="K23" s="29">
         <v>21</v>
       </c>
-      <c r="K23" s="29">
+      <c r="L23" s="29">
         <v>60</v>
       </c>
-      <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="P23" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="43">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="37">
         <v>3011</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D24" s="28">
         <v>3</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29">
+      <c r="E24" s="28">
+        <f t="shared" si="0"/>
+        <v>3011</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29">
         <v>250</v>
       </c>
-      <c r="H24" s="29">
+      <c r="I24" s="29">
         <v>60</v>
       </c>
-      <c r="I24" s="29">
+      <c r="J24" s="29">
         <v>400</v>
       </c>
-      <c r="J24" s="29">
+      <c r="K24" s="29">
         <v>22</v>
       </c>
-      <c r="K24" s="29">
+      <c r="L24" s="29">
         <v>65</v>
       </c>
-      <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="P24" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="43">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="37">
         <v>3012</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D25" s="28">
         <v>3</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="E25" s="28">
+        <f t="shared" si="0"/>
+        <v>3012</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29">
         <v>300</v>
       </c>
-      <c r="H25" s="29">
+      <c r="I25" s="29">
         <v>65</v>
       </c>
-      <c r="I25" s="29">
+      <c r="J25" s="29">
         <v>500</v>
       </c>
-      <c r="J25" s="29">
+      <c r="K25" s="29">
         <v>23</v>
       </c>
-      <c r="K25" s="29">
+      <c r="L25" s="29">
         <v>70</v>
       </c>
-      <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="P25" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="43">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="37">
         <v>3013</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D26" s="28">
         <v>3</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29">
+      <c r="E26" s="28">
+        <f t="shared" si="0"/>
+        <v>3013</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29">
         <v>300</v>
       </c>
-      <c r="H26" s="29">
+      <c r="I26" s="29">
         <v>65</v>
       </c>
-      <c r="I26" s="29">
+      <c r="J26" s="29">
         <v>500</v>
       </c>
-      <c r="J26" s="29">
+      <c r="K26" s="29">
         <v>23</v>
       </c>
-      <c r="K26" s="29">
+      <c r="L26" s="29">
         <v>70</v>
       </c>
-      <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="P26" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>0.2</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6130,12 +5990,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="32" t="s">
         <v>165</v>
       </c>
@@ -6143,7 +6003,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>153</v>
@@ -6170,7 +6030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
         <v>130</v>
       </c>
@@ -6178,7 +6038,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>154</v>
@@ -6199,13 +6059,13 @@
         <v>187</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="28">
         <v>1000</v>
       </c>
@@ -6213,7 +6073,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D6" s="28" t="str">
         <f t="shared" ref="D6:D25" si="0">A6&amp;".tga"</f>
@@ -6231,7 +6091,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="28">
         <v>1001</v>
       </c>
@@ -6239,7 +6099,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D7" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6257,7 +6117,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="28">
         <v>1002</v>
       </c>
@@ -6265,7 +6125,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6283,7 +6143,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="28">
         <v>1003</v>
       </c>
@@ -6291,7 +6151,7 @@
         <v>136</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D9" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6309,7 +6169,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="28">
         <v>1004</v>
       </c>
@@ -6317,7 +6177,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6335,7 +6195,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="28">
         <v>1005</v>
       </c>
@@ -6343,7 +6203,7 @@
         <v>138</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D11" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6361,7 +6221,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="28">
         <v>1006</v>
       </c>
@@ -6369,7 +6229,7 @@
         <v>140</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D12" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6387,7 +6247,7 @@
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="28">
         <v>1007</v>
       </c>
@@ -6395,7 +6255,7 @@
         <v>141</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D13" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6413,7 +6273,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="28">
         <v>1008</v>
       </c>
@@ -6421,7 +6281,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D14" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6439,7 +6299,7 @@
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="28">
         <v>1009</v>
       </c>
@@ -6447,7 +6307,7 @@
         <v>143</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D15" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6465,7 +6325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="28">
         <v>1010</v>
       </c>
@@ -6473,7 +6333,7 @@
         <v>144</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6491,7 +6351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="28">
         <v>1011</v>
       </c>
@@ -6499,7 +6359,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D17" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6517,7 +6377,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="28">
         <v>1012</v>
       </c>
@@ -6525,7 +6385,7 @@
         <v>159</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6543,7 +6403,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="28">
         <v>1013</v>
       </c>
@@ -6551,7 +6411,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D19" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6569,15 +6429,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="28">
         <v>1014</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6595,15 +6455,15 @@
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="28">
         <v>1015</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D21" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6621,15 +6481,15 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="28">
         <v>1016</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6647,15 +6507,15 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="28">
         <v>1017</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D23" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6673,15 +6533,15 @@
       </c>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="28">
         <v>1018</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6699,15 +6559,15 @@
       </c>
       <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="28">
         <v>1019</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D25" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6741,7 +6601,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
@@ -6749,86 +6609,86 @@
     <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G1">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="30" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>272</v>
+        <v>215</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="31" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>273</v>
+        <v>218</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="29">
         <v>10001</v>
       </c>
@@ -6847,7 +6707,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="29">
         <v>10002</v>
       </c>
@@ -6866,7 +6726,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="29">
         <v>10003</v>
       </c>
@@ -6885,7 +6745,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="29">
         <v>10004</v>
       </c>
@@ -6904,7 +6764,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="29">
         <v>10005</v>
       </c>
@@ -6923,7 +6783,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="29">
         <v>20001</v>
       </c>
@@ -6942,7 +6802,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="29">
         <v>20002</v>
       </c>
@@ -6961,14 +6821,14 @@
         <v>run</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="48">
+    <row r="13" spans="1:8">
+      <c r="A13" s="42">
         <v>30001</v>
       </c>
-      <c r="B13" s="48">
-        <v>4</v>
-      </c>
-      <c r="C13" s="48">
+      <c r="B13" s="42">
+        <v>4</v>
+      </c>
+      <c r="C13" s="42">
         <v>6</v>
       </c>
       <c r="D13" t="str">
@@ -6980,14 +6840,14 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="48">
+    <row r="14" spans="1:8">
+      <c r="A14" s="42">
         <v>30002</v>
       </c>
-      <c r="B14" s="48">
-        <v>4</v>
-      </c>
-      <c r="C14" s="48">
+      <c r="B14" s="42">
+        <v>4</v>
+      </c>
+      <c r="C14" s="42">
         <v>10</v>
       </c>
       <c r="D14" t="str">
@@ -6999,14 +6859,14 @@
         <v>run</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="48">
+    <row r="15" spans="1:8">
+      <c r="A15" s="42">
         <v>30003</v>
       </c>
-      <c r="B15" s="48">
-        <v>4</v>
-      </c>
-      <c r="C15" s="48">
+      <c r="B15" s="42">
+        <v>4</v>
+      </c>
+      <c r="C15" s="42">
         <v>11</v>
       </c>
       <c r="D15" t="str">
@@ -7018,14 +6878,14 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="48">
+    <row r="16" spans="1:8">
+      <c r="A16" s="42">
         <v>30004</v>
       </c>
-      <c r="B16" s="48">
-        <v>4</v>
-      </c>
-      <c r="C16" s="48">
+      <c r="B16" s="42">
+        <v>4</v>
+      </c>
+      <c r="C16" s="42">
         <v>2</v>
       </c>
       <c r="D16" t="str">
@@ -7037,14 +6897,14 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="48">
+    <row r="17" spans="1:5">
+      <c r="A17" s="42">
         <v>30005</v>
       </c>
-      <c r="B17" s="48">
-        <v>4</v>
-      </c>
-      <c r="C17" s="48">
+      <c r="B17" s="42">
+        <v>4</v>
+      </c>
+      <c r="C17" s="42">
         <v>10</v>
       </c>
       <c r="D17" t="str">
@@ -7056,14 +6916,14 @@
         <v>die</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="48">
+    <row r="18" spans="1:5">
+      <c r="A18" s="42">
         <v>30011</v>
       </c>
-      <c r="B18" s="48">
-        <v>4</v>
-      </c>
-      <c r="C18" s="48">
+      <c r="B18" s="42">
+        <v>4</v>
+      </c>
+      <c r="C18" s="42">
         <v>8</v>
       </c>
       <c r="D18" t="str">
@@ -7075,14 +6935,14 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="48">
+    <row r="19" spans="1:5">
+      <c r="A19" s="42">
         <v>30012</v>
       </c>
-      <c r="B19" s="48">
-        <v>4</v>
-      </c>
-      <c r="C19" s="48">
+      <c r="B19" s="42">
+        <v>4</v>
+      </c>
+      <c r="C19" s="42">
         <v>7</v>
       </c>
       <c r="D19" t="str">
@@ -7094,8 +6954,8 @@
         <v>run</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="48">
+    <row r="20" spans="1:5">
+      <c r="A20" s="42">
         <v>30013</v>
       </c>
       <c r="B20" s="29">
@@ -7113,8 +6973,8 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="48">
+    <row r="21" spans="1:5">
+      <c r="A21" s="42">
         <v>30014</v>
       </c>
       <c r="B21" s="29">
@@ -7132,8 +6992,8 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="48">
+    <row r="22" spans="1:5">
+      <c r="A22" s="42">
         <v>30015</v>
       </c>
       <c r="B22" s="29">
@@ -7151,8 +7011,8 @@
         <v>die</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="48">
+    <row r="23" spans="1:5">
+      <c r="A23" s="42">
         <v>30021</v>
       </c>
       <c r="B23" s="29">
@@ -7170,8 +7030,8 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="48">
+    <row r="24" spans="1:5">
+      <c r="A24" s="42">
         <v>30022</v>
       </c>
       <c r="B24" s="29">
@@ -7189,8 +7049,8 @@
         <v>run</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="48">
+    <row r="25" spans="1:5">
+      <c r="A25" s="42">
         <v>30023</v>
       </c>
       <c r="B25" s="29">
@@ -7208,8 +7068,8 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="48">
+    <row r="26" spans="1:5">
+      <c r="A26" s="42">
         <v>30024</v>
       </c>
       <c r="B26" s="29">
@@ -7227,8 +7087,8 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="48">
+    <row r="27" spans="1:5">
+      <c r="A27" s="42">
         <v>30025</v>
       </c>
       <c r="B27" s="29">
@@ -7246,8 +7106,8 @@
         <v>die</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="48">
+    <row r="28" spans="1:5">
+      <c r="A28" s="42">
         <v>30031</v>
       </c>
       <c r="B28" s="29">
@@ -7265,8 +7125,8 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="48">
+    <row r="29" spans="1:5">
+      <c r="A29" s="42">
         <v>30032</v>
       </c>
       <c r="B29" s="29">
@@ -7284,8 +7144,8 @@
         <v>run</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="48">
+    <row r="30" spans="1:5">
+      <c r="A30" s="42">
         <v>30033</v>
       </c>
       <c r="B30" s="29">
@@ -7303,8 +7163,8 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="48">
+    <row r="31" spans="1:5">
+      <c r="A31" s="42">
         <v>30034</v>
       </c>
       <c r="B31" s="29">
@@ -7322,8 +7182,8 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="48">
+    <row r="32" spans="1:5">
+      <c r="A32" s="42">
         <v>30035</v>
       </c>
       <c r="B32" s="29">
@@ -7341,7 +7201,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="29">
         <v>30041</v>
       </c>
@@ -7360,7 +7220,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="29">
         <v>30042</v>
       </c>
@@ -7379,7 +7239,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="29">
         <v>30043</v>
       </c>
@@ -7398,7 +7258,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="29">
         <v>30044</v>
       </c>
@@ -7417,7 +7277,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="29">
         <v>30045</v>
       </c>
@@ -7436,7 +7296,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="29">
         <v>30051</v>
       </c>
@@ -7455,7 +7315,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="29">
         <v>30052</v>
       </c>
@@ -7474,7 +7334,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="29">
         <v>30053</v>
       </c>
@@ -7493,7 +7353,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="29">
         <v>30054</v>
       </c>
@@ -7512,7 +7372,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="29">
         <v>30055</v>
       </c>
@@ -7531,7 +7391,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="29">
         <v>30061</v>
       </c>
@@ -7550,7 +7410,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="29">
         <v>30062</v>
       </c>
@@ -7569,7 +7429,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="29">
         <v>30063</v>
       </c>
@@ -7588,7 +7448,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="29">
         <v>30064</v>
       </c>
@@ -7607,7 +7467,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="29">
         <v>30065</v>
       </c>
@@ -7626,7 +7486,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="29">
         <v>30071</v>
       </c>
@@ -7645,7 +7505,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="29">
         <v>30072</v>
       </c>
@@ -7664,7 +7524,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="29">
         <v>30073</v>
       </c>
@@ -7683,7 +7543,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="29">
         <v>30074</v>
       </c>
@@ -7702,7 +7562,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="29">
         <v>30075</v>
       </c>
@@ -7721,7 +7581,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="29">
         <v>30081</v>
       </c>
@@ -7740,7 +7600,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" s="29">
         <v>30082</v>
       </c>
@@ -7759,7 +7619,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" s="29">
         <v>30083</v>
       </c>
@@ -7778,7 +7638,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="29">
         <v>30084</v>
       </c>
@@ -7797,7 +7657,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" s="29">
         <v>30085</v>
       </c>
@@ -7816,7 +7676,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" s="29">
         <v>30091</v>
       </c>
@@ -7835,7 +7695,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" s="29">
         <v>30092</v>
       </c>
@@ -7854,7 +7714,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="A60" s="29">
         <v>30093</v>
       </c>
@@ -7873,7 +7733,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" s="29">
         <v>30094</v>
       </c>
@@ -7892,7 +7752,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5">
       <c r="A62" s="29">
         <v>30095</v>
       </c>
@@ -7911,7 +7771,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5">
       <c r="A63" s="29">
         <v>30101</v>
       </c>
@@ -7930,7 +7790,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5">
       <c r="A64" s="29">
         <v>30102</v>
       </c>
@@ -7949,7 +7809,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5">
       <c r="A65" s="29">
         <v>30103</v>
       </c>
@@ -7968,7 +7828,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" s="29">
         <v>30104</v>
       </c>
@@ -7987,7 +7847,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5">
       <c r="A67" s="29">
         <v>30105</v>
       </c>
@@ -8006,7 +7866,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5">
       <c r="A68" s="29">
         <v>30111</v>
       </c>
@@ -8025,7 +7885,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5">
       <c r="A69" s="29">
         <v>30112</v>
       </c>
@@ -8044,7 +7904,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" s="29">
         <v>30113</v>
       </c>
@@ -8063,7 +7923,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5">
       <c r="A71" s="29">
         <v>30114</v>
       </c>
@@ -8082,7 +7942,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5">
       <c r="A72" s="29">
         <v>30115</v>
       </c>
@@ -8101,7 +7961,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5">
       <c r="A73" s="29">
         <v>30121</v>
       </c>
@@ -8120,7 +7980,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5">
       <c r="A74" s="29">
         <v>30122</v>
       </c>
@@ -8139,7 +7999,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5">
       <c r="A75" s="29">
         <v>30123</v>
       </c>
@@ -8158,7 +8018,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5">
       <c r="A76" s="29">
         <v>30124</v>
       </c>
@@ -8177,7 +8037,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5">
       <c r="A77" s="29">
         <v>30125</v>
       </c>
@@ -8196,7 +8056,7 @@
         <v>die</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5">
       <c r="A78" s="29">
         <v>30131</v>
       </c>
@@ -8215,7 +8075,7 @@
         <v>stand</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5">
       <c r="A79" s="29">
         <v>30132</v>
       </c>
@@ -8234,7 +8094,7 @@
         <v>run</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5">
       <c r="A80" s="29">
         <v>30133</v>
       </c>
@@ -8253,7 +8113,7 @@
         <v>attack</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5">
       <c r="A81" s="29">
         <v>30134</v>
       </c>
@@ -8272,7 +8132,7 @@
         <v>hit</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5">
       <c r="A82" s="29">
         <v>30135</v>
       </c>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -141,8 +141,46 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+动作ID：站立、跑步、攻击、受击、死亡按顺序为1、2、3、4、5
+动画ID = 角色ID + 动作ID，共五位
+每个怪物存贮一份自愿，自愿内每个帧动画命名 = 动画ID + 方向编号 + 序号</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="251">
   <si>
     <t>战斗时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -853,14 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,18 +899,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,54 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"娜娜，我一定会踩着七彩祥云去救你的！","打死你打死你打死你！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"娜娜被大魔王抓走了，快去救她！","相信你一定会打倒大魔王的，加油么么哒！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"价格公道，包您满意~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"吼吼吼~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"吼吼吼吼吼~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"叫你有来无回！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"你对人家好粗暴~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"我很丑可是我很温柔"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"娜娜说喊一百句我爱你可以立刻通关！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"哦~用力~~~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"啊啊啊~啊~~~~~！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"来来我们都是怪怪~乖乖乖乖乖乖~~~"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1001,34 +971,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>npc默认方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npcdirection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>师傅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1136,14 +1082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动画ID = 角色ID + 动作ID，共五位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作ID：站立、跑步、攻击、受击、死亡按顺序为1、2、3、4、5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1152,30 +1090,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个怪物存贮一份自愿，自愿内每个帧动画命名 = 动画ID + 方向编号 + 序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1184,11 +1098,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"对娜娜喊一百句我爱你可以立刻通关！"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>崂山道士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净空方丈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antiCriRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[至宝被狐妖夺走了，快去拿回来！;年轻人，谢谢你。]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[快来看一看，瞧一瞧。价格公道，包您满意~]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[啊啊啊~啊~~~~~！]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1365,17 +1315,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1388,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1473,8 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4412,236 +4349,236 @@
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="46" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="43"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="43"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="45" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="43"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="45" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="44"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="44"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="44"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="44"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="45" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="44"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="44"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="44"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="44"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5107,10 +5044,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:O26"/>
+  <dimension ref="A6:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5121,8 +5058,11 @@
     <col min="4" max="4" width="8.125" style="26" customWidth="1"/>
     <col min="5" max="6" width="9.5" style="26" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="12" width="4.75" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="8" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="11" max="11" width="6.625" customWidth="1"/>
+    <col min="12" max="12" width="7.125" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
     <col min="14" max="14" width="11.25" customWidth="1"/>
     <col min="15" max="15" width="21.75" customWidth="1"/>
   </cols>
@@ -5144,7 +5084,7 @@
         <v>171</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>172</v>
@@ -5168,10 +5108,10 @@
         <v>180</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1">
@@ -5191,725 +5131,770 @@
         <v>182</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>183</v>
       </c>
       <c r="H7" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="J7" s="31" t="s">
+      <c r="K7" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="37">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1">
-      <c r="A8" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>223</v>
-      </c>
+      <c r="C8" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" ref="E8:E12" si="0">A8</f>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29">
+        <v>30</v>
+      </c>
+      <c r="I8" s="29">
+        <v>10</v>
+      </c>
+      <c r="J8" s="29">
+        <v>100</v>
+      </c>
+      <c r="K8" s="29">
+        <v>20</v>
+      </c>
+      <c r="L8" s="29">
+        <v>10</v>
+      </c>
+      <c r="M8" s="29">
+        <v>200</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="37">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="D9" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="28">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I9" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="29">
+        <v>1</v>
+      </c>
+      <c r="M9" s="29">
         <v>100</v>
       </c>
-      <c r="K9" s="29">
-        <v>20</v>
-      </c>
-      <c r="L9" s="29">
-        <v>10</v>
-      </c>
-      <c r="M9" s="29">
-        <v>2</v>
-      </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="29">
+        <v>1</v>
+      </c>
       <c r="O9" s="29" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="37">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="D10" s="28">
         <v>2</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I10" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J10" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L10" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M10" s="29">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N10" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="29" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="37">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="D11" s="28">
         <v>2</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I11" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J11" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L11" s="29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M11" s="29">
-        <v>2</v>
-      </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29" t="s">
-        <v>196</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N11" s="29">
+        <v>1</v>
+      </c>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="37">
-        <v>2002</v>
+        <v>3000</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D12" s="28">
-        <v>2</v>
-      </c>
-      <c r="E12" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="F12" s="28"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="H12" s="29">
+        <v>12</v>
+      </c>
+      <c r="I12" s="29">
+        <v>5</v>
+      </c>
+      <c r="J12" s="29">
+        <v>100</v>
+      </c>
+      <c r="K12" s="29">
+        <v>11</v>
+      </c>
+      <c r="L12" s="29">
+        <v>10</v>
+      </c>
+      <c r="M12" s="29">
+        <v>100</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0</v>
+      </c>
       <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="37">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D13" s="28">
         <v>3</v>
       </c>
       <c r="E13" s="28">
-        <f>A13</f>
-        <v>3000</v>
+        <f t="shared" ref="E13:E25" si="1">A13</f>
+        <v>3001</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J13" s="29">
         <v>100</v>
       </c>
       <c r="K13" s="29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="29">
-        <v>10</v>
-      </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29" t="s">
-        <v>197</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="M13" s="29">
+        <v>100</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0</v>
+      </c>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="37">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
       </c>
       <c r="E14" s="28">
-        <f t="shared" ref="E14:E26" si="0">A14</f>
-        <v>3001</v>
+        <f t="shared" si="1"/>
+        <v>3002</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I14" s="29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J14" s="29">
+        <v>120</v>
+      </c>
+      <c r="K14" s="29">
+        <v>13</v>
+      </c>
+      <c r="L14" s="29">
+        <v>20</v>
+      </c>
+      <c r="M14" s="29">
         <v>100</v>
       </c>
-      <c r="K14" s="29">
-        <v>12</v>
-      </c>
-      <c r="L14" s="29">
-        <v>15</v>
-      </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29" t="s">
-        <v>197</v>
-      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="37">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
       </c>
       <c r="E15" s="28">
-        <f t="shared" si="0"/>
-        <v>3002</v>
+        <f t="shared" si="1"/>
+        <v>3003</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I15" s="29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J15" s="29">
         <v>120</v>
       </c>
       <c r="K15" s="29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="29">
-        <v>20</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29" t="s">
-        <v>271</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M15" s="29">
+        <v>100</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0</v>
+      </c>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="37">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
       </c>
       <c r="E16" s="28">
-        <f t="shared" si="0"/>
-        <v>3003</v>
+        <f t="shared" si="1"/>
+        <v>3004</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I16" s="29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J16" s="29">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K16" s="29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16" s="29">
-        <v>25</v>
-      </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29" t="s">
-        <v>198</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M16" s="29">
+        <v>100</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0</v>
+      </c>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="37">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
       </c>
       <c r="E17" s="28">
-        <f t="shared" si="0"/>
-        <v>3004</v>
+        <f t="shared" si="1"/>
+        <v>3005</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I17" s="29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J17" s="29">
         <v>150</v>
       </c>
       <c r="K17" s="29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" s="29">
-        <v>30</v>
-      </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29" t="s">
-        <v>198</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M17" s="29">
+        <v>100</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="37">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="0"/>
-        <v>3005</v>
+        <f t="shared" si="1"/>
+        <v>3006</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I18" s="29">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J18" s="29">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K18" s="29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" s="29">
-        <v>35</v>
-      </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29" t="s">
-        <v>199</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M18" s="29">
+        <v>100</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0</v>
+      </c>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="37">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" si="0"/>
-        <v>3006</v>
+        <f t="shared" si="1"/>
+        <v>3007</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I19" s="29">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J19" s="29">
         <v>200</v>
       </c>
       <c r="K19" s="29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L19" s="29">
-        <v>40</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29" t="s">
-        <v>200</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="M19" s="29">
+        <v>100</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0</v>
+      </c>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="37">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D20" s="28">
         <v>3</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="0"/>
-        <v>3007</v>
+        <f t="shared" si="1"/>
+        <v>3008</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I20" s="29">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J20" s="29">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K20" s="29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L20" s="29">
-        <v>45</v>
-      </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29" t="s">
-        <v>201</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M20" s="29">
+        <v>100</v>
+      </c>
+      <c r="N20" s="29">
+        <v>0</v>
+      </c>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="37">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D21" s="28">
         <v>3</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="0"/>
-        <v>3008</v>
+        <f t="shared" si="1"/>
+        <v>3009</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="I21" s="29">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J21" s="29">
         <v>250</v>
       </c>
       <c r="K21" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="29">
-        <v>50</v>
-      </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29" t="s">
-        <v>202</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="M21" s="29">
+        <v>100</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0</v>
+      </c>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="37">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D22" s="28">
         <v>3</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="0"/>
-        <v>3009</v>
+        <f t="shared" si="1"/>
+        <v>3010</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I22" s="29">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J22" s="29">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K22" s="29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" s="29">
-        <v>55</v>
-      </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29" t="s">
-        <v>203</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M22" s="29">
+        <v>100</v>
+      </c>
+      <c r="N22" s="29">
+        <v>0</v>
+      </c>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="37">
-        <v>3010</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>258</v>
+        <v>3011</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D23" s="28">
         <v>3</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="0"/>
-        <v>3010</v>
+        <f t="shared" si="1"/>
+        <v>3011</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="I23" s="29">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J23" s="29">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K23" s="29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="29">
-        <v>60</v>
-      </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29" t="s">
-        <v>204</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M23" s="29">
+        <v>100</v>
+      </c>
+      <c r="N23" s="29">
+        <v>0</v>
+      </c>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="37">
-        <v>3011</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>253</v>
+        <v>3012</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>224</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D24" s="28">
         <v>3</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="0"/>
-        <v>3011</v>
+        <f t="shared" si="1"/>
+        <v>3012</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="I24" s="29">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J24" s="29">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K24" s="29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="29">
-        <v>65</v>
-      </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29" t="s">
-        <v>205</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M24" s="29">
+        <v>100</v>
+      </c>
+      <c r="N24" s="29">
+        <v>0</v>
+      </c>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="37">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D25" s="28">
         <v>3</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="0"/>
-        <v>3012</v>
+        <f t="shared" si="1"/>
+        <v>3013</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
@@ -5928,50 +5913,14 @@
       <c r="L25" s="29">
         <v>70</v>
       </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="M25" s="29">
+        <v>100</v>
+      </c>
+      <c r="N25" s="29">
+        <v>0</v>
+      </c>
       <c r="O25" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="37">
-        <v>3013</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="28">
-        <v>3</v>
-      </c>
-      <c r="E26" s="28">
-        <f t="shared" si="0"/>
-        <v>3013</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29">
-        <v>300</v>
-      </c>
-      <c r="I26" s="29">
-        <v>65</v>
-      </c>
-      <c r="J26" s="29">
-        <v>500</v>
-      </c>
-      <c r="K26" s="29">
-        <v>23</v>
-      </c>
-      <c r="L26" s="29">
-        <v>70</v>
-      </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6003,7 +5952,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>153</v>
@@ -6038,7 +5987,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>154</v>
@@ -6056,10 +6005,10 @@
         <v>163</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>164</v>
@@ -6073,7 +6022,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D6" s="28" t="str">
         <f t="shared" ref="D6:D25" si="0">A6&amp;".tga"</f>
@@ -6099,7 +6048,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D7" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6125,7 +6074,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6151,7 +6100,7 @@
         <v>136</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D9" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6177,7 +6126,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6203,7 +6152,7 @@
         <v>138</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D11" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6229,7 +6178,7 @@
         <v>140</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D12" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6255,7 +6204,7 @@
         <v>141</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D13" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6281,7 +6230,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D14" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6307,7 +6256,7 @@
         <v>143</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D15" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6333,7 +6282,7 @@
         <v>144</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6359,7 +6308,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D17" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6385,7 +6334,7 @@
         <v>159</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6411,7 +6360,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D19" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6434,10 +6383,10 @@
         <v>1014</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6460,10 +6409,10 @@
         <v>1015</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>207</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>230</v>
       </c>
       <c r="D21" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6486,10 +6435,10 @@
         <v>1016</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6512,10 +6461,10 @@
         <v>1017</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D23" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6538,10 +6487,10 @@
         <v>1018</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6564,10 +6513,10 @@
         <v>1019</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="D25" s="28" t="str">
         <f t="shared" si="0"/>
@@ -6594,11 +6543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:D85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A13" sqref="A13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6606,528 +6555,355 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2">
+    <row r="6" spans="1:4">
+      <c r="A6" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="29">
+        <v>10001</v>
+      </c>
+      <c r="B8" s="29">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(INT(A8/10),role!$A$8:$B$25,2,0)</f>
+        <v>lkk</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="29">
+        <v>10002</v>
+      </c>
+      <c r="B9" s="29">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29">
+        <v>8</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(INT(A9/10),role!$A$8:$B$25,2,0)</f>
+        <v>lkk</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="29">
+        <v>10003</v>
+      </c>
+      <c r="B10" s="29">
+        <v>4</v>
+      </c>
+      <c r="C10" s="29">
+        <v>16</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(INT(A10/10),role!$A$8:$B$25,2,0)</f>
+        <v>lkk</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="29">
+        <v>10004</v>
+      </c>
+      <c r="B11" s="29">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5">
+      <c r="D11" t="str">
+        <f>VLOOKUP(INT(A11/10),role!$A$8:$B$25,2,0)</f>
+        <v>lkk</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="29">
+        <v>10005</v>
+      </c>
+      <c r="B12" s="29">
+        <v>4</v>
+      </c>
+      <c r="C12" s="29">
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(INT(A12/10),role!$A$8:$B$25,2,0)</f>
+        <v>lkk</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="29">
+        <v>20001</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <v>10</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(INT(A13/10),role!$A$8:$B$25,2,0)</f>
+        <v>丫鬟</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="29">
+        <v>20011</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <v>10</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(INT(A14/10),role!$A$8:$B$25,2,0)</f>
+        <v>崂山道士</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="29">
+        <v>20021</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="29">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="D15" t="str">
+        <f>VLOOKUP(INT(A15/10),role!$A$8:$B$25,2,0)</f>
+        <v>净空方丈</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="40">
+        <v>30001</v>
+      </c>
+      <c r="B16" s="40">
+        <v>4</v>
+      </c>
+      <c r="C16" s="40">
+        <v>6</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(INT(A16/10),role!$A$8:$B$25,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="40">
+        <v>30002</v>
+      </c>
+      <c r="B17" s="40">
+        <v>4</v>
+      </c>
+      <c r="C17" s="40">
+        <v>10</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(INT(A17/10),role!$A$8:$B$25,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="40">
+        <v>30003</v>
+      </c>
+      <c r="B18" s="40">
+        <v>4</v>
+      </c>
+      <c r="C18" s="40">
+        <v>11</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(INT(A18/10),role!$A$8:$B$25,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="40">
+        <v>30004</v>
+      </c>
+      <c r="B19" s="40">
+        <v>4</v>
+      </c>
+      <c r="C19" s="40">
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(INT(A19/10),role!$A$8:$B$25,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="40">
+        <v>30005</v>
+      </c>
+      <c r="B20" s="40">
+        <v>4</v>
+      </c>
+      <c r="C20" s="40">
+        <v>10</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(INT(A20/10),role!$A$8:$B$25,2,0)</f>
+        <v>毛毛虫</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="40">
+        <v>30011</v>
+      </c>
+      <c r="B21" s="40">
+        <v>4</v>
+      </c>
+      <c r="C21" s="40">
         <v>8</v>
       </c>
-      <c r="C6" s="29">
+      <c r="D21" t="str">
+        <f>VLOOKUP(INT(A21/10),role!$A$8:$B$25,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="40">
+        <v>30012</v>
+      </c>
+      <c r="B22" s="40">
+        <v>4</v>
+      </c>
+      <c r="C22" s="40">
         <v>7</v>
       </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(INT(A6/10),role!$A$9:$B$26,2,0)</f>
-        <v>lkk</v>
-      </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(A6-INT(A6/10)*10,$G$1:$H$5,2,0)</f>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="29">
-        <v>10002</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="D22" t="str">
+        <f>VLOOKUP(INT(A22/10),role!$A$8:$B$25,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="40">
+        <v>30013</v>
+      </c>
+      <c r="B23" s="29">
+        <v>4</v>
+      </c>
+      <c r="C23" s="29">
+        <v>13</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(INT(A23/10),role!$A$8:$B$25,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="40">
+        <v>30014</v>
+      </c>
+      <c r="B24" s="29">
+        <v>4</v>
+      </c>
+      <c r="C24" s="29">
+        <v>2</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(INT(A24/10),role!$A$8:$B$25,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="40">
+        <v>30015</v>
+      </c>
+      <c r="B25" s="29">
+        <v>4</v>
+      </c>
+      <c r="C25" s="29">
         <v>8</v>
       </c>
-      <c r="C7" s="29">
+      <c r="D25" t="str">
+        <f>VLOOKUP(INT(A25/10),role!$A$8:$B$25,2,0)</f>
+        <v>小青蛙</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="40">
+        <v>30021</v>
+      </c>
+      <c r="B26" s="29">
+        <v>4</v>
+      </c>
+      <c r="C26" s="29">
         <v>8</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(INT(A7/10),role!$A$9:$B$26,2,0)</f>
-        <v>lkk</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E70" si="0">VLOOKUP(A7-INT(A7/10)*10,$G$1:$H$5,2,0)</f>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="29">
-        <v>10003</v>
-      </c>
-      <c r="B8" s="29">
-        <v>4</v>
-      </c>
-      <c r="C8" s="29">
-        <v>16</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(INT(A8/10),role!$A$9:$B$26,2,0)</f>
-        <v>lkk</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="29">
-        <v>10004</v>
-      </c>
-      <c r="B9" s="29">
-        <v>4</v>
-      </c>
-      <c r="C9" s="29">
-        <v>2</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(INT(A9/10),role!$A$9:$B$26,2,0)</f>
-        <v>lkk</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="29">
-        <v>10005</v>
-      </c>
-      <c r="B10" s="29">
-        <v>4</v>
-      </c>
-      <c r="C10" s="29">
-        <v>10</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(INT(A10/10),role!$A$9:$B$26,2,0)</f>
-        <v>lkk</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29">
-        <v>20001</v>
-      </c>
-      <c r="B11" s="29">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29">
-        <v>8</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(INT(A11/10),role!$A$9:$B$26,2,0)</f>
-        <v>丫鬟</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="29">
-        <v>20002</v>
-      </c>
-      <c r="B12" s="29">
-        <v>1</v>
-      </c>
-      <c r="C12" s="29">
-        <v>12</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(INT(A12/10),role!$A$9:$B$26,2,0)</f>
-        <v>丫鬟</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="42">
-        <v>30001</v>
-      </c>
-      <c r="B13" s="42">
-        <v>4</v>
-      </c>
-      <c r="C13" s="42">
-        <v>6</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(INT(A13/10),role!$A$9:$B$26,2,0)</f>
-        <v>毛毛虫</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="42">
-        <v>30002</v>
-      </c>
-      <c r="B14" s="42">
-        <v>4</v>
-      </c>
-      <c r="C14" s="42">
-        <v>10</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(INT(A14/10),role!$A$9:$B$26,2,0)</f>
-        <v>毛毛虫</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="42">
-        <v>30003</v>
-      </c>
-      <c r="B15" s="42">
-        <v>4</v>
-      </c>
-      <c r="C15" s="42">
-        <v>11</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(INT(A15/10),role!$A$9:$B$26,2,0)</f>
-        <v>毛毛虫</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="42">
-        <v>30004</v>
-      </c>
-      <c r="B16" s="42">
-        <v>4</v>
-      </c>
-      <c r="C16" s="42">
-        <v>2</v>
-      </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(INT(A16/10),role!$A$9:$B$26,2,0)</f>
-        <v>毛毛虫</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="42">
-        <v>30005</v>
-      </c>
-      <c r="B17" s="42">
-        <v>4</v>
-      </c>
-      <c r="C17" s="42">
-        <v>10</v>
-      </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(INT(A17/10),role!$A$9:$B$26,2,0)</f>
-        <v>毛毛虫</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="42">
-        <v>30011</v>
-      </c>
-      <c r="B18" s="42">
-        <v>4</v>
-      </c>
-      <c r="C18" s="42">
-        <v>8</v>
-      </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(INT(A18/10),role!$A$9:$B$26,2,0)</f>
-        <v>小青蛙</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="42">
-        <v>30012</v>
-      </c>
-      <c r="B19" s="42">
-        <v>4</v>
-      </c>
-      <c r="C19" s="42">
-        <v>7</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(INT(A19/10),role!$A$9:$B$26,2,0)</f>
-        <v>小青蛙</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="42">
-        <v>30013</v>
-      </c>
-      <c r="B20" s="29">
-        <v>4</v>
-      </c>
-      <c r="C20" s="29">
-        <v>13</v>
-      </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(INT(A20/10),role!$A$9:$B$26,2,0)</f>
-        <v>小青蛙</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="42">
-        <v>30014</v>
-      </c>
-      <c r="B21" s="29">
-        <v>4</v>
-      </c>
-      <c r="C21" s="29">
-        <v>2</v>
-      </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(INT(A21/10),role!$A$9:$B$26,2,0)</f>
-        <v>小青蛙</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="42">
-        <v>30015</v>
-      </c>
-      <c r="B22" s="29">
-        <v>4</v>
-      </c>
-      <c r="C22" s="29">
-        <v>8</v>
-      </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(INT(A22/10),role!$A$9:$B$26,2,0)</f>
-        <v>小青蛙</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="42">
-        <v>30021</v>
-      </c>
-      <c r="B23" s="29">
-        <v>4</v>
-      </c>
-      <c r="C23" s="29">
-        <v>8</v>
-      </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(INT(A23/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D26" t="str">
+        <f>VLOOKUP(INT(A26/10),role!$A$8:$B$25,2,0)</f>
         <v>小乌龟</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="42">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="40">
         <v>30022</v>
       </c>
-      <c r="B24" s="29">
-        <v>4</v>
-      </c>
-      <c r="C24" s="29">
+      <c r="B27" s="29">
+        <v>4</v>
+      </c>
+      <c r="C27" s="29">
         <v>5</v>
       </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(INT(A24/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D27" t="str">
+        <f>VLOOKUP(INT(A27/10),role!$A$8:$B$25,2,0)</f>
         <v>小乌龟</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="42">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="40">
         <v>30023</v>
       </c>
-      <c r="B25" s="29">
-        <v>4</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="B28" s="29">
+        <v>4</v>
+      </c>
+      <c r="C28" s="29">
         <v>15</v>
       </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(INT(A25/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D28" t="str">
+        <f>VLOOKUP(INT(A28/10),role!$A$8:$B$25,2,0)</f>
         <v>小乌龟</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="42">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="40">
         <v>30024</v>
-      </c>
-      <c r="B26" s="29">
-        <v>4</v>
-      </c>
-      <c r="C26" s="29">
-        <v>6</v>
-      </c>
-      <c r="D26" t="str">
-        <f>VLOOKUP(INT(A26/10),role!$A$9:$B$26,2,0)</f>
-        <v>小乌龟</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="42">
-        <v>30025</v>
-      </c>
-      <c r="B27" s="29">
-        <v>4</v>
-      </c>
-      <c r="C27" s="29">
-        <v>10</v>
-      </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(INT(A27/10),role!$A$9:$B$26,2,0)</f>
-        <v>小乌龟</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="42">
-        <v>30031</v>
-      </c>
-      <c r="B28" s="29">
-        <v>4</v>
-      </c>
-      <c r="C28" s="29">
-        <v>10</v>
-      </c>
-      <c r="D28" t="str">
-        <f>VLOOKUP(INT(A28/10),role!$A$9:$B$26,2,0)</f>
-        <v>狼</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="42">
-        <v>30032</v>
       </c>
       <c r="B29" s="29">
         <v>4</v>
@@ -7136,74 +6912,58 @@
         <v>6</v>
       </c>
       <c r="D29" t="str">
-        <f>VLOOKUP(INT(A29/10),role!$A$9:$B$26,2,0)</f>
+        <f>VLOOKUP(INT(A29/10),role!$A$8:$B$25,2,0)</f>
+        <v>小乌龟</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="40">
+        <v>30025</v>
+      </c>
+      <c r="B30" s="29">
+        <v>4</v>
+      </c>
+      <c r="C30" s="29">
+        <v>10</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(INT(A30/10),role!$A$8:$B$25,2,0)</f>
+        <v>小乌龟</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="40">
+        <v>30031</v>
+      </c>
+      <c r="B31" s="29">
+        <v>4</v>
+      </c>
+      <c r="C31" s="29">
+        <v>10</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(INT(A31/10),role!$A$8:$B$25,2,0)</f>
         <v>狼</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="42">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="40">
+        <v>30032</v>
+      </c>
+      <c r="B32" s="29">
+        <v>4</v>
+      </c>
+      <c r="C32" s="29">
+        <v>6</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(INT(A32/10),role!$A$8:$B$25,2,0)</f>
+        <v>狼</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="40">
         <v>30033</v>
-      </c>
-      <c r="B30" s="29">
-        <v>4</v>
-      </c>
-      <c r="C30" s="29">
-        <v>9</v>
-      </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(INT(A30/10),role!$A$9:$B$26,2,0)</f>
-        <v>狼</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="42">
-        <v>30034</v>
-      </c>
-      <c r="B31" s="29">
-        <v>4</v>
-      </c>
-      <c r="C31" s="29">
-        <v>1</v>
-      </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(INT(A31/10),role!$A$9:$B$26,2,0)</f>
-        <v>狼</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="42">
-        <v>30035</v>
-      </c>
-      <c r="B32" s="29">
-        <v>4</v>
-      </c>
-      <c r="C32" s="29">
-        <v>9</v>
-      </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(INT(A32/10),role!$A$9:$B$26,2,0)</f>
-        <v>狼</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="29">
-        <v>30041</v>
       </c>
       <c r="B33" s="29">
         <v>4</v>
@@ -7212,606 +6972,478 @@
         <v>9</v>
       </c>
       <c r="D33" t="str">
-        <f>VLOOKUP(INT(A33/10),role!$A$9:$B$26,2,0)</f>
+        <f>VLOOKUP(INT(A33/10),role!$A$8:$B$25,2,0)</f>
+        <v>狼</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="40">
+        <v>30034</v>
+      </c>
+      <c r="B34" s="29">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(INT(A34/10),role!$A$8:$B$25,2,0)</f>
+        <v>狼</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="40">
+        <v>30035</v>
+      </c>
+      <c r="B35" s="29">
+        <v>4</v>
+      </c>
+      <c r="C35" s="29">
+        <v>9</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(INT(A35/10),role!$A$8:$B$25,2,0)</f>
+        <v>狼</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="29">
+        <v>30041</v>
+      </c>
+      <c r="B36" s="29">
+        <v>4</v>
+      </c>
+      <c r="C36" s="29">
+        <v>9</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(INT(A36/10),role!$A$8:$B$25,2,0)</f>
         <v>老虎</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="29">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="29">
         <v>30042</v>
       </c>
-      <c r="B34" s="29">
-        <v>4</v>
-      </c>
-      <c r="C34" s="29">
+      <c r="B37" s="29">
+        <v>4</v>
+      </c>
+      <c r="C37" s="29">
         <v>5</v>
       </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(INT(A34/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D37" t="str">
+        <f>VLOOKUP(INT(A37/10),role!$A$8:$B$25,2,0)</f>
         <v>老虎</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="29">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="29">
         <v>30043</v>
       </c>
-      <c r="B35" s="29">
-        <v>4</v>
-      </c>
-      <c r="C35" s="29">
+      <c r="B38" s="29">
+        <v>4</v>
+      </c>
+      <c r="C38" s="29">
         <v>10</v>
       </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(INT(A35/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D38" t="str">
+        <f>VLOOKUP(INT(A38/10),role!$A$8:$B$25,2,0)</f>
         <v>老虎</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="29">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="29">
         <v>30044</v>
       </c>
-      <c r="B36" s="29">
-        <v>4</v>
-      </c>
-      <c r="C36" s="29">
+      <c r="B39" s="29">
+        <v>4</v>
+      </c>
+      <c r="C39" s="29">
         <v>2</v>
       </c>
-      <c r="D36" t="str">
-        <f>VLOOKUP(INT(A36/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D39" t="str">
+        <f>VLOOKUP(INT(A39/10),role!$A$8:$B$25,2,0)</f>
         <v>老虎</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="29">
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="29">
         <v>30045</v>
       </c>
-      <c r="B37" s="29">
-        <v>4</v>
-      </c>
-      <c r="C37" s="29">
+      <c r="B40" s="29">
+        <v>4</v>
+      </c>
+      <c r="C40" s="29">
         <v>7</v>
       </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(INT(A37/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D40" t="str">
+        <f>VLOOKUP(INT(A40/10),role!$A$8:$B$25,2,0)</f>
         <v>老虎</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="29">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="29">
         <v>30051</v>
       </c>
-      <c r="B38" s="29">
-        <v>4</v>
-      </c>
-      <c r="C38" s="29">
-        <v>1</v>
-      </c>
-      <c r="D38" t="str">
-        <f>VLOOKUP(INT(A38/10),role!$A$9:$B$26,2,0)</f>
+      <c r="B41" s="29">
+        <v>4</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(INT(A41/10),role!$A$8:$B$25,2,0)</f>
         <v>树精</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="29">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="29">
         <v>30052</v>
       </c>
-      <c r="B39" s="29">
-        <v>4</v>
-      </c>
-      <c r="C39" s="29">
+      <c r="B42" s="29">
+        <v>4</v>
+      </c>
+      <c r="C42" s="29">
         <v>8</v>
       </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(INT(A39/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D42" t="str">
+        <f>VLOOKUP(INT(A42/10),role!$A$8:$B$25,2,0)</f>
         <v>树精</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="29">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="29">
         <v>30053</v>
       </c>
-      <c r="B40" s="29">
-        <v>4</v>
-      </c>
-      <c r="C40" s="29">
+      <c r="B43" s="29">
+        <v>4</v>
+      </c>
+      <c r="C43" s="29">
         <v>8</v>
       </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(INT(A40/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D43" t="str">
+        <f>VLOOKUP(INT(A43/10),role!$A$8:$B$25,2,0)</f>
         <v>树精</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="29">
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="29">
         <v>30054</v>
       </c>
-      <c r="B41" s="29">
-        <v>4</v>
-      </c>
-      <c r="C41" s="29">
+      <c r="B44" s="29">
+        <v>4</v>
+      </c>
+      <c r="C44" s="29">
         <v>2</v>
       </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(INT(A41/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D44" t="str">
+        <f>VLOOKUP(INT(A44/10),role!$A$8:$B$25,2,0)</f>
         <v>树精</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="29">
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="29">
         <v>30055</v>
       </c>
-      <c r="B42" s="29">
-        <v>4</v>
-      </c>
-      <c r="C42" s="29">
+      <c r="B45" s="29">
+        <v>4</v>
+      </c>
+      <c r="C45" s="29">
         <v>7</v>
       </c>
-      <c r="D42" t="str">
-        <f>VLOOKUP(INT(A42/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D45" t="str">
+        <f>VLOOKUP(INT(A45/10),role!$A$8:$B$25,2,0)</f>
         <v>树精</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="29">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="29">
         <v>30061</v>
       </c>
-      <c r="B43" s="29">
-        <v>4</v>
-      </c>
-      <c r="C43" s="29">
+      <c r="B46" s="29">
+        <v>4</v>
+      </c>
+      <c r="C46" s="29">
         <v>9</v>
       </c>
-      <c r="D43" t="str">
-        <f>VLOOKUP(INT(A43/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D46" t="str">
+        <f>VLOOKUP(INT(A46/10),role!$A$8:$B$25,2,0)</f>
         <v>刀兵</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="29">
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="29">
         <v>30062</v>
       </c>
-      <c r="B44" s="29">
-        <v>4</v>
-      </c>
-      <c r="C44" s="29">
+      <c r="B47" s="29">
+        <v>4</v>
+      </c>
+      <c r="C47" s="29">
         <v>5</v>
       </c>
-      <c r="D44" t="str">
-        <f>VLOOKUP(INT(A44/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D47" t="str">
+        <f>VLOOKUP(INT(A47/10),role!$A$8:$B$25,2,0)</f>
         <v>刀兵</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="29">
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="29">
         <v>30063</v>
       </c>
-      <c r="B45" s="29">
-        <v>4</v>
-      </c>
-      <c r="C45" s="29">
+      <c r="B48" s="29">
+        <v>4</v>
+      </c>
+      <c r="C48" s="29">
         <v>14</v>
       </c>
-      <c r="D45" t="str">
-        <f>VLOOKUP(INT(A45/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D48" t="str">
+        <f>VLOOKUP(INT(A48/10),role!$A$8:$B$25,2,0)</f>
         <v>刀兵</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="29">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="29">
         <v>30064</v>
       </c>
-      <c r="B46" s="29">
-        <v>4</v>
-      </c>
-      <c r="C46" s="29">
+      <c r="B49" s="29">
+        <v>4</v>
+      </c>
+      <c r="C49" s="29">
         <v>2</v>
       </c>
-      <c r="D46" t="str">
-        <f>VLOOKUP(INT(A46/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D49" t="str">
+        <f>VLOOKUP(INT(A49/10),role!$A$8:$B$25,2,0)</f>
         <v>刀兵</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="29">
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="29">
         <v>30065</v>
       </c>
-      <c r="B47" s="29">
-        <v>4</v>
-      </c>
-      <c r="C47" s="29">
+      <c r="B50" s="29">
+        <v>4</v>
+      </c>
+      <c r="C50" s="29">
         <v>8</v>
       </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(INT(A47/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D50" t="str">
+        <f>VLOOKUP(INT(A50/10),role!$A$8:$B$25,2,0)</f>
         <v>刀兵</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="29">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="29">
         <v>30071</v>
       </c>
-      <c r="B48" s="29">
-        <v>4</v>
-      </c>
-      <c r="C48" s="29">
+      <c r="B51" s="29">
+        <v>4</v>
+      </c>
+      <c r="C51" s="29">
         <v>9</v>
       </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(INT(A48/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D51" t="str">
+        <f>VLOOKUP(INT(A51/10),role!$A$8:$B$25,2,0)</f>
         <v>虾兵</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="29">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="29">
         <v>30072</v>
       </c>
-      <c r="B49" s="29">
-        <v>4</v>
-      </c>
-      <c r="C49" s="29">
+      <c r="B52" s="29">
+        <v>4</v>
+      </c>
+      <c r="C52" s="29">
         <v>5</v>
       </c>
-      <c r="D49" t="str">
-        <f>VLOOKUP(INT(A49/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D52" t="str">
+        <f>VLOOKUP(INT(A52/10),role!$A$8:$B$25,2,0)</f>
         <v>虾兵</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="29">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="29">
         <v>30073</v>
       </c>
-      <c r="B50" s="29">
-        <v>4</v>
-      </c>
-      <c r="C50" s="29">
+      <c r="B53" s="29">
+        <v>4</v>
+      </c>
+      <c r="C53" s="29">
         <v>11</v>
       </c>
-      <c r="D50" t="str">
-        <f>VLOOKUP(INT(A50/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D53" t="str">
+        <f>VLOOKUP(INT(A53/10),role!$A$8:$B$25,2,0)</f>
         <v>虾兵</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="29">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="29">
         <v>30074</v>
       </c>
-      <c r="B51" s="29">
-        <v>4</v>
-      </c>
-      <c r="C51" s="29">
+      <c r="B54" s="29">
+        <v>4</v>
+      </c>
+      <c r="C54" s="29">
         <v>2</v>
       </c>
-      <c r="D51" t="str">
-        <f>VLOOKUP(INT(A51/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D54" t="str">
+        <f>VLOOKUP(INT(A54/10),role!$A$8:$B$25,2,0)</f>
         <v>虾兵</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="29">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="29">
         <v>30075</v>
       </c>
-      <c r="B52" s="29">
-        <v>4</v>
-      </c>
-      <c r="C52" s="29">
+      <c r="B55" s="29">
+        <v>4</v>
+      </c>
+      <c r="C55" s="29">
         <v>8</v>
       </c>
-      <c r="D52" t="str">
-        <f>VLOOKUP(INT(A52/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D55" t="str">
+        <f>VLOOKUP(INT(A55/10),role!$A$8:$B$25,2,0)</f>
         <v>虾兵</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="29">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="29">
         <v>30081</v>
       </c>
-      <c r="B53" s="29">
-        <v>4</v>
-      </c>
-      <c r="C53" s="29">
+      <c r="B56" s="29">
+        <v>4</v>
+      </c>
+      <c r="C56" s="29">
         <v>8</v>
       </c>
-      <c r="D53" t="str">
-        <f>VLOOKUP(INT(A53/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D56" t="str">
+        <f>VLOOKUP(INT(A56/10),role!$A$8:$B$25,2,0)</f>
         <v>蟹将</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="29">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="29">
         <v>30082</v>
       </c>
-      <c r="B54" s="29">
-        <v>4</v>
-      </c>
-      <c r="C54" s="29">
+      <c r="B57" s="29">
+        <v>4</v>
+      </c>
+      <c r="C57" s="29">
         <v>5</v>
       </c>
-      <c r="D54" t="str">
-        <f>VLOOKUP(INT(A54/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D57" t="str">
+        <f>VLOOKUP(INT(A57/10),role!$A$8:$B$25,2,0)</f>
         <v>蟹将</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="29">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="29">
         <v>30083</v>
       </c>
-      <c r="B55" s="29">
-        <v>4</v>
-      </c>
-      <c r="C55" s="29">
+      <c r="B58" s="29">
+        <v>4</v>
+      </c>
+      <c r="C58" s="29">
         <v>11</v>
       </c>
-      <c r="D55" t="str">
-        <f>VLOOKUP(INT(A55/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D58" t="str">
+        <f>VLOOKUP(INT(A58/10),role!$A$8:$B$25,2,0)</f>
         <v>蟹将</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="29">
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="29">
         <v>30084</v>
       </c>
-      <c r="B56" s="29">
-        <v>4</v>
-      </c>
-      <c r="C56" s="29">
+      <c r="B59" s="29">
+        <v>4</v>
+      </c>
+      <c r="C59" s="29">
         <v>2</v>
       </c>
-      <c r="D56" t="str">
-        <f>VLOOKUP(INT(A56/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D59" t="str">
+        <f>VLOOKUP(INT(A59/10),role!$A$8:$B$25,2,0)</f>
         <v>蟹将</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="29">
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="29">
         <v>30085</v>
       </c>
-      <c r="B57" s="29">
-        <v>4</v>
-      </c>
-      <c r="C57" s="29">
+      <c r="B60" s="29">
+        <v>4</v>
+      </c>
+      <c r="C60" s="29">
         <v>8</v>
       </c>
-      <c r="D57" t="str">
-        <f>VLOOKUP(INT(A57/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D60" t="str">
+        <f>VLOOKUP(INT(A60/10),role!$A$8:$B$25,2,0)</f>
         <v>蟹将</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="29">
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="29">
         <v>30091</v>
       </c>
-      <c r="B58" s="29">
-        <v>4</v>
-      </c>
-      <c r="C58" s="29">
+      <c r="B61" s="29">
+        <v>4</v>
+      </c>
+      <c r="C61" s="29">
         <v>8</v>
       </c>
-      <c r="D58" t="str">
-        <f>VLOOKUP(INT(A58/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D61" t="str">
+        <f>VLOOKUP(INT(A61/10),role!$A$8:$B$25,2,0)</f>
         <v>蛙妖</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="29">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="29">
         <v>30092</v>
       </c>
-      <c r="B59" s="29">
-        <v>4</v>
-      </c>
-      <c r="C59" s="29">
-        <v>4</v>
-      </c>
-      <c r="D59" t="str">
-        <f>VLOOKUP(INT(A59/10),role!$A$9:$B$26,2,0)</f>
+      <c r="B62" s="29">
+        <v>4</v>
+      </c>
+      <c r="C62" s="29">
+        <v>4</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(INT(A62/10),role!$A$8:$B$25,2,0)</f>
         <v>蛙妖</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="29">
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="29">
         <v>30093</v>
       </c>
-      <c r="B60" s="29">
-        <v>4</v>
-      </c>
-      <c r="C60" s="29">
+      <c r="B63" s="29">
+        <v>4</v>
+      </c>
+      <c r="C63" s="29">
         <v>12</v>
       </c>
-      <c r="D60" t="str">
-        <f>VLOOKUP(INT(A60/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D63" t="str">
+        <f>VLOOKUP(INT(A63/10),role!$A$8:$B$25,2,0)</f>
         <v>蛙妖</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="29">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="29">
         <v>30094</v>
       </c>
-      <c r="B61" s="29">
-        <v>4</v>
-      </c>
-      <c r="C61" s="29">
+      <c r="B64" s="29">
+        <v>4</v>
+      </c>
+      <c r="C64" s="29">
         <v>2</v>
       </c>
-      <c r="D61" t="str">
-        <f>VLOOKUP(INT(A61/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D64" t="str">
+        <f>VLOOKUP(INT(A64/10),role!$A$8:$B$25,2,0)</f>
         <v>蛙妖</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="29">
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="29">
         <v>30095</v>
-      </c>
-      <c r="B62" s="29">
-        <v>4</v>
-      </c>
-      <c r="C62" s="29">
-        <v>12</v>
-      </c>
-      <c r="D62" t="str">
-        <f>VLOOKUP(INT(A62/10),role!$A$9:$B$26,2,0)</f>
-        <v>蛙妖</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="29">
-        <v>30101</v>
-      </c>
-      <c r="B63" s="29">
-        <v>4</v>
-      </c>
-      <c r="C63" s="29">
-        <v>10</v>
-      </c>
-      <c r="D63" t="str">
-        <f>VLOOKUP(INT(A63/10),role!$A$9:$B$26,2,0)</f>
-        <v>鬼灵</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="29">
-        <v>30102</v>
-      </c>
-      <c r="B64" s="29">
-        <v>4</v>
-      </c>
-      <c r="C64" s="29">
-        <v>5</v>
-      </c>
-      <c r="D64" t="str">
-        <f>VLOOKUP(INT(A64/10),role!$A$9:$B$26,2,0)</f>
-        <v>鬼灵</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="29">
-        <v>30103</v>
       </c>
       <c r="B65" s="29">
         <v>4</v>
@@ -7820,150 +7452,118 @@
         <v>12</v>
       </c>
       <c r="D65" t="str">
-        <f>VLOOKUP(INT(A65/10),role!$A$9:$B$26,2,0)</f>
+        <f>VLOOKUP(INT(A65/10),role!$A$8:$B$25,2,0)</f>
+        <v>蛙妖</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="29">
+        <v>30101</v>
+      </c>
+      <c r="B66" s="29">
+        <v>4</v>
+      </c>
+      <c r="C66" s="29">
+        <v>10</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(INT(A66/10),role!$A$8:$B$25,2,0)</f>
         <v>鬼灵</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="29">
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="29">
+        <v>30102</v>
+      </c>
+      <c r="B67" s="29">
+        <v>4</v>
+      </c>
+      <c r="C67" s="29">
+        <v>5</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(INT(A67/10),role!$A$8:$B$25,2,0)</f>
+        <v>鬼灵</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="29">
+        <v>30103</v>
+      </c>
+      <c r="B68" s="29">
+        <v>4</v>
+      </c>
+      <c r="C68" s="29">
+        <v>12</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(INT(A68/10),role!$A$8:$B$25,2,0)</f>
+        <v>鬼灵</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="29">
         <v>30104</v>
       </c>
-      <c r="B66" s="29">
-        <v>4</v>
-      </c>
-      <c r="C66" s="29">
+      <c r="B69" s="29">
+        <v>4</v>
+      </c>
+      <c r="C69" s="29">
         <v>2</v>
       </c>
-      <c r="D66" t="str">
-        <f>VLOOKUP(INT(A66/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D69" t="str">
+        <f>VLOOKUP(INT(A69/10),role!$A$8:$B$25,2,0)</f>
         <v>鬼灵</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="29">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="29">
         <v>30105</v>
       </c>
-      <c r="B67" s="29">
-        <v>4</v>
-      </c>
-      <c r="C67" s="29">
+      <c r="B70" s="29">
+        <v>4</v>
+      </c>
+      <c r="C70" s="29">
         <v>9</v>
       </c>
-      <c r="D67" t="str">
-        <f>VLOOKUP(INT(A67/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D70" t="str">
+        <f>VLOOKUP(INT(A70/10),role!$A$8:$B$25,2,0)</f>
         <v>鬼灵</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" si="0"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="29">
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="29">
         <v>30111</v>
       </c>
-      <c r="B68" s="29">
-        <v>4</v>
-      </c>
-      <c r="C68" s="29">
+      <c r="B71" s="29">
+        <v>4</v>
+      </c>
+      <c r="C71" s="29">
         <v>8</v>
       </c>
-      <c r="D68" t="str">
-        <f>VLOOKUP(INT(A68/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D71" t="str">
+        <f>VLOOKUP(INT(A71/10),role!$A$8:$B$25,2,0)</f>
         <v>牛妖</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="0"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="29">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="29">
         <v>30112</v>
       </c>
-      <c r="B69" s="29">
-        <v>4</v>
-      </c>
-      <c r="C69" s="29">
-        <v>4</v>
-      </c>
-      <c r="D69" t="str">
-        <f>VLOOKUP(INT(A69/10),role!$A$9:$B$26,2,0)</f>
+      <c r="B72" s="29">
+        <v>4</v>
+      </c>
+      <c r="C72" s="29">
+        <v>4</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(INT(A72/10),role!$A$8:$B$25,2,0)</f>
         <v>牛妖</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="0"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="29">
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="29">
         <v>30113</v>
-      </c>
-      <c r="B70" s="29">
-        <v>4</v>
-      </c>
-      <c r="C70" s="29">
-        <v>13</v>
-      </c>
-      <c r="D70" t="str">
-        <f>VLOOKUP(INT(A70/10),role!$A$9:$B$26,2,0)</f>
-        <v>牛妖</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="0"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="29">
-        <v>30114</v>
-      </c>
-      <c r="B71" s="29">
-        <v>4</v>
-      </c>
-      <c r="C71" s="29">
-        <v>2</v>
-      </c>
-      <c r="D71" t="str">
-        <f>VLOOKUP(INT(A71/10),role!$A$9:$B$26,2,0)</f>
-        <v>牛妖</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" ref="E71:E82" si="1">VLOOKUP(A71-INT(A71/10)*10,$G$1:$H$5,2,0)</f>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="29">
-        <v>30115</v>
-      </c>
-      <c r="B72" s="29">
-        <v>4</v>
-      </c>
-      <c r="C72" s="29">
-        <v>8</v>
-      </c>
-      <c r="D72" t="str">
-        <f>VLOOKUP(INT(A72/10),role!$A$9:$B$26,2,0)</f>
-        <v>牛妖</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="29">
-        <v>30121</v>
       </c>
       <c r="B73" s="29">
         <v>4</v>
@@ -7972,131 +7572,103 @@
         <v>13</v>
       </c>
       <c r="D73" t="str">
-        <f>VLOOKUP(INT(A73/10),role!$A$9:$B$26,2,0)</f>
+        <f>VLOOKUP(INT(A73/10),role!$A$8:$B$25,2,0)</f>
+        <v>牛妖</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="29">
+        <v>30114</v>
+      </c>
+      <c r="B74" s="29">
+        <v>4</v>
+      </c>
+      <c r="C74" s="29">
+        <v>2</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(INT(A74/10),role!$A$8:$B$25,2,0)</f>
+        <v>牛妖</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="29">
+        <v>30115</v>
+      </c>
+      <c r="B75" s="29">
+        <v>4</v>
+      </c>
+      <c r="C75" s="29">
+        <v>8</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(INT(A75/10),role!$A$8:$B$25,2,0)</f>
+        <v>牛妖</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="29">
+        <v>30121</v>
+      </c>
+      <c r="B76" s="29">
+        <v>4</v>
+      </c>
+      <c r="C76" s="29">
+        <v>13</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(INT(A76/10),role!$A$8:$B$25,2,0)</f>
         <v>龙族少年</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="29">
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="29">
         <v>30122</v>
       </c>
-      <c r="B74" s="29">
-        <v>4</v>
-      </c>
-      <c r="C74" s="29">
+      <c r="B77" s="29">
+        <v>4</v>
+      </c>
+      <c r="C77" s="29">
         <v>5</v>
       </c>
-      <c r="D74" t="str">
-        <f>VLOOKUP(INT(A74/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D77" t="str">
+        <f>VLOOKUP(INT(A77/10),role!$A$8:$B$25,2,0)</f>
         <v>龙族少年</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="29">
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="29">
         <v>30123</v>
       </c>
-      <c r="B75" s="29">
-        <v>4</v>
-      </c>
-      <c r="C75" s="29">
+      <c r="B78" s="29">
+        <v>4</v>
+      </c>
+      <c r="C78" s="29">
         <v>12</v>
       </c>
-      <c r="D75" t="str">
-        <f>VLOOKUP(INT(A75/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D78" t="str">
+        <f>VLOOKUP(INT(A78/10),role!$A$8:$B$25,2,0)</f>
         <v>龙族少年</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="29">
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="29">
         <v>30124</v>
       </c>
-      <c r="B76" s="29">
-        <v>4</v>
-      </c>
-      <c r="C76" s="29">
+      <c r="B79" s="29">
+        <v>4</v>
+      </c>
+      <c r="C79" s="29">
         <v>2</v>
       </c>
-      <c r="D76" t="str">
-        <f>VLOOKUP(INT(A76/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D79" t="str">
+        <f>VLOOKUP(INT(A79/10),role!$A$8:$B$25,2,0)</f>
         <v>龙族少年</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="29">
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="29">
         <v>30125</v>
-      </c>
-      <c r="B77" s="29">
-        <v>4</v>
-      </c>
-      <c r="C77" s="29">
-        <v>10</v>
-      </c>
-      <c r="D77" t="str">
-        <f>VLOOKUP(INT(A77/10),role!$A$9:$B$26,2,0)</f>
-        <v>龙族少年</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v>die</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="29">
-        <v>30131</v>
-      </c>
-      <c r="B78" s="29">
-        <v>4</v>
-      </c>
-      <c r="C78" s="29">
-        <v>10</v>
-      </c>
-      <c r="D78" t="str">
-        <f>VLOOKUP(INT(A78/10),role!$A$9:$B$26,2,0)</f>
-        <v>狐妖</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v>stand</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="29">
-        <v>30132</v>
-      </c>
-      <c r="B79" s="29">
-        <v>4</v>
-      </c>
-      <c r="C79" s="29">
-        <v>5</v>
-      </c>
-      <c r="D79" t="str">
-        <f>VLOOKUP(INT(A79/10),role!$A$9:$B$26,2,0)</f>
-        <v>狐妖</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v>run</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="29">
-        <v>30133</v>
       </c>
       <c r="B80" s="29">
         <v>4</v>
@@ -8105,54 +7677,89 @@
         <v>10</v>
       </c>
       <c r="D80" t="str">
-        <f>VLOOKUP(INT(A80/10),role!$A$9:$B$26,2,0)</f>
+        <f>VLOOKUP(INT(A80/10),role!$A$8:$B$25,2,0)</f>
+        <v>龙族少年</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="29">
+        <v>30131</v>
+      </c>
+      <c r="B81" s="29">
+        <v>4</v>
+      </c>
+      <c r="C81" s="29">
+        <v>10</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(INT(A81/10),role!$A$8:$B$25,2,0)</f>
         <v>狐妖</v>
       </c>
-      <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v>attack</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="29">
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="29">
+        <v>30132</v>
+      </c>
+      <c r="B82" s="29">
+        <v>4</v>
+      </c>
+      <c r="C82" s="29">
+        <v>5</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(INT(A82/10),role!$A$8:$B$25,2,0)</f>
+        <v>狐妖</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="29">
+        <v>30133</v>
+      </c>
+      <c r="B83" s="29">
+        <v>4</v>
+      </c>
+      <c r="C83" s="29">
+        <v>10</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(INT(A83/10),role!$A$8:$B$25,2,0)</f>
+        <v>狐妖</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="29">
         <v>30134</v>
       </c>
-      <c r="B81" s="29">
-        <v>4</v>
-      </c>
-      <c r="C81" s="29">
+      <c r="B84" s="29">
+        <v>4</v>
+      </c>
+      <c r="C84" s="29">
         <v>2</v>
       </c>
-      <c r="D81" t="str">
-        <f>VLOOKUP(INT(A81/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D84" t="str">
+        <f>VLOOKUP(INT(A84/10),role!$A$8:$B$25,2,0)</f>
         <v>狐妖</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v>hit</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="29">
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="29">
         <v>30135</v>
       </c>
-      <c r="B82" s="29">
-        <v>4</v>
-      </c>
-      <c r="C82" s="29">
+      <c r="B85" s="29">
+        <v>4</v>
+      </c>
+      <c r="C85" s="29">
         <v>10</v>
       </c>
-      <c r="D82" t="str">
-        <f>VLOOKUP(INT(A82/10),role!$A$9:$B$26,2,0)</f>
+      <c r="D85" t="str">
+        <f>VLOOKUP(INT(A85/10),role!$A$8:$B$25,2,0)</f>
         <v>狐妖</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v>die</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="数值" sheetId="2" r:id="rId1"/>
@@ -1261,9 +1261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花费金币买属性，世间难得的好事儿，走过路过不\n要错过哟！\n随便挑随便选，每样只要30金币！（ESC键离开）</t>
-  </si>
-  <si>
     <t>消耗类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1272,10 +1269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这位少年，我观你骨骼惊奇，给你提升一下修为吧！\n（每次花费100点经验值，ESC键离开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合数</t>
   </si>
   <si>
@@ -1524,6 +1517,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币买属性，世间难得的好事儿，走过路过不#r要错过哟！#r随便挑随便选，每样只要30金币！（ESC键离开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这位少年，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费100点经验值，ESC键离开)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4908,7 +4909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4934,18 +4935,18 @@
         <v>139</v>
       </c>
       <c r="G6" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>324</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>122</v>
@@ -4963,13 +4964,13 @@
         <v>162</v>
       </c>
       <c r="G7" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>325</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4977,7 +4978,7 @@
         <v>3000</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C8" s="88">
         <v>1</v>
@@ -4994,7 +4995,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5002,7 +5003,7 @@
         <v>3001</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C9" s="88">
         <v>2</v>
@@ -5019,7 +5020,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5027,7 +5028,7 @@
         <v>3002</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C10" s="88">
         <v>3</v>
@@ -5044,7 +5045,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5052,7 +5053,7 @@
         <v>3004</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" s="88">
         <v>1</v>
@@ -5069,7 +5070,7 @@
         <v>100</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5077,7 +5078,7 @@
         <v>3005</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C12" s="88">
         <v>2</v>
@@ -5094,7 +5095,7 @@
         <v>100</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5102,7 +5103,7 @@
         <v>3006</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C13" s="88">
         <v>3</v>
@@ -5119,7 +5120,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5127,7 +5128,7 @@
         <v>3007</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -5142,7 +5143,7 @@
         <v>100</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5904,24 +5905,24 @@
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="62" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="66"/>
       <c r="D1" s="63" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="63"/>
       <c r="G1" s="62" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
       <c r="K1" s="64"/>
       <c r="L1" s="62" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
@@ -5930,7 +5931,7 @@
       <c r="Q1" s="63"/>
       <c r="R1" s="64"/>
       <c r="T1" s="62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="U1" s="63"/>
       <c r="V1" s="63"/>
@@ -5940,7 +5941,7 @@
       <c r="Z1" s="63"/>
       <c r="AA1" s="64"/>
       <c r="AC1" s="47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
@@ -5950,7 +5951,7 @@
       <c r="AI1" s="48"/>
       <c r="AJ1" s="49"/>
       <c r="AL1" s="62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AM1" s="63"/>
       <c r="AN1" s="63"/>
@@ -5960,11 +5961,11 @@
       <c r="AR1" s="63"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="62" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AU1" s="64"/>
       <c r="AV1" s="62" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AW1" s="63"/>
       <c r="AX1" s="63"/>
@@ -6038,19 +6039,19 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>135</v>
@@ -6065,52 +6066,52 @@
         <v>8</v>
       </c>
       <c r="K3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="O3" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="P3" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="Q3" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="R3" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="T3" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="U3" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="V3" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="W3" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y3" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="U3" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="V3" s="32" t="s">
+      <c r="Z3" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="W3" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y3" s="32" t="s">
+      <c r="AA3" s="32" t="s">
         <v>279</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>281</v>
       </c>
       <c r="AC3" s="32"/>
       <c r="AD3" s="32" t="s">
@@ -6123,19 +6124,19 @@
         <v>139</v>
       </c>
       <c r="AG3" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI3" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="AH3" s="32" t="s">
+      <c r="AJ3" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="AI3" s="32" t="s">
+      <c r="AL3" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="AJ3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="AL3" s="32" t="s">
-        <v>277</v>
       </c>
       <c r="AM3" s="32" t="s">
         <v>135</v>
@@ -6147,22 +6148,22 @@
         <v>139</v>
       </c>
       <c r="AP3" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ3" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="AR3" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="AQ3" s="32" t="s">
+      <c r="AS3" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="AR3" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="AS3" s="32" t="s">
-        <v>276</v>
-      </c>
       <c r="AT3" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AU3" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AV3" s="32" t="s">
         <v>135</v>
@@ -6174,10 +6175,10 @@
         <v>139</v>
       </c>
       <c r="AY3" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AZ3" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -6223,89 +6224,89 @@
         <v>0</v>
       </c>
       <c r="T4" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="V4" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="W4" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="X4" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="Y4" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="Z4" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="AA4" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>291</v>
       </c>
       <c r="AC4" s="27"/>
       <c r="AD4" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF4" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AG4" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH4" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI4" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL4" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="AF4" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG4" s="27" t="s">
+      <c r="AM4" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN4" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO4" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP4" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ4" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR4" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AH4" s="27" t="s">
+      <c r="AS4" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AV4" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="AJ4" s="27" t="s">
+      <c r="AW4" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="AL4" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="AM4" s="27" t="s">
+      <c r="AX4" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="AN4" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO4" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="AP4" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ4" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="AR4" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS4" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="AV4" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW4" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="AX4" s="27" t="s">
-        <v>294</v>
-      </c>
       <c r="AY4" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AZ4" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:52">
@@ -6389,7 +6390,7 @@
       <c r="Z5" s="28"/>
       <c r="AA5" s="28"/>
       <c r="AC5" s="41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AD5" s="28">
         <v>10</v>
@@ -6538,7 +6539,7 @@
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
       <c r="AC6" s="41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AD6" s="28">
         <v>5</v>
@@ -6688,7 +6689,7 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
       <c r="AC7" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AD7" s="28">
         <v>2</v>
@@ -7986,7 +7987,7 @@
         <v>31</v>
       </c>
       <c r="AQ17" s="45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AR17" s="28">
         <v>40</v>
@@ -8228,7 +8229,7 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" s="81">
         <f t="shared" si="2"/>
@@ -9184,7 +9185,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B32" s="29">
         <v>1010</v>
@@ -10896,7 +10897,7 @@
         <v>1007</v>
       </c>
       <c r="C56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D56" s="81" t="str">
         <f t="shared" si="2"/>
@@ -18762,8 +18763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18780,7 +18781,7 @@
         <v>254</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>256</v>
@@ -18807,7 +18808,7 @@
         <v>260</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>261</v>
@@ -18840,7 +18841,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -18867,7 +18868,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="数值" sheetId="2" r:id="rId1"/>
@@ -16035,8 +16035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16169,9 +16169,9 @@
       <c r="D8" s="28">
         <v>1</v>
       </c>
-      <c r="E8" s="28">
-        <f t="shared" ref="E8:E12" si="0">A8</f>
-        <v>1000</v>
+      <c r="E8" s="28" t="str">
+        <f>"h" &amp; A8 &amp; ".tga"</f>
+        <v>h1000.tga</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>251</v>
@@ -16214,9 +16214,9 @@
       <c r="D9" s="28">
         <v>2</v>
       </c>
-      <c r="E9" s="28">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+      <c r="E9" s="28" t="str">
+        <f t="shared" ref="E9:E25" si="0">"h" &amp; A9 &amp; ".tga"</f>
+        <v>h2000.tga</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29"/>
@@ -16259,9 +16259,9 @@
       <c r="D10" s="28">
         <v>2</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>2001</v>
+        <v>h2001.tga</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
@@ -16306,9 +16306,9 @@
       <c r="D11" s="28">
         <v>2</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>2002</v>
+        <v>h2002.tga</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="29"/>
@@ -16351,9 +16351,9 @@
       <c r="D12" s="28">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>h3000.tga</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="29"/>
@@ -16392,9 +16392,9 @@
       <c r="D13" s="28">
         <v>3</v>
       </c>
-      <c r="E13" s="28">
-        <f t="shared" ref="E13:E25" si="1">A13</f>
-        <v>3001</v>
+      <c r="E13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3001.tga</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
@@ -16433,9 +16433,9 @@
       <c r="D14" s="28">
         <v>3</v>
       </c>
-      <c r="E14" s="28">
-        <f t="shared" si="1"/>
-        <v>3002</v>
+      <c r="E14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3002.tga</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="29"/>
@@ -16474,9 +16474,9 @@
       <c r="D15" s="28">
         <v>3</v>
       </c>
-      <c r="E15" s="28">
-        <f t="shared" si="1"/>
-        <v>3003</v>
+      <c r="E15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3003.tga</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29"/>
@@ -16515,9 +16515,9 @@
       <c r="D16" s="28">
         <v>3</v>
       </c>
-      <c r="E16" s="28">
-        <f t="shared" si="1"/>
-        <v>3004</v>
+      <c r="E16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3004.tga</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
@@ -16556,9 +16556,9 @@
       <c r="D17" s="28">
         <v>3</v>
       </c>
-      <c r="E17" s="28">
-        <f t="shared" si="1"/>
-        <v>3005</v>
+      <c r="E17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3005.tga</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
@@ -16597,9 +16597,9 @@
       <c r="D18" s="28">
         <v>3</v>
       </c>
-      <c r="E18" s="28">
-        <f t="shared" si="1"/>
-        <v>3006</v>
+      <c r="E18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3006.tga</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
@@ -16638,9 +16638,9 @@
       <c r="D19" s="28">
         <v>3</v>
       </c>
-      <c r="E19" s="28">
-        <f t="shared" si="1"/>
-        <v>3007</v>
+      <c r="E19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3007.tga</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
@@ -16679,9 +16679,9 @@
       <c r="D20" s="28">
         <v>3</v>
       </c>
-      <c r="E20" s="28">
-        <f t="shared" si="1"/>
-        <v>3008</v>
+      <c r="E20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3008.tga</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="29"/>
@@ -16720,9 +16720,9 @@
       <c r="D21" s="28">
         <v>3</v>
       </c>
-      <c r="E21" s="28">
-        <f t="shared" si="1"/>
-        <v>3009</v>
+      <c r="E21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3009.tga</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
@@ -16761,9 +16761,9 @@
       <c r="D22" s="28">
         <v>3</v>
       </c>
-      <c r="E22" s="28">
-        <f t="shared" si="1"/>
-        <v>3010</v>
+      <c r="E22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3010.tga</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
@@ -16802,9 +16802,9 @@
       <c r="D23" s="28">
         <v>3</v>
       </c>
-      <c r="E23" s="28">
-        <f t="shared" si="1"/>
-        <v>3011</v>
+      <c r="E23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3011.tga</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
@@ -16843,9 +16843,9 @@
       <c r="D24" s="28">
         <v>3</v>
       </c>
-      <c r="E24" s="28">
-        <f t="shared" si="1"/>
-        <v>3012</v>
+      <c r="E24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3012.tga</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
@@ -16886,9 +16886,9 @@
       <c r="D25" s="28">
         <v>3</v>
       </c>
-      <c r="E25" s="28">
-        <f t="shared" si="1"/>
-        <v>3013</v>
+      <c r="E25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>h3013.tga</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
@@ -18763,7 +18763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="数值" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="flash" sheetId="7" r:id="rId8"/>
     <sheet name="shop" sheetId="9" r:id="rId9"/>
     <sheet name="goods" sheetId="10" r:id="rId10"/>
+    <sheet name="conversation" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -113,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="P7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="345">
   <si>
     <t>战斗时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,14 +967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conversation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1229,38 +1222,249 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[3000;3001;3002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3004;3005;3006;3007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数</t>
+  </si>
+  <si>
+    <t>防爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减血量</t>
+  </si>
+  <si>
+    <t>致死数</t>
+  </si>
+  <si>
+    <t>itemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始属性</t>
+  </si>
+  <si>
+    <t>升级属性</t>
+  </si>
+  <si>
+    <t>金币购买</t>
+  </si>
+  <si>
+    <t>商人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗之后属性（物品提升+金币提升+经验提升）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗之后属性获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具属性加成及击杀怪物获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首战体验控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首战主角属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗体验控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积减血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币买攻击</t>
+  </si>
+  <si>
+    <t>金币买防御</t>
+  </si>
+  <si>
+    <t>金币买生命</t>
+  </si>
+  <si>
+    <t>经验换攻击</t>
+  </si>
+  <si>
+    <t>经验换防御</t>
+  </si>
+  <si>
+    <t>经验换生命</t>
+  </si>
+  <si>
+    <t>经验换等级</t>
+  </si>
+  <si>
     <t>消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3000;3001;3002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3004;3005;3006;3007]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1269,225 +1473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回合数</t>
-  </si>
-  <si>
-    <t>防爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减血量</t>
-  </si>
-  <si>
-    <t>致死数</t>
-  </si>
-  <si>
-    <t>itemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>block</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始属性</t>
-  </si>
-  <si>
-    <t>升级属性</t>
-  </si>
-  <si>
-    <t>金币购买</t>
-  </si>
-  <si>
-    <t>商人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗之后属性（物品提升+金币提升+经验提升）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗之后属性获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具属性加成及击杀怪物获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性提升单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首战体验控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首战主角属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗体验控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累积减血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币买攻击</t>
-  </si>
-  <si>
-    <t>金币买防御</t>
-  </si>
-  <si>
-    <t>金币买生命</t>
-  </si>
-  <si>
-    <t>经验换攻击</t>
-  </si>
-  <si>
-    <t>经验换防御</t>
-  </si>
-  <si>
-    <t>经验换生命</t>
-  </si>
-  <si>
-    <t>经验换等级</t>
-  </si>
-  <si>
-    <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1516,15 +1501,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币买属性，世间难得的好事儿，走过路过不#r要错过哟！#r随便挑随便选，每样只要30金币！（ESC键离开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这位少年，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费100点经验值，ESC键离开)</t>
+    <t>击杀获得金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀获得经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetConversationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相遇对话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡对白ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dieConversationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000;2000;2000;1000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[早上好;不好了，村里的宝物被狐妖夺走了！;你能帮我们抢回来吗？;真是大胆狂徒。没问题，一切包在我身上。]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1820,7 +1865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2007,6 +2052,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3375,9 +3423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -4907,10 +4956,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A6:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4935,24 +4985,24 @@
         <v>139</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H6" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>320</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>160</v>
@@ -4964,13 +5014,13 @@
         <v>162</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>321</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4978,13 +5028,13 @@
         <v>3000</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C8" s="88">
         <v>1</v>
       </c>
       <c r="D8" s="88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
@@ -4992,10 +5042,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5003,24 +5053,24 @@
         <v>3001</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C9" s="88">
         <v>2</v>
       </c>
       <c r="D9" s="88"/>
       <c r="E9" s="88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="88"/>
       <c r="G9" s="29">
         <v>1</v>
       </c>
       <c r="H9" s="88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5028,7 +5078,7 @@
         <v>3002</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C10" s="88">
         <v>3</v>
@@ -5036,16 +5086,16 @@
       <c r="D10" s="88"/>
       <c r="E10" s="88"/>
       <c r="F10" s="88">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" s="88">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5053,13 +5103,13 @@
         <v>3004</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C11" s="88">
         <v>1</v>
       </c>
       <c r="D11" s="88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
@@ -5067,10 +5117,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5078,24 +5128,24 @@
         <v>3005</v>
       </c>
       <c r="B12" s="88" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C12" s="88">
         <v>2</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" s="88"/>
       <c r="G12" s="29">
         <v>2</v>
       </c>
       <c r="H12" s="88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5103,7 +5153,7 @@
         <v>3006</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C13" s="88">
         <v>3</v>
@@ -5111,16 +5161,16 @@
       <c r="D13" s="88"/>
       <c r="E13" s="88"/>
       <c r="F13" s="88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G13" s="29">
         <v>2</v>
       </c>
       <c r="H13" s="88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5128,7 +5178,7 @@
         <v>3007</v>
       </c>
       <c r="B14" s="88" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C14" s="88">
         <v>0</v>
@@ -5140,10 +5190,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="88">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5154,8 +5204,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5439,6 +5551,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5758,6 +5871,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5880,11 +5994,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AZ132"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ17" sqref="AQ17"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="11" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5899,30 +6014,32 @@
     <col min="12" max="18" width="5.25" customWidth="1"/>
     <col min="20" max="27" width="5" customWidth="1"/>
     <col min="30" max="36" width="5.625" customWidth="1"/>
-    <col min="38" max="47" width="6.125" customWidth="1"/>
+    <col min="38" max="40" width="6.125" customWidth="1"/>
+    <col min="41" max="41" width="7.375" customWidth="1"/>
+    <col min="42" max="47" width="6.125" customWidth="1"/>
     <col min="48" max="52" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="62" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="66"/>
       <c r="D1" s="63" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="63"/>
       <c r="G1" s="62" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H1" s="63"/>
       <c r="I1" s="63"/>
       <c r="J1" s="63"/>
       <c r="K1" s="64"/>
       <c r="L1" s="62" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M1" s="63"/>
       <c r="N1" s="63"/>
@@ -5931,7 +6048,7 @@
       <c r="Q1" s="63"/>
       <c r="R1" s="64"/>
       <c r="T1" s="62" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="U1" s="63"/>
       <c r="V1" s="63"/>
@@ -5941,7 +6058,7 @@
       <c r="Z1" s="63"/>
       <c r="AA1" s="64"/>
       <c r="AC1" s="47" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
@@ -5951,7 +6068,7 @@
       <c r="AI1" s="48"/>
       <c r="AJ1" s="49"/>
       <c r="AL1" s="62" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AM1" s="63"/>
       <c r="AN1" s="63"/>
@@ -5961,11 +6078,11 @@
       <c r="AR1" s="63"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="62" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AU1" s="64"/>
       <c r="AV1" s="62" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AW1" s="63"/>
       <c r="AX1" s="63"/>
@@ -6039,19 +6156,19 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="30" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>135</v>
@@ -6066,52 +6183,52 @@
         <v>8</v>
       </c>
       <c r="K3" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="P3" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="Q3" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="R3" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="T3" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="U3" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="V3" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="W3" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y3" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="Z3" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="AA3" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="W3" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y3" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>279</v>
       </c>
       <c r="AC3" s="32"/>
       <c r="AD3" s="32" t="s">
@@ -6124,19 +6241,19 @@
         <v>139</v>
       </c>
       <c r="AG3" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI3" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ3" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL3" s="32" t="s">
         <v>271</v>
-      </c>
-      <c r="AH3" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI3" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ3" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL3" s="32" t="s">
-        <v>275</v>
       </c>
       <c r="AM3" s="32" t="s">
         <v>135</v>
@@ -6148,22 +6265,22 @@
         <v>139</v>
       </c>
       <c r="AP3" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AQ3" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AR3" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AS3" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AT3" s="43" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AU3" s="44" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AV3" s="32" t="s">
         <v>135</v>
@@ -6175,10 +6292,10 @@
         <v>139</v>
       </c>
       <c r="AY3" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AZ3" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -6224,89 +6341,89 @@
         <v>0</v>
       </c>
       <c r="T4" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="X4" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="Y4" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="Z4" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="AA4" s="27" t="s">
         <v>285</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y4" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>289</v>
       </c>
       <c r="AC4" s="27"/>
       <c r="AD4" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AF4" s="27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AG4" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH4" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI4" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ4" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL4" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM4" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="AH4" s="27" t="s">
+      <c r="AN4" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AO4" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AJ4" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL4" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="AM4" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AN4" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO4" s="27" t="s">
-        <v>292</v>
-      </c>
       <c r="AP4" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ4" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR4" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS4" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV4" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="AQ4" s="27" t="s">
+      <c r="AW4" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="AR4" s="27" t="s">
+      <c r="AX4" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="AS4" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV4" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="AW4" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="AX4" s="27" t="s">
-        <v>292</v>
-      </c>
       <c r="AY4" s="27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AZ4" s="27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:52">
@@ -6390,7 +6507,7 @@
       <c r="Z5" s="28"/>
       <c r="AA5" s="28"/>
       <c r="AC5" s="41" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AD5" s="28">
         <v>10</v>
@@ -6539,7 +6656,7 @@
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
       <c r="AC6" s="41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AD6" s="28">
         <v>5</v>
@@ -6689,7 +6806,7 @@
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
       <c r="AC7" s="41" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AD7" s="28">
         <v>2</v>
@@ -7979,15 +8096,15 @@
       <c r="AN17" s="45">
         <v>248</v>
       </c>
-      <c r="AO17" s="28" t="e">
+      <c r="AO17" s="28">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>312.375</v>
       </c>
       <c r="AP17" s="45">
         <v>31</v>
       </c>
-      <c r="AQ17" s="45" t="s">
-        <v>331</v>
+      <c r="AQ17" s="45">
+        <v>15</v>
       </c>
       <c r="AR17" s="28">
         <v>40</v>
@@ -8229,7 +8346,7 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D20" s="81">
         <f t="shared" si="2"/>
@@ -9185,7 +9302,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B32" s="29">
         <v>1010</v>
@@ -10897,7 +11014,7 @@
         <v>1007</v>
       </c>
       <c r="C56" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D56" s="81" t="str">
         <f t="shared" si="2"/>
@@ -15494,17 +15611,17 @@
         <v>1009</v>
       </c>
       <c r="C125" s="77"/>
-      <c r="D125" s="81" t="str">
+      <c r="D125" s="81">
         <f t="shared" si="27"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="E125" s="81">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>201.49500000000003</v>
       </c>
       <c r="F125" s="81">
         <f t="shared" si="29"/>
-        <v>4459.2379219719614</v>
+        <v>4660.7329219719613</v>
       </c>
       <c r="G125" s="78">
         <f t="shared" si="39"/>
@@ -15570,7 +15687,7 @@
       </c>
       <c r="F126" s="81">
         <f t="shared" si="29"/>
-        <v>4459.2379219719614</v>
+        <v>4660.7329219719613</v>
       </c>
       <c r="G126" s="50">
         <f t="shared" si="39"/>
@@ -15636,7 +15753,7 @@
       </c>
       <c r="F127" s="81">
         <f t="shared" si="29"/>
-        <v>4459.2379219719614</v>
+        <v>4660.7329219719613</v>
       </c>
       <c r="G127" s="50">
         <f t="shared" si="39"/>
@@ -15702,7 +15819,7 @@
       </c>
       <c r="F128" s="81">
         <f t="shared" si="29"/>
-        <v>4459.2379219719614</v>
+        <v>4660.7329219719613</v>
       </c>
       <c r="G128" s="50">
         <f t="shared" si="39"/>
@@ -15768,7 +15885,7 @@
       </c>
       <c r="F129" s="81">
         <f t="shared" si="29"/>
-        <v>4459.2379219719614</v>
+        <v>4660.7329219719613</v>
       </c>
       <c r="G129" s="50">
         <f t="shared" si="39"/>
@@ -15835,7 +15952,7 @@
       </c>
       <c r="F130" s="81">
         <f t="shared" si="29"/>
-        <v>4459.2379219719614</v>
+        <v>4660.7329219719613</v>
       </c>
       <c r="G130" s="68">
         <f t="shared" si="39"/>
@@ -15901,7 +16018,7 @@
       </c>
       <c r="F131" s="81">
         <f t="shared" si="29"/>
-        <v>4459.2379219719614</v>
+        <v>4660.7329219719613</v>
       </c>
       <c r="G131" s="50">
         <f t="shared" si="39"/>
@@ -15968,7 +16085,7 @@
       </c>
       <c r="F132" s="81">
         <f t="shared" si="29"/>
-        <v>5536.137921971962</v>
+        <v>5737.632921971961</v>
       </c>
       <c r="G132" s="85">
         <f t="shared" si="39"/>
@@ -16033,10 +16150,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:P25"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A6:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16048,15 +16166,16 @@
     <col min="5" max="6" width="9.5" style="26" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="6.625" customWidth="1"/>
     <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="14" width="10.25" customWidth="1"/>
-    <col min="15" max="15" width="11.25" customWidth="1"/>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="13" max="16" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="18.625" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:16" s="3" customFormat="1">
+    <row r="6" spans="1:20" s="3" customFormat="1">
       <c r="A6" s="33" t="s">
         <v>166</v>
       </c>
@@ -16073,7 +16192,7 @@
         <v>170</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>171</v>
@@ -16094,19 +16213,31 @@
         <v>178</v>
       </c>
       <c r="M6" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="N6" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="P6" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1">
+        <v>247</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1">
       <c r="A7" s="34" t="s">
         <v>128</v>
       </c>
@@ -16123,40 +16254,52 @@
         <v>181</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>182</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="37">
         <v>1000</v>
       </c>
@@ -16174,42 +16317,51 @@
         <v>h1000.tga</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="29">
-        <v>30</v>
-      </c>
-      <c r="I8" s="29">
+      <c r="H8" s="28">
+        <f>Sheet2!AD5</f>
         <v>10</v>
       </c>
-      <c r="J8" s="29">
+      <c r="I8" s="28">
+        <f>Sheet2!AE5</f>
+        <v>10</v>
+      </c>
+      <c r="J8" s="28">
+        <f>Sheet2!AF5</f>
         <v>100</v>
       </c>
-      <c r="K8" s="29">
-        <v>20</v>
-      </c>
-      <c r="L8" s="29">
+      <c r="K8" s="28">
+        <f>Sheet2!AG5</f>
         <v>10</v>
       </c>
-      <c r="M8" s="29">
-        <v>200</v>
-      </c>
+      <c r="L8" s="28">
+        <f>Sheet2!AH5</f>
+        <v>5</v>
+      </c>
+      <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="29">
+        <v>200</v>
+      </c>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29">
         <v>0</v>
       </c>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="37">
         <v>2000</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D9" s="28">
         <v>2</v>
@@ -16235,23 +16387,29 @@
       <c r="L9" s="29">
         <v>1</v>
       </c>
-      <c r="M9" s="29">
-        <v>100</v>
-      </c>
+      <c r="M9" s="29"/>
       <c r="N9" s="29"/>
       <c r="O9" s="29">
+        <v>100</v>
+      </c>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29">
         <v>1</v>
       </c>
-      <c r="P9" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="R9" s="29">
+        <v>1000</v>
+      </c>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="37">
         <v>2001</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>147</v>
@@ -16280,28 +16438,32 @@
       <c r="L10" s="29">
         <v>1</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29">
         <v>100</v>
       </c>
-      <c r="N10" s="29">
+      <c r="P10" s="29">
         <v>1</v>
       </c>
-      <c r="O10" s="29">
+      <c r="Q10" s="29">
         <v>1</v>
       </c>
-      <c r="P10" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="37">
         <v>2002</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D11" s="28">
         <v>2</v>
@@ -16327,26 +16489,30 @@
       <c r="L11" s="29">
         <v>1</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29">
         <v>100</v>
       </c>
-      <c r="N11" s="29">
+      <c r="P11" s="29">
         <v>2</v>
       </c>
-      <c r="O11" s="29">
+      <c r="Q11" s="29">
         <v>1</v>
       </c>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="37">
         <v>3000</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="28">
         <v>3</v>
@@ -16358,36 +16524,51 @@
       <c r="F12" s="28"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29">
-        <v>12</v>
+        <f>Sheet2!AM5</f>
+        <v>15</v>
       </c>
       <c r="I12" s="29">
+        <f>Sheet2!AN5</f>
         <v>5</v>
       </c>
       <c r="J12" s="29">
+        <f>Sheet2!AO5</f>
+        <v>29.75</v>
+      </c>
+      <c r="K12" s="29">
+        <f>Sheet2!AP5</f>
+        <v>10</v>
+      </c>
+      <c r="L12" s="29">
+        <f>Sheet2!AQ5</f>
+        <v>3</v>
+      </c>
+      <c r="M12" s="29">
+        <f>Sheet2!AR5</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="29">
+        <f>Sheet2!AS5</f>
+        <v>5</v>
+      </c>
+      <c r="O12" s="29">
         <v>100</v>
       </c>
-      <c r="K12" s="29">
-        <v>11</v>
-      </c>
-      <c r="L12" s="29">
-        <v>10</v>
-      </c>
-      <c r="M12" s="29">
-        <v>100</v>
-      </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
       <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="37">
         <v>3001</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D13" s="28">
         <v>3</v>
@@ -16399,36 +16580,51 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29">
-        <v>16</v>
+        <f>Sheet2!AM6</f>
+        <v>17</v>
       </c>
       <c r="I13" s="29">
+        <f>Sheet2!AN6</f>
+        <v>7</v>
+      </c>
+      <c r="J13" s="29">
+        <f>Sheet2!AO6</f>
+        <v>24.99</v>
+      </c>
+      <c r="K13" s="29">
+        <f>Sheet2!AP6</f>
         <v>10</v>
       </c>
-      <c r="J13" s="29">
+      <c r="L13" s="29">
+        <f>Sheet2!AQ6</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="29">
+        <f>Sheet2!AR6</f>
+        <v>2</v>
+      </c>
+      <c r="N13" s="29">
+        <f>Sheet2!AS6</f>
+        <v>10</v>
+      </c>
+      <c r="O13" s="29">
         <v>100</v>
       </c>
-      <c r="K13" s="29">
-        <v>12</v>
-      </c>
-      <c r="L13" s="29">
-        <v>15</v>
-      </c>
-      <c r="M13" s="29">
-        <v>100</v>
-      </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
       <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="37">
         <v>3002</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
@@ -16440,36 +16636,51 @@
       <c r="F14" s="28"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29">
-        <v>25</v>
+        <f>Sheet2!AM7</f>
+        <v>24</v>
       </c>
       <c r="I14" s="29">
+        <f>Sheet2!AN7</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="29">
+        <f>Sheet2!AO7</f>
+        <v>47.6</v>
+      </c>
+      <c r="K14" s="29">
+        <f>Sheet2!AP7</f>
+        <v>10</v>
+      </c>
+      <c r="L14" s="29">
+        <f>Sheet2!AQ7</f>
+        <v>3</v>
+      </c>
+      <c r="M14" s="29">
+        <f>Sheet2!AR7</f>
+        <v>3</v>
+      </c>
+      <c r="N14" s="29">
+        <f>Sheet2!AS7</f>
         <v>15</v>
       </c>
-      <c r="J14" s="29">
-        <v>120</v>
-      </c>
-      <c r="K14" s="29">
-        <v>13</v>
-      </c>
-      <c r="L14" s="29">
-        <v>20</v>
-      </c>
-      <c r="M14" s="29">
+      <c r="O14" s="29">
         <v>100</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
       <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="37">
         <v>3003</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -16481,36 +16692,51 @@
       <c r="F15" s="28"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29">
-        <v>32</v>
+        <f>Sheet2!AM8</f>
+        <v>30</v>
       </c>
       <c r="I15" s="29">
+        <f>Sheet2!AN8</f>
+        <v>15</v>
+      </c>
+      <c r="J15" s="29">
+        <f>Sheet2!AO8</f>
+        <v>21.42</v>
+      </c>
+      <c r="K15" s="29">
+        <f>Sheet2!AP8</f>
+        <v>10</v>
+      </c>
+      <c r="L15" s="29">
+        <f>Sheet2!AQ8</f>
+        <v>3</v>
+      </c>
+      <c r="M15" s="29">
+        <f>Sheet2!AR8</f>
+        <v>5</v>
+      </c>
+      <c r="N15" s="29">
+        <f>Sheet2!AS8</f>
         <v>20</v>
       </c>
-      <c r="J15" s="29">
-        <v>120</v>
-      </c>
-      <c r="K15" s="29">
-        <v>14</v>
-      </c>
-      <c r="L15" s="29">
-        <v>25</v>
-      </c>
-      <c r="M15" s="29">
+      <c r="O15" s="29">
         <v>100</v>
       </c>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
       <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="37">
         <v>3004</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
@@ -16522,36 +16748,51 @@
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29">
-        <v>45</v>
+        <f>Sheet2!AM9</f>
+        <v>40</v>
       </c>
       <c r="I16" s="29">
+        <f>Sheet2!AN9</f>
+        <v>17</v>
+      </c>
+      <c r="J16" s="29">
+        <f>Sheet2!AO9</f>
+        <v>47.6</v>
+      </c>
+      <c r="K16" s="29">
+        <f>Sheet2!AP9</f>
+        <v>10</v>
+      </c>
+      <c r="L16" s="29">
+        <f>Sheet2!AQ9</f>
+        <v>3</v>
+      </c>
+      <c r="M16" s="29">
+        <f>Sheet2!AR9</f>
+        <v>7</v>
+      </c>
+      <c r="N16" s="29">
+        <f>Sheet2!AS9</f>
         <v>25</v>
       </c>
-      <c r="J16" s="29">
-        <v>150</v>
-      </c>
-      <c r="K16" s="29">
-        <v>15</v>
-      </c>
-      <c r="L16" s="29">
-        <v>30</v>
-      </c>
-      <c r="M16" s="29">
+      <c r="O16" s="29">
         <v>100</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
       <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="37">
         <v>3005</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
@@ -16563,36 +16804,51 @@
       <c r="F17" s="28"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29">
-        <v>63</v>
+        <f>Sheet2!AM10</f>
+        <v>60</v>
       </c>
       <c r="I17" s="29">
+        <f>Sheet2!AN10</f>
+        <v>25</v>
+      </c>
+      <c r="J17" s="29">
+        <f>Sheet2!AO10</f>
+        <v>39.270000000000003</v>
+      </c>
+      <c r="K17" s="29">
+        <f>Sheet2!AP10</f>
+        <v>10</v>
+      </c>
+      <c r="L17" s="29">
+        <f>Sheet2!AQ10</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="29">
+        <f>Sheet2!AR10</f>
+        <v>9</v>
+      </c>
+      <c r="N17" s="29">
+        <f>Sheet2!AS10</f>
         <v>30</v>
       </c>
-      <c r="J17" s="29">
-        <v>150</v>
-      </c>
-      <c r="K17" s="29">
-        <v>16</v>
-      </c>
-      <c r="L17" s="29">
-        <v>35</v>
-      </c>
-      <c r="M17" s="29">
+      <c r="O17" s="29">
         <v>100</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
       <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="37">
         <v>3006</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
@@ -16604,36 +16860,51 @@
       <c r="F18" s="28"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29">
-        <v>85</v>
+        <f>Sheet2!AM11</f>
+        <v>80</v>
       </c>
       <c r="I18" s="29">
+        <f>Sheet2!AN11</f>
+        <v>47</v>
+      </c>
+      <c r="J18" s="29">
+        <f>Sheet2!AO11</f>
+        <v>43.56</v>
+      </c>
+      <c r="K18" s="29">
+        <f>Sheet2!AP11</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="29">
+        <f>Sheet2!AQ11</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="29">
+        <f>Sheet2!AR11</f>
+        <v>12</v>
+      </c>
+      <c r="N18" s="29">
+        <f>Sheet2!AS11</f>
         <v>35</v>
       </c>
-      <c r="J18" s="29">
-        <v>200</v>
-      </c>
-      <c r="K18" s="29">
-        <v>17</v>
-      </c>
-      <c r="L18" s="29">
-        <v>40</v>
-      </c>
-      <c r="M18" s="29">
+      <c r="O18" s="29">
         <v>100</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
       <c r="P18" s="29"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="37">
         <v>3007</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
@@ -16645,36 +16916,51 @@
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29">
+        <f>Sheet2!AM12</f>
         <v>110</v>
       </c>
       <c r="I19" s="29">
+        <f>Sheet2!AN12</f>
+        <v>68</v>
+      </c>
+      <c r="J19" s="29">
+        <f>Sheet2!AO12</f>
+        <v>73.5</v>
+      </c>
+      <c r="K19" s="29">
+        <f>Sheet2!AP12</f>
+        <v>16</v>
+      </c>
+      <c r="L19" s="29">
+        <f>Sheet2!AQ12</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="29">
+        <f>Sheet2!AR12</f>
+        <v>15</v>
+      </c>
+      <c r="N19" s="29">
+        <f>Sheet2!AS12</f>
         <v>40</v>
       </c>
-      <c r="J19" s="29">
-        <v>200</v>
-      </c>
-      <c r="K19" s="29">
-        <v>18</v>
-      </c>
-      <c r="L19" s="29">
-        <v>45</v>
-      </c>
-      <c r="M19" s="29">
+      <c r="O19" s="29">
         <v>100</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
       <c r="P19" s="29"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="37">
         <v>3008</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" s="28">
         <v>3</v>
@@ -16686,36 +16972,51 @@
       <c r="F20" s="28"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29">
-        <v>135</v>
+        <f>Sheet2!AM13</f>
+        <v>131</v>
       </c>
       <c r="I20" s="29">
+        <f>Sheet2!AN13</f>
+        <v>79</v>
+      </c>
+      <c r="J20" s="29">
+        <f>Sheet2!AO13</f>
+        <v>103.32</v>
+      </c>
+      <c r="K20" s="29">
+        <f>Sheet2!AP13</f>
+        <v>19</v>
+      </c>
+      <c r="L20" s="29">
+        <f>Sheet2!AQ13</f>
+        <v>10</v>
+      </c>
+      <c r="M20" s="29">
+        <f>Sheet2!AR13</f>
+        <v>20</v>
+      </c>
+      <c r="N20" s="29">
+        <f>Sheet2!AS13</f>
         <v>45</v>
       </c>
-      <c r="J20" s="29">
-        <v>250</v>
-      </c>
-      <c r="K20" s="29">
-        <v>19</v>
-      </c>
-      <c r="L20" s="29">
-        <v>50</v>
-      </c>
-      <c r="M20" s="29">
+      <c r="O20" s="29">
         <v>100</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
       <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="37">
         <v>3009</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" s="28">
         <v>3</v>
@@ -16727,36 +17028,51 @@
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29">
-        <v>170</v>
+        <f>Sheet2!AM14</f>
+        <v>142</v>
       </c>
       <c r="I21" s="29">
+        <f>Sheet2!AN14</f>
+        <v>112</v>
+      </c>
+      <c r="J21" s="29">
+        <f>Sheet2!AO14</f>
+        <v>101.15</v>
+      </c>
+      <c r="K21" s="29">
+        <f>Sheet2!AP14</f>
+        <v>22</v>
+      </c>
+      <c r="L21" s="29">
+        <f>Sheet2!AQ14</f>
+        <v>10</v>
+      </c>
+      <c r="M21" s="29">
+        <f>Sheet2!AR14</f>
+        <v>25</v>
+      </c>
+      <c r="N21" s="29">
+        <f>Sheet2!AS14</f>
         <v>50</v>
       </c>
-      <c r="J21" s="29">
-        <v>250</v>
-      </c>
-      <c r="K21" s="29">
-        <v>20</v>
-      </c>
-      <c r="L21" s="29">
-        <v>55</v>
-      </c>
-      <c r="M21" s="29">
+      <c r="O21" s="29">
         <v>100</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
       <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="37">
         <v>3010</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D22" s="28">
         <v>3</v>
@@ -16768,36 +17084,51 @@
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29">
-        <v>200</v>
+        <f>Sheet2!AM15</f>
+        <v>187</v>
       </c>
       <c r="I22" s="29">
-        <v>55</v>
+        <f>Sheet2!AN15</f>
+        <v>146</v>
       </c>
       <c r="J22" s="29">
-        <v>300</v>
+        <f>Sheet2!AO15</f>
+        <v>124.74</v>
       </c>
       <c r="K22" s="29">
-        <v>21</v>
+        <f>Sheet2!AP15</f>
+        <v>25</v>
       </c>
       <c r="L22" s="29">
+        <f>Sheet2!AQ15</f>
+        <v>15</v>
+      </c>
+      <c r="M22" s="29">
+        <f>Sheet2!AR15</f>
+        <v>30</v>
+      </c>
+      <c r="N22" s="29">
+        <f>Sheet2!AS15</f>
         <v>60</v>
       </c>
-      <c r="M22" s="29">
+      <c r="O22" s="29">
         <v>100</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
       <c r="P22" s="29"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="37">
         <v>3011</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" s="28">
         <v>3</v>
@@ -16809,36 +17140,51 @@
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29">
-        <v>250</v>
+        <f>Sheet2!AM16</f>
+        <v>252</v>
       </c>
       <c r="I23" s="29">
-        <v>60</v>
+        <f>Sheet2!AN16</f>
+        <v>226</v>
       </c>
       <c r="J23" s="29">
-        <v>400</v>
+        <f>Sheet2!AO16</f>
+        <v>257.95</v>
       </c>
       <c r="K23" s="29">
-        <v>22</v>
+        <f>Sheet2!AP16</f>
+        <v>28</v>
       </c>
       <c r="L23" s="29">
-        <v>65</v>
+        <f>Sheet2!AQ16</f>
+        <v>15</v>
       </c>
       <c r="M23" s="29">
+        <f>Sheet2!AR16</f>
+        <v>35</v>
+      </c>
+      <c r="N23" s="29">
+        <f>Sheet2!AS16</f>
+        <v>70</v>
+      </c>
+      <c r="O23" s="29">
         <v>100</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
       <c r="P23" s="29"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="37">
         <v>3012</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" s="28">
         <v>3</v>
@@ -16850,38 +17196,53 @@
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29">
-        <v>300</v>
+        <f>Sheet2!AM17</f>
+        <v>261</v>
       </c>
       <c r="I24" s="29">
-        <v>65</v>
+        <f>Sheet2!AN17</f>
+        <v>248</v>
       </c>
       <c r="J24" s="29">
-        <v>500</v>
+        <f>Sheet2!AO17</f>
+        <v>312.375</v>
       </c>
       <c r="K24" s="29">
-        <v>23</v>
+        <f>Sheet2!AP17</f>
+        <v>31</v>
       </c>
       <c r="L24" s="29">
-        <v>70</v>
+        <f>Sheet2!AQ17</f>
+        <v>15</v>
       </c>
       <c r="M24" s="29">
+        <f>Sheet2!AR17</f>
+        <v>40</v>
+      </c>
+      <c r="N24" s="29">
+        <f>Sheet2!AS17</f>
+        <v>80</v>
+      </c>
+      <c r="O24" s="29">
         <v>100</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29">
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29">
         <v>0</v>
       </c>
-      <c r="P24" s="29"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="37">
         <v>3013</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="28">
         <v>3</v>
@@ -16893,29 +17254,44 @@
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29">
-        <v>300</v>
+        <f>Sheet2!AM18</f>
+        <v>305</v>
       </c>
       <c r="I25" s="29">
-        <v>65</v>
+        <f>Sheet2!AN18</f>
+        <v>260</v>
       </c>
       <c r="J25" s="29">
-        <v>500</v>
+        <f>Sheet2!AO18</f>
+        <v>805.5</v>
       </c>
       <c r="K25" s="29">
-        <v>23</v>
+        <f>Sheet2!AP18</f>
+        <v>34</v>
       </c>
       <c r="L25" s="29">
-        <v>70</v>
+        <f>Sheet2!AQ18</f>
+        <v>15</v>
       </c>
       <c r="M25" s="29">
+        <f>Sheet2!AR18</f>
+        <v>50</v>
+      </c>
+      <c r="N25" s="29">
+        <f>Sheet2!AS18</f>
         <v>100</v>
       </c>
-      <c r="N25" s="29"/>
       <c r="O25" s="29">
+        <v>100</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29">
         <v>0</v>
       </c>
-      <c r="P25" s="29" t="s">
-        <v>248</v>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -16928,10 +17304,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A4:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16947,7 +17324,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>153</v>
@@ -16982,13 +17359,13 @@
         <v>122</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>160</v>
@@ -17003,7 +17380,7 @@
         <v>184</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>163</v>
@@ -17017,7 +17394,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="28" t="str">
         <f t="shared" ref="D6:D25" si="0">A6&amp;".tga"</f>
@@ -17026,14 +17403,30 @@
       <c r="E6" s="28">
         <v>2</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="str">
+        <f>IF(Sheet2!U5=0,"",Sheet2!U5)</f>
+        <v/>
+      </c>
       <c r="G6" s="28">
+        <f>IF(Sheet2!V5=0,"",Sheet2!V5)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="H6" s="28" t="str">
+        <f>IF(Sheet2!W5=0,"",Sheet2!W5)</f>
+        <v/>
+      </c>
+      <c r="I6" s="28" t="str">
+        <f>IF(Sheet2!X5=0,"",Sheet2!X5)</f>
+        <v/>
+      </c>
+      <c r="J6" s="28" t="str">
+        <f>IF(Sheet2!Y5=0,"",Sheet2!Y5)</f>
+        <v/>
+      </c>
+      <c r="K6" s="28" t="str">
+        <f>IF(Sheet2!Z5=0,"",Sheet2!Z5)</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="28">
@@ -17043,7 +17436,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D7" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17052,14 +17445,30 @@
       <c r="E7" s="28">
         <v>2</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28" t="str">
+        <f>IF(Sheet2!U6=0,"",Sheet2!U6)</f>
+        <v/>
+      </c>
       <c r="G7" s="28">
+        <f>IF(Sheet2!V6=0,"",Sheet2!V6)</f>
         <v>10</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="H7" s="28" t="str">
+        <f>IF(Sheet2!W6=0,"",Sheet2!W6)</f>
+        <v/>
+      </c>
+      <c r="I7" s="28" t="str">
+        <f>IF(Sheet2!X6=0,"",Sheet2!X6)</f>
+        <v/>
+      </c>
+      <c r="J7" s="28" t="str">
+        <f>IF(Sheet2!Y6=0,"",Sheet2!Y6)</f>
+        <v/>
+      </c>
+      <c r="K7" s="28" t="str">
+        <f>IF(Sheet2!Z6=0,"",Sheet2!Z6)</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="28">
@@ -17069,7 +17478,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D8" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17078,14 +17487,30 @@
       <c r="E8" s="28">
         <v>2</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28" t="str">
+        <f>IF(Sheet2!U7=0,"",Sheet2!U7)</f>
+        <v/>
+      </c>
       <c r="G8" s="28">
+        <f>IF(Sheet2!V7=0,"",Sheet2!V7)</f>
         <v>15</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="28" t="str">
+        <f>IF(Sheet2!W7=0,"",Sheet2!W7)</f>
+        <v/>
+      </c>
+      <c r="I8" s="28" t="str">
+        <f>IF(Sheet2!X7=0,"",Sheet2!X7)</f>
+        <v/>
+      </c>
+      <c r="J8" s="28" t="str">
+        <f>IF(Sheet2!Y7=0,"",Sheet2!Y7)</f>
+        <v/>
+      </c>
+      <c r="K8" s="28" t="str">
+        <f>IF(Sheet2!Z7=0,"",Sheet2!Z7)</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="28">
@@ -17095,7 +17520,7 @@
         <v>136</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17105,13 +17530,29 @@
         <v>1</v>
       </c>
       <c r="F9" s="28">
+        <f>IF(Sheet2!U8=0,"",Sheet2!U8)</f>
         <v>5</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="G9" s="28" t="str">
+        <f>IF(Sheet2!V8=0,"",Sheet2!V8)</f>
+        <v/>
+      </c>
+      <c r="H9" s="28" t="str">
+        <f>IF(Sheet2!W8=0,"",Sheet2!W8)</f>
+        <v/>
+      </c>
+      <c r="I9" s="28" t="str">
+        <f>IF(Sheet2!X8=0,"",Sheet2!X8)</f>
+        <v/>
+      </c>
+      <c r="J9" s="28" t="str">
+        <f>IF(Sheet2!Y8=0,"",Sheet2!Y8)</f>
+        <v/>
+      </c>
+      <c r="K9" s="28" t="str">
+        <f>IF(Sheet2!Z8=0,"",Sheet2!Z8)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="28">
@@ -17121,7 +17562,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17131,13 +17572,29 @@
         <v>1</v>
       </c>
       <c r="F10" s="28">
+        <f>IF(Sheet2!U9=0,"",Sheet2!U9)</f>
         <v>10</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="G10" s="28" t="str">
+        <f>IF(Sheet2!V9=0,"",Sheet2!V9)</f>
+        <v/>
+      </c>
+      <c r="H10" s="28" t="str">
+        <f>IF(Sheet2!W9=0,"",Sheet2!W9)</f>
+        <v/>
+      </c>
+      <c r="I10" s="28" t="str">
+        <f>IF(Sheet2!X9=0,"",Sheet2!X9)</f>
+        <v/>
+      </c>
+      <c r="J10" s="28" t="str">
+        <f>IF(Sheet2!Y9=0,"",Sheet2!Y9)</f>
+        <v/>
+      </c>
+      <c r="K10" s="28" t="str">
+        <f>IF(Sheet2!Z9=0,"",Sheet2!Z9)</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="28">
@@ -17147,7 +17604,7 @@
         <v>138</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D11" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17157,13 +17614,29 @@
         <v>1</v>
       </c>
       <c r="F11" s="28">
+        <f>IF(Sheet2!U10=0,"",Sheet2!U10)</f>
         <v>15</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="G11" s="28" t="str">
+        <f>IF(Sheet2!V10=0,"",Sheet2!V10)</f>
+        <v/>
+      </c>
+      <c r="H11" s="28" t="str">
+        <f>IF(Sheet2!W10=0,"",Sheet2!W10)</f>
+        <v/>
+      </c>
+      <c r="I11" s="28" t="str">
+        <f>IF(Sheet2!X10=0,"",Sheet2!X10)</f>
+        <v/>
+      </c>
+      <c r="J11" s="28" t="str">
+        <f>IF(Sheet2!Y10=0,"",Sheet2!Y10)</f>
+        <v/>
+      </c>
+      <c r="K11" s="28" t="str">
+        <f>IF(Sheet2!Z10=0,"",Sheet2!Z10)</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="28">
@@ -17173,7 +17646,7 @@
         <v>140</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D12" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17182,14 +17655,30 @@
       <c r="E12" s="28">
         <v>3</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="28" t="str">
+        <f>IF(Sheet2!U11=0,"",Sheet2!U11)</f>
+        <v/>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f>IF(Sheet2!V11=0,"",Sheet2!V11)</f>
+        <v/>
+      </c>
       <c r="H12" s="28">
+        <f>IF(Sheet2!W11=0,"",Sheet2!W11)</f>
         <v>50</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="28" t="str">
+        <f>IF(Sheet2!X11=0,"",Sheet2!X11)</f>
+        <v/>
+      </c>
+      <c r="J12" s="28" t="str">
+        <f>IF(Sheet2!Y11=0,"",Sheet2!Y11)</f>
+        <v/>
+      </c>
+      <c r="K12" s="28" t="str">
+        <f>IF(Sheet2!Z11=0,"",Sheet2!Z11)</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="28">
@@ -17199,7 +17688,7 @@
         <v>141</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D13" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17208,14 +17697,30 @@
       <c r="E13" s="28">
         <v>3</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="28" t="str">
+        <f>IF(Sheet2!U12=0,"",Sheet2!U12)</f>
+        <v/>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f>IF(Sheet2!V12=0,"",Sheet2!V12)</f>
+        <v/>
+      </c>
       <c r="H13" s="28">
+        <f>IF(Sheet2!W12=0,"",Sheet2!W12)</f>
         <v>100</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
+      <c r="I13" s="28" t="str">
+        <f>IF(Sheet2!X12=0,"",Sheet2!X12)</f>
+        <v/>
+      </c>
+      <c r="J13" s="28" t="str">
+        <f>IF(Sheet2!Y12=0,"",Sheet2!Y12)</f>
+        <v/>
+      </c>
+      <c r="K13" s="28" t="str">
+        <f>IF(Sheet2!Z12=0,"",Sheet2!Z12)</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="28">
@@ -17225,7 +17730,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D14" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17234,14 +17739,30 @@
       <c r="E14" s="28">
         <v>3</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="28" t="str">
+        <f>IF(Sheet2!U13=0,"",Sheet2!U13)</f>
+        <v/>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f>IF(Sheet2!V13=0,"",Sheet2!V13)</f>
+        <v/>
+      </c>
       <c r="H14" s="28">
+        <f>IF(Sheet2!W13=0,"",Sheet2!W13)</f>
         <v>200</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="I14" s="28" t="str">
+        <f>IF(Sheet2!X13=0,"",Sheet2!X13)</f>
+        <v/>
+      </c>
+      <c r="J14" s="28" t="str">
+        <f>IF(Sheet2!Y13=0,"",Sheet2!Y13)</f>
+        <v/>
+      </c>
+      <c r="K14" s="28" t="str">
+        <f>IF(Sheet2!Z13=0,"",Sheet2!Z13)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="28">
@@ -17251,7 +17772,7 @@
         <v>143</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17260,13 +17781,29 @@
       <c r="E15" s="28">
         <v>6</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="F15" s="28" t="str">
+        <f>IF(Sheet2!U14=0,"",Sheet2!U14)</f>
+        <v/>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f>IF(Sheet2!V14=0,"",Sheet2!V14)</f>
+        <v/>
+      </c>
+      <c r="H15" s="28" t="str">
+        <f>IF(Sheet2!W14=0,"",Sheet2!W14)</f>
+        <v/>
+      </c>
+      <c r="I15" s="28" t="str">
+        <f>IF(Sheet2!X14=0,"",Sheet2!X14)</f>
+        <v/>
+      </c>
+      <c r="J15" s="28" t="str">
+        <f>IF(Sheet2!Y14=0,"",Sheet2!Y14)</f>
+        <v/>
+      </c>
       <c r="K15" s="28">
-        <v>50</v>
+        <f>IF(Sheet2!Z14=0,"",Sheet2!Z14)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -17277,7 +17814,7 @@
         <v>144</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D16" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17286,13 +17823,29 @@
       <c r="E16" s="28">
         <v>6</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="F16" s="28" t="str">
+        <f>IF(Sheet2!U15=0,"",Sheet2!U15)</f>
+        <v/>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f>IF(Sheet2!V15=0,"",Sheet2!V15)</f>
+        <v/>
+      </c>
+      <c r="H16" s="28" t="str">
+        <f>IF(Sheet2!W15=0,"",Sheet2!W15)</f>
+        <v/>
+      </c>
+      <c r="I16" s="28" t="str">
+        <f>IF(Sheet2!X15=0,"",Sheet2!X15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="28" t="str">
+        <f>IF(Sheet2!Y15=0,"",Sheet2!Y15)</f>
+        <v/>
+      </c>
       <c r="K16" s="28">
-        <v>100</v>
+        <f>IF(Sheet2!Z15=0,"",Sheet2!Z15)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -17303,7 +17856,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D17" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17312,13 +17865,29 @@
       <c r="E17" s="28">
         <v>6</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="F17" s="28" t="str">
+        <f>IF(Sheet2!U16=0,"",Sheet2!U16)</f>
+        <v/>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f>IF(Sheet2!V16=0,"",Sheet2!V16)</f>
+        <v/>
+      </c>
+      <c r="H17" s="28" t="str">
+        <f>IF(Sheet2!W16=0,"",Sheet2!W16)</f>
+        <v/>
+      </c>
+      <c r="I17" s="28" t="str">
+        <f>IF(Sheet2!X16=0,"",Sheet2!X16)</f>
+        <v/>
+      </c>
+      <c r="J17" s="28" t="str">
+        <f>IF(Sheet2!Y16=0,"",Sheet2!Y16)</f>
+        <v/>
+      </c>
       <c r="K17" s="28">
-        <v>200</v>
+        <f>IF(Sheet2!Z16=0,"",Sheet2!Z16)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -17329,7 +17898,7 @@
         <v>158</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D18" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17338,13 +17907,29 @@
       <c r="E18" s="28">
         <v>6</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="F18" s="28" t="str">
+        <f>IF(Sheet2!U17=0,"",Sheet2!U17)</f>
+        <v/>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f>IF(Sheet2!V17=0,"",Sheet2!V17)</f>
+        <v/>
+      </c>
+      <c r="H18" s="28" t="str">
+        <f>IF(Sheet2!W17=0,"",Sheet2!W17)</f>
+        <v/>
+      </c>
+      <c r="I18" s="28" t="str">
+        <f>IF(Sheet2!X17=0,"",Sheet2!X17)</f>
+        <v/>
+      </c>
+      <c r="J18" s="28" t="str">
+        <f>IF(Sheet2!Y17=0,"",Sheet2!Y17)</f>
+        <v/>
+      </c>
       <c r="K18" s="28">
-        <v>300</v>
+        <f>IF(Sheet2!Z17=0,"",Sheet2!Z17)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -17355,7 +17940,7 @@
         <v>159</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D19" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17364,13 +17949,29 @@
       <c r="E19" s="28">
         <v>6</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="F19" s="28" t="str">
+        <f>IF(Sheet2!U18=0,"",Sheet2!U18)</f>
+        <v/>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f>IF(Sheet2!V18=0,"",Sheet2!V18)</f>
+        <v/>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f>IF(Sheet2!W18=0,"",Sheet2!W18)</f>
+        <v/>
+      </c>
+      <c r="I19" s="28" t="str">
+        <f>IF(Sheet2!X18=0,"",Sheet2!X18)</f>
+        <v/>
+      </c>
+      <c r="J19" s="28" t="str">
+        <f>IF(Sheet2!Y18=0,"",Sheet2!Y18)</f>
+        <v/>
+      </c>
       <c r="K19" s="28">
-        <v>500</v>
+        <f>IF(Sheet2!Z18=0,"",Sheet2!Z18)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -17378,10 +17979,10 @@
         <v>1014</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17390,24 +17991,40 @@
       <c r="E20" s="28">
         <v>4</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="28" t="str">
+        <f>IF(Sheet2!U19=0,"",Sheet2!U19)</f>
+        <v/>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f>IF(Sheet2!V19=0,"",Sheet2!V19)</f>
+        <v/>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f>IF(Sheet2!W19=0,"",Sheet2!W19)</f>
+        <v/>
+      </c>
       <c r="I20" s="28">
+        <f>IF(Sheet2!X19=0,"",Sheet2!X19)</f>
         <v>2</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="28" t="str">
+        <f>IF(Sheet2!Y19=0,"",Sheet2!Y19)</f>
+        <v/>
+      </c>
+      <c r="K20" s="28" t="str">
+        <f>IF(Sheet2!Z19=0,"",Sheet2!Z19)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28">
         <v>1015</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17416,24 +18033,40 @@
       <c r="E21" s="28">
         <v>4</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="F21" s="28" t="str">
+        <f>IF(Sheet2!U20=0,"",Sheet2!U20)</f>
+        <v/>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f>IF(Sheet2!V20=0,"",Sheet2!V20)</f>
+        <v/>
+      </c>
+      <c r="H21" s="28" t="str">
+        <f>IF(Sheet2!W20=0,"",Sheet2!W20)</f>
+        <v/>
+      </c>
       <c r="I21" s="28">
+        <f>IF(Sheet2!X20=0,"",Sheet2!X20)</f>
         <v>4</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="28" t="str">
+        <f>IF(Sheet2!Y20=0,"",Sheet2!Y20)</f>
+        <v/>
+      </c>
+      <c r="K21" s="28" t="str">
+        <f>IF(Sheet2!Z20=0,"",Sheet2!Z20)</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="28">
         <v>1016</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D22" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17442,24 +18075,40 @@
       <c r="E22" s="28">
         <v>4</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="F22" s="28" t="str">
+        <f>IF(Sheet2!U21=0,"",Sheet2!U21)</f>
+        <v/>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f>IF(Sheet2!V21=0,"",Sheet2!V21)</f>
+        <v/>
+      </c>
+      <c r="H22" s="28" t="str">
+        <f>IF(Sheet2!W21=0,"",Sheet2!W21)</f>
+        <v/>
+      </c>
       <c r="I22" s="28">
+        <f>IF(Sheet2!X21=0,"",Sheet2!X21)</f>
         <v>6</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="28" t="str">
+        <f>IF(Sheet2!Y21=0,"",Sheet2!Y21)</f>
+        <v/>
+      </c>
+      <c r="K22" s="28" t="str">
+        <f>IF(Sheet2!Z21=0,"",Sheet2!Z21)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="28">
         <v>1017</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D23" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17468,24 +18117,40 @@
       <c r="E23" s="28">
         <v>5</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="F23" s="28" t="str">
+        <f>IF(Sheet2!U22=0,"",Sheet2!U22)</f>
+        <v/>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f>IF(Sheet2!V22=0,"",Sheet2!V22)</f>
+        <v/>
+      </c>
+      <c r="H23" s="28" t="str">
+        <f>IF(Sheet2!W22=0,"",Sheet2!W22)</f>
+        <v/>
+      </c>
+      <c r="I23" s="28" t="str">
+        <f>IF(Sheet2!X22=0,"",Sheet2!X22)</f>
+        <v/>
+      </c>
       <c r="J23" s="28">
+        <f>IF(Sheet2!Y22=0,"",Sheet2!Y22)</f>
         <v>2</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="28" t="str">
+        <f>IF(Sheet2!Z22=0,"",Sheet2!Z22)</f>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="28">
         <v>1018</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17494,24 +18159,40 @@
       <c r="E24" s="28">
         <v>5</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="F24" s="28" t="str">
+        <f>IF(Sheet2!U23=0,"",Sheet2!U23)</f>
+        <v/>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f>IF(Sheet2!V23=0,"",Sheet2!V23)</f>
+        <v/>
+      </c>
+      <c r="H24" s="28" t="str">
+        <f>IF(Sheet2!W23=0,"",Sheet2!W23)</f>
+        <v/>
+      </c>
+      <c r="I24" s="28" t="str">
+        <f>IF(Sheet2!X23=0,"",Sheet2!X23)</f>
+        <v/>
+      </c>
       <c r="J24" s="28">
+        <f>IF(Sheet2!Y23=0,"",Sheet2!Y23)</f>
         <v>4</v>
       </c>
-      <c r="K24" s="28"/>
+      <c r="K24" s="28" t="str">
+        <f>IF(Sheet2!Z23=0,"",Sheet2!Z23)</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="28">
         <v>1019</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D25" s="28" t="str">
         <f t="shared" si="0"/>
@@ -17520,14 +18201,30 @@
       <c r="E25" s="28">
         <v>5</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="F25" s="28" t="str">
+        <f>IF(Sheet2!U24=0,"",Sheet2!U24)</f>
+        <v/>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f>IF(Sheet2!V24=0,"",Sheet2!V24)</f>
+        <v/>
+      </c>
+      <c r="H25" s="28" t="str">
+        <f>IF(Sheet2!W24=0,"",Sheet2!W24)</f>
+        <v/>
+      </c>
+      <c r="I25" s="28" t="str">
+        <f>IF(Sheet2!X24=0,"",Sheet2!X24)</f>
+        <v/>
+      </c>
       <c r="J25" s="28">
+        <f>IF(Sheet2!Y24=0,"",Sheet2!Y24)</f>
         <v>6</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="28" t="str">
+        <f>IF(Sheet2!Z24=0,"",Sheet2!Z24)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17539,6 +18236,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A6:D85"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17555,30 +18253,30 @@
   <sheetData>
     <row r="6" spans="1:4">
       <c r="A6" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>197</v>
-      </c>
       <c r="D6" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>200</v>
-      </c>
       <c r="D7" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -18761,10 +19459,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18773,22 +19472,20 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>262</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -18798,24 +19495,21 @@
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>263</v>
-      </c>
+      <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -18825,24 +19519,22 @@
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="29">
-        <v>30</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>332</v>
-      </c>
+      <c r="D3" s="29" t="str">
+        <f>"花费金币买属性，世间难得的好事儿，走过路过不#r要错过哟！#r随便挑随便选，每样只要"&amp;goods!H8&amp;"金币！（ESC键离开）"</f>
+        <v>花费金币买属性，世间难得的好事儿，走过路过不#r要错过哟！#r随便挑随便选，每样只要50金币！（ESC键离开）</v>
+      </c>
+      <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -18852,24 +19544,22 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="29">
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" s="29">
         <v>2</v>
       </c>
-      <c r="D4" s="29">
-        <v>100</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>333</v>
-      </c>
+      <c r="D4" s="29" t="str">
+        <f>"这位少年，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费"&amp;goods!H11&amp;"点经验值，ESC键离开)"</f>
+        <v>这位少年，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费200点经验值，ESC键离开)</v>
+      </c>
+      <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -18879,7 +19569,6 @@
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -245,8 +245,70 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+100:包裹内有道具内丹</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+200:拿走道具内丹</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="250">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>崂山道士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>antiCriRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[至宝被狐妖夺走了，快去拿回来！;年轻人，谢谢你。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,30 +833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1000;2000;2000;1000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[早上好;不好了，村里的宝物被狐妖夺走了！;你能帮我们抢回来吗？;真是大胆狂徒。没问题，一切包在我身上。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3012;1000;3012]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[来者何人？;就是你抢了我们村里的宝物，哼，乖乖交出来的话留你一条狗命！;给你可以，但我怕你没命走出这里了。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3012;1000;3012;1000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[啊…发生了什么事情？;把宝物交出来！;原来如此，方才我被狐妖迷惑了。现在宝物在她手里。;@##@$@*&amp;$@#(]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,10 +981,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[快来看一看，瞧一瞧。价格公道，包您满意~]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>净空方丈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,10 +989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毛毛虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,22 +1001,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>树精</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刀兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虾兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,10 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龙族少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>狐妖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,6 +1178,94 @@
   </si>
   <si>
     <t>商人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[听说村里出事了？;祭灵坐化的内丹被夺走了，整个村子已经失去了防御，据说苍狼村的人想要趁机偷袭我们呢！;族长和长老们正在召开紧急会议，你快去吧！;不要慌，只要找回祭灵大人留下的内丹，苍狼村那群混蛋还不是我们的对手。既然我出关了……;什么！你要独自行动？;妖怪往什么方向去了？; ……那边，…………要小心啊！]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000;2000;2000;1000;2000;1000;2000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[何人竟敢打搅我的婚宴？;是你抢了祭灵大人的内丹？;何必说抢这么难听呢，内丹能被我心爱的老婆大人看上是你们祭灵的福气。坐下来喝杯喜酒，从哪来的往哪去吧！;这……原来又是那只惑人心神盗取内丹的老狐狸，连龙太子都能迷惑至此，看来道行又提升了！;不管怎样，让我来打醒你再说。]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3012;1000;3012;1000;1000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[啊…狐妖？;既然醒了，就把内丹交出来吧！;多谢少侠指点迷境，内丹在那狐妖手里，她就在旁边的屋子里。;你不准备和我一起去？;适才如梦方醒如久病初遇，我遇到那狐妖又被……这里有些宝物请少侠笑纳。;既然如此，那么后会有期了。]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3012;1000;3012;1000;3012;1000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[郎君~~咦，你是何人！龙太子呢？;龙太子不要你了。;哼，别以为有了内丹我就会安安心心嫁给他，竟然还给我摆谱！;你这老狐狸，死不悔改，我是来拿内丹的，顺便就地正法了你这祸害。;口气蛮大，那你倒是来呀，来呀~来来来……你看我~美吗？;不要妄图在我面前施展你迷魂的手段！;哼！]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[千万要小心呀！;少侠，谢谢你。]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[走走走游游游，不学无术我不发愁。逢人不说真心话，全凭三寸烂舌头。马屁拍的那腿抽筋，老虎嘴上揩点油，东南西北混饭吃，坑蒙拐骗最拿手，我最拿手。]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[阿弥陀佛，出家人不打诳语]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崂山小道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异大毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊睛虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匪兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙太子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3013;1000;3013;1000;3013;1000;3013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postCond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preCond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1626,7 +1720,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2007,7 +2100,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2958,7 +3050,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -3428,24 +3520,24 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="42"/>
       <c r="D1" s="39" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="39"/>
       <c r="G1" s="55" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
       <c r="L1" s="38" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
@@ -3454,7 +3546,7 @@
       <c r="Q1" s="39"/>
       <c r="R1" s="40"/>
       <c r="T1" s="38" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="39"/>
@@ -3464,7 +3556,7 @@
       <c r="Z1" s="39"/>
       <c r="AA1" s="40"/>
       <c r="AC1" s="26" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="AD1" s="27"/>
       <c r="AE1" s="27"/>
@@ -3474,7 +3566,7 @@
       <c r="AI1" s="27"/>
       <c r="AJ1" s="28"/>
       <c r="AL1" s="38" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="AM1" s="39"/>
       <c r="AN1" s="39"/>
@@ -3482,11 +3574,11 @@
       <c r="AP1" s="39"/>
       <c r="AQ1" s="39"/>
       <c r="AR1" s="38" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="AS1" s="40"/>
       <c r="AT1" s="38" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AU1" s="39"/>
       <c r="AV1" s="39"/>
@@ -3558,140 +3650,140 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="AQ3" s="11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AR3" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AS3" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AU3" s="11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="AV3" s="11" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AW3" s="11" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.15">
@@ -3737,83 +3829,83 @@
         <v>0</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="AT4" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AU4" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AW4" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="AX4" s="6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.15">
@@ -3897,7 +3989,7 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AC5" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD5" s="7">
         <v>10</v>
@@ -4043,7 +4135,7 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AC6" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD6" s="7">
         <v>5</v>
@@ -4187,7 +4279,7 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AC7" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AD7" s="7">
         <v>2</v>
@@ -5653,7 +5745,7 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D20" s="48">
         <f t="shared" si="4"/>
@@ -6609,7 +6701,7 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B32" s="8">
         <v>1010</v>
@@ -8323,7 +8415,7 @@
         <v>1007</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D56" s="48" t="str">
         <f t="shared" si="4"/>
@@ -13472,8 +13564,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A6:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:N25"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13488,10 +13580,12 @@
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="6.625" customWidth="1"/>
     <col min="12" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="16" width="10.25" customWidth="1"/>
+    <col min="13" max="15" width="10.25" customWidth="1"/>
+    <col min="16" max="16" width="5.125" customWidth="1"/>
     <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="18.625" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="19" width="5.25" customWidth="1"/>
+    <col min="20" max="20" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -13517,43 +13611,43 @@
         <v>61</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>83</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -13573,49 +13667,49 @@
         <v>64</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -13636,7 +13730,7 @@
         <v>h1000.tga</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
@@ -13677,10 +13771,10 @@
         <v>2000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
@@ -13720,7 +13814,7 @@
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -13728,7 +13822,7 @@
         <v>2001</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>38</v>
@@ -13771,7 +13865,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -13779,10 +13873,10 @@
         <v>2002</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -13821,17 +13915,19 @@
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="T11" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>3000</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
@@ -13884,7 +13980,7 @@
         <v>3001</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>85</v>
@@ -13940,7 +14036,7 @@
         <v>3002</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>86</v>
@@ -13996,7 +14092,7 @@
         <v>3003</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>87</v>
@@ -14052,7 +14148,7 @@
         <v>3004</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>88</v>
@@ -14108,7 +14204,7 @@
         <v>3005</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>89</v>
@@ -14164,7 +14260,7 @@
         <v>3006</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>90</v>
@@ -14220,7 +14316,7 @@
         <v>3007</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>91</v>
@@ -14276,7 +14372,7 @@
         <v>3008</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>92</v>
@@ -14332,7 +14428,7 @@
         <v>3009</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>93</v>
@@ -14388,7 +14484,7 @@
         <v>3010</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>94</v>
@@ -14444,7 +14540,7 @@
         <v>3011</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>95</v>
@@ -14500,7 +14596,7 @@
         <v>3012</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>96</v>
@@ -14562,7 +14658,7 @@
         <v>3013</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>97</v>
@@ -14611,10 +14707,12 @@
       <c r="Q25" s="8">
         <v>0</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="8">
+        <v>1003</v>
+      </c>
       <c r="S25" s="8"/>
       <c r="T25" s="8" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -14631,7 +14729,7 @@
   <dimension ref="A4:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14688,7 +14786,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>51</v>
@@ -15689,7 +15787,7 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(INT(A13/10),role!$A$8:$B$25,2,0)</f>
-        <v>丫鬟</v>
+        <v>苹儿</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -15704,7 +15802,7 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(INT(A14/10),role!$A$8:$B$25,2,0)</f>
-        <v>崂山道士</v>
+        <v>崂山小道</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -15734,7 +15832,7 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(INT(A16/10),role!$A$8:$B$25,2,0)</f>
-        <v>毛毛虫</v>
+        <v>变异大毛虫</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -15749,7 +15847,7 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(INT(A17/10),role!$A$8:$B$25,2,0)</f>
-        <v>毛毛虫</v>
+        <v>变异大毛虫</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -15764,7 +15862,7 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(INT(A18/10),role!$A$8:$B$25,2,0)</f>
-        <v>毛毛虫</v>
+        <v>变异大毛虫</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -15779,7 +15877,7 @@
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(INT(A19/10),role!$A$8:$B$25,2,0)</f>
-        <v>毛毛虫</v>
+        <v>变异大毛虫</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -15794,7 +15892,7 @@
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(INT(A20/10),role!$A$8:$B$25,2,0)</f>
-        <v>毛毛虫</v>
+        <v>变异大毛虫</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -15959,7 +16057,7 @@
       </c>
       <c r="D31" t="str">
         <f>VLOOKUP(INT(A31/10),role!$A$8:$B$25,2,0)</f>
-        <v>狼</v>
+        <v>苍狼</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -15974,7 +16072,7 @@
       </c>
       <c r="D32" t="str">
         <f>VLOOKUP(INT(A32/10),role!$A$8:$B$25,2,0)</f>
-        <v>狼</v>
+        <v>苍狼</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -15989,7 +16087,7 @@
       </c>
       <c r="D33" t="str">
         <f>VLOOKUP(INT(A33/10),role!$A$8:$B$25,2,0)</f>
-        <v>狼</v>
+        <v>苍狼</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -16004,7 +16102,7 @@
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(INT(A34/10),role!$A$8:$B$25,2,0)</f>
-        <v>狼</v>
+        <v>苍狼</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -16019,7 +16117,7 @@
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(INT(A35/10),role!$A$8:$B$25,2,0)</f>
-        <v>狼</v>
+        <v>苍狼</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -16034,7 +16132,7 @@
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(INT(A36/10),role!$A$8:$B$25,2,0)</f>
-        <v>老虎</v>
+        <v>吊睛虎</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -16049,7 +16147,7 @@
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(INT(A37/10),role!$A$8:$B$25,2,0)</f>
-        <v>老虎</v>
+        <v>吊睛虎</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -16064,7 +16162,7 @@
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(INT(A38/10),role!$A$8:$B$25,2,0)</f>
-        <v>老虎</v>
+        <v>吊睛虎</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -16079,7 +16177,7 @@
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(INT(A39/10),role!$A$8:$B$25,2,0)</f>
-        <v>老虎</v>
+        <v>吊睛虎</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -16094,7 +16192,7 @@
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(INT(A40/10),role!$A$8:$B$25,2,0)</f>
-        <v>老虎</v>
+        <v>吊睛虎</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -16184,7 +16282,7 @@
       </c>
       <c r="D46" t="str">
         <f>VLOOKUP(INT(A46/10),role!$A$8:$B$25,2,0)</f>
-        <v>刀兵</v>
+        <v>匪兵</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -16199,7 +16297,7 @@
       </c>
       <c r="D47" t="str">
         <f>VLOOKUP(INT(A47/10),role!$A$8:$B$25,2,0)</f>
-        <v>刀兵</v>
+        <v>匪兵</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -16214,7 +16312,7 @@
       </c>
       <c r="D48" t="str">
         <f>VLOOKUP(INT(A48/10),role!$A$8:$B$25,2,0)</f>
-        <v>刀兵</v>
+        <v>匪兵</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -16229,7 +16327,7 @@
       </c>
       <c r="D49" t="str">
         <f>VLOOKUP(INT(A49/10),role!$A$8:$B$25,2,0)</f>
-        <v>刀兵</v>
+        <v>匪兵</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -16244,7 +16342,7 @@
       </c>
       <c r="D50" t="str">
         <f>VLOOKUP(INT(A50/10),role!$A$8:$B$25,2,0)</f>
-        <v>刀兵</v>
+        <v>匪兵</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -16634,7 +16732,7 @@
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(INT(A76/10),role!$A$8:$B$25,2,0)</f>
-        <v>龙族少年</v>
+        <v>龙太子</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -16649,7 +16747,7 @@
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(INT(A77/10),role!$A$8:$B$25,2,0)</f>
-        <v>龙族少年</v>
+        <v>龙太子</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -16664,7 +16762,7 @@
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(INT(A78/10),role!$A$8:$B$25,2,0)</f>
-        <v>龙族少年</v>
+        <v>龙太子</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -16679,7 +16777,7 @@
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(INT(A79/10),role!$A$8:$B$25,2,0)</f>
-        <v>龙族少年</v>
+        <v>龙太子</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -16694,7 +16792,7 @@
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(INT(A80/10),role!$A$8:$B$25,2,0)</f>
-        <v>龙族少年</v>
+        <v>龙太子</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -16797,16 +16895,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -16821,16 +16919,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -16848,7 +16946,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -16873,7 +16971,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
@@ -16913,60 +17011,60 @@
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -16974,7 +17072,7 @@
         <v>3000</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="49">
         <v>1</v>
@@ -17000,7 +17098,7 @@
         <v>3001</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="49">
         <v>2</v>
@@ -17026,7 +17124,7 @@
         <v>3002</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="49">
         <v>3</v>
@@ -17052,7 +17150,7 @@
         <v>3004</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="49">
         <v>1</v>
@@ -17078,7 +17176,7 @@
         <v>3005</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="49">
         <v>2</v>
@@ -17104,7 +17202,7 @@
         <v>3006</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="49">
         <v>3</v>
@@ -17130,7 +17228,7 @@
         <v>3007</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="49">
         <v>0</v>
@@ -17145,7 +17243,7 @@
         <v>200</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -17157,86 +17255,121 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A8:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="3" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="50" t="s">
+      <c r="F9" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>1000</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>1001</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>1002</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>148</v>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="object" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
     <sheet name="role" sheetId="5" r:id="rId4"/>
-    <sheet name="item" sheetId="6" r:id="rId5"/>
-    <sheet name="flash" sheetId="7" r:id="rId6"/>
-    <sheet name="shop" sheetId="9" r:id="rId7"/>
-    <sheet name="goods" sheetId="10" r:id="rId8"/>
-    <sheet name="conversation" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId5"/>
+    <sheet name="item" sheetId="6" r:id="rId6"/>
+    <sheet name="flash" sheetId="7" r:id="rId7"/>
+    <sheet name="shop" sheetId="9" r:id="rId8"/>
+    <sheet name="goods" sheetId="10" r:id="rId9"/>
+    <sheet name="conversation" sheetId="12" r:id="rId10"/>
+    <sheet name="sound" sheetId="14" r:id="rId11"/>
+    <sheet name="stage" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -82,33 +85,6 @@
 1 主角
 2 npc
 3 怪物</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>zhaona:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-列表顺序：
-跑步、攻击、受击、死亡</t>
         </r>
       </text>
     </comment>
@@ -308,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="297">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声音列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soundList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>critical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1266,6 +1234,191 @@
   </si>
   <si>
     <t>preCond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>攻击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_hurt.mp3</t>
+  </si>
+  <si>
+    <t>hero_attack.mp3</t>
+  </si>
+  <si>
+    <t>hero_hurt.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_die.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_die.mp3</t>
+  </si>
+  <si>
+    <t>monster_attack.mp3</t>
+  </si>
+  <si>
+    <t>longMan_attack.mp3</t>
+  </si>
+  <si>
+    <t>longMan_hurt.mp3</t>
+  </si>
+  <si>
+    <t>longMan_die.mp3</t>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost_attack.mp3</t>
+  </si>
+  <si>
+    <t>ghost_die.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxMonster_attack.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxMonster_die.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxMonster_hurt.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger_attack.mp3</t>
+  </si>
+  <si>
+    <t>tiger_hurt.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger_die.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullMonster_attack.mp3</t>
+  </si>
+  <si>
+    <t>bullMonster_die.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map-1.tmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map-2.tmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map-3.tmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map-4.tmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,7 +1457,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,6 +1491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,7 +1645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1679,6 +1838,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3365,6 +3530,404 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A8:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="83">
+        <v>0</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
@@ -3520,24 +4083,24 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="42"/>
       <c r="D1" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="39"/>
       <c r="G1" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
       <c r="L1" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
@@ -3546,7 +4109,7 @@
       <c r="Q1" s="39"/>
       <c r="R1" s="40"/>
       <c r="T1" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="39"/>
@@ -3556,7 +4119,7 @@
       <c r="Z1" s="39"/>
       <c r="AA1" s="40"/>
       <c r="AC1" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="27"/>
       <c r="AE1" s="27"/>
@@ -3566,7 +4129,7 @@
       <c r="AI1" s="27"/>
       <c r="AJ1" s="28"/>
       <c r="AL1" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AM1" s="39"/>
       <c r="AN1" s="39"/>
@@ -3574,11 +4137,11 @@
       <c r="AP1" s="39"/>
       <c r="AQ1" s="39"/>
       <c r="AR1" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AS1" s="40"/>
       <c r="AT1" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AU1" s="39"/>
       <c r="AV1" s="39"/>
@@ -3650,140 +4213,140 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="T3" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="W3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AI3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="AL3" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="AM3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AP3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="AR3" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AS3" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AT3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AW3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AX3" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="AW3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.15">
@@ -3829,83 +4392,83 @@
         <v>0</v>
       </c>
       <c r="T4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL4" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="AH4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AL4" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AO4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AP4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AO4" s="6" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AP4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="AT4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AU4" s="6" t="s">
+      <c r="AW4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AX4" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.15">
@@ -3989,7 +4552,7 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AC5" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD5" s="7">
         <v>10</v>
@@ -4135,7 +4698,7 @@
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AC6" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD6" s="7">
         <v>5</v>
@@ -4279,7 +4842,7 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AC7" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD7" s="7">
         <v>2</v>
@@ -5745,7 +6308,7 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D20" s="48">
         <f t="shared" si="4"/>
@@ -6701,7 +7264,7 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="8">
         <v>1010</v>
@@ -8415,7 +8978,7 @@
         <v>1007</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D56" s="48" t="str">
         <f t="shared" si="4"/>
@@ -13564,8 +14127,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A6:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13574,7 +14137,8 @@
     <col min="2" max="2" width="9.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="9.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.375" customWidth="1"/>
     <col min="8" max="9" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
@@ -13605,49 +14169,49 @@
         <v>60</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -13664,52 +14228,52 @@
         <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>65</v>
+        <v>249</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="R7" s="10" t="s">
+      <c r="T7" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -13717,7 +14281,7 @@
         <v>1000</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>0</v>
@@ -13730,9 +14294,11 @@
         <v>h1000.tga</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1000</v>
+      </c>
       <c r="H8" s="7">
         <f>Sheet2!AD5</f>
         <v>10</v>
@@ -13771,10 +14337,10 @@
         <v>2000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="7">
         <v>2</v>
@@ -13814,7 +14380,7 @@
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -13822,7 +14388,7 @@
         <v>2001</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>38</v>
@@ -13865,7 +14431,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -13873,10 +14439,10 @@
         <v>2002</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
@@ -13916,7 +14482,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -13924,10 +14490,10 @@
         <v>3000</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
@@ -13937,7 +14503,9 @@
         <v>h3000.tga</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>1001</v>
+      </c>
       <c r="H12" s="8">
         <f>Sheet2!AM5</f>
         <v>12</v>
@@ -13980,10 +14548,10 @@
         <v>3001</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
         <v>3</v>
@@ -13993,7 +14561,9 @@
         <v>h3001.tga</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>1001</v>
+      </c>
       <c r="H13" s="8">
         <f>Sheet2!AM6</f>
         <v>16</v>
@@ -14036,10 +14606,10 @@
         <v>3002</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7">
         <v>3</v>
@@ -14049,7 +14619,9 @@
         <v>h3002.tga</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>1001</v>
+      </c>
       <c r="H14" s="8">
         <f>Sheet2!AM7</f>
         <v>19</v>
@@ -14092,10 +14664,10 @@
         <v>3003</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="7">
         <v>3</v>
@@ -14105,7 +14677,9 @@
         <v>h3003.tga</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>1005</v>
+      </c>
       <c r="H15" s="8">
         <f>Sheet2!AM8</f>
         <v>25</v>
@@ -14148,10 +14722,10 @@
         <v>3004</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
         <v>3</v>
@@ -14161,7 +14735,9 @@
         <v>h3004.tga</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8">
+        <v>1005</v>
+      </c>
       <c r="H16" s="8">
         <f>Sheet2!AM9</f>
         <v>36</v>
@@ -14204,10 +14780,10 @@
         <v>3005</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7">
         <v>3</v>
@@ -14217,7 +14793,9 @@
         <v>h3005.tga</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8">
+        <v>1001</v>
+      </c>
       <c r="H17" s="8">
         <f>Sheet2!AM10</f>
         <v>49</v>
@@ -14260,10 +14838,10 @@
         <v>3006</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
@@ -14273,7 +14851,9 @@
         <v>h3006.tga</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="8">
+        <v>1007</v>
+      </c>
       <c r="H18" s="8">
         <f>Sheet2!AM11</f>
         <v>87</v>
@@ -14316,10 +14896,10 @@
         <v>3007</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="7">
         <v>3</v>
@@ -14329,7 +14909,9 @@
         <v>h3007.tga</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8">
+        <v>1007</v>
+      </c>
       <c r="H19" s="8">
         <f>Sheet2!AM12</f>
         <v>121</v>
@@ -14372,10 +14954,10 @@
         <v>3008</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
         <v>3</v>
@@ -14385,7 +14967,9 @@
         <v>h3008.tga</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8">
+        <v>1007</v>
+      </c>
       <c r="H20" s="8">
         <f>Sheet2!AM13</f>
         <v>135</v>
@@ -14428,10 +15012,10 @@
         <v>3009</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="7">
         <v>3</v>
@@ -14441,7 +15025,9 @@
         <v>h3009.tga</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="8">
+        <v>1007</v>
+      </c>
       <c r="H21" s="8">
         <f>Sheet2!AM14</f>
         <v>150</v>
@@ -14484,10 +15070,10 @@
         <v>3010</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="7">
         <v>3</v>
@@ -14497,7 +15083,9 @@
         <v>h3010.tga</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="8">
+        <v>1003</v>
+      </c>
       <c r="H22" s="8">
         <f>Sheet2!AM15</f>
         <v>185</v>
@@ -14540,10 +15128,10 @@
         <v>3011</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7">
         <v>3</v>
@@ -14553,7 +15141,9 @@
         <v>h3011.tga</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="8">
+        <v>1006</v>
+      </c>
       <c r="H23" s="8">
         <f>Sheet2!AM16</f>
         <v>258</v>
@@ -14596,10 +15186,10 @@
         <v>3012</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7">
         <v>3</v>
@@ -14609,7 +15199,9 @@
         <v>h3012.tga</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8">
+        <v>1002</v>
+      </c>
       <c r="H24" s="8">
         <f>Sheet2!AM17</f>
         <v>252</v>
@@ -14658,10 +15250,10 @@
         <v>3013</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" s="7">
         <v>3</v>
@@ -14671,7 +15263,9 @@
         <v>h3013.tga</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="8">
+        <v>1004</v>
+      </c>
       <c r="H25" s="8">
         <f>Sheet2!AM18</f>
         <v>285</v>
@@ -14712,7 +15306,7 @@
       </c>
       <c r="S25" s="8"/>
       <c r="T25" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -14724,12 +15318,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A4:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D6" sqref="D6:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14745,7 +15354,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>44</v>
@@ -14763,10 +15372,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>48</v>
@@ -14780,13 +15389,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>51</v>
@@ -14798,10 +15407,10 @@
         <v>53</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>54</v>
@@ -14815,11 +15424,11 @@
         <v>23</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f t="shared" ref="D6:D25" si="0">A6&amp;".tga"</f>
-        <v>1000.tga</v>
+        <f>A6&amp;".png"</f>
+        <v>1000.png</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -14857,11 +15466,11 @@
         <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1001.tga</v>
+        <f t="shared" ref="D7:D25" si="0">A7&amp;".png"</f>
+        <v>1001.png</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -14899,11 +15508,11 @@
         <v>25</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1002.tga</v>
+        <v>1002.png</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -14941,11 +15550,11 @@
         <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1003.tga</v>
+        <v>1003.png</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -14983,11 +15592,11 @@
         <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1004.tga</v>
+        <v>1004.png</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -15025,11 +15634,11 @@
         <v>29</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1005.tga</v>
+        <v>1005.png</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -15067,11 +15676,11 @@
         <v>31</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1006.tga</v>
+        <v>1006.png</v>
       </c>
       <c r="E12" s="7">
         <v>3</v>
@@ -15109,11 +15718,11 @@
         <v>32</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1007.tga</v>
+        <v>1007.png</v>
       </c>
       <c r="E13" s="7">
         <v>3</v>
@@ -15151,11 +15760,11 @@
         <v>33</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1008.tga</v>
+        <v>1008.png</v>
       </c>
       <c r="E14" s="7">
         <v>3</v>
@@ -15193,11 +15802,11 @@
         <v>34</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1009.tga</v>
+        <v>1009.png</v>
       </c>
       <c r="E15" s="7">
         <v>6</v>
@@ -15235,11 +15844,11 @@
         <v>35</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1010.tga</v>
+        <v>1010.png</v>
       </c>
       <c r="E16" s="7">
         <v>6</v>
@@ -15277,11 +15886,11 @@
         <v>36</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1011.tga</v>
+        <v>1011.png</v>
       </c>
       <c r="E17" s="7">
         <v>6</v>
@@ -15319,11 +15928,11 @@
         <v>49</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1012.tga</v>
+        <v>1012.png</v>
       </c>
       <c r="E18" s="7">
         <v>6</v>
@@ -15361,11 +15970,11 @@
         <v>50</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1013.tga</v>
+        <v>1013.png</v>
       </c>
       <c r="E19" s="7">
         <v>6</v>
@@ -15400,14 +16009,14 @@
         <v>1014</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1014.tga</v>
+        <v>1014.png</v>
       </c>
       <c r="E20" s="7">
         <v>4</v>
@@ -15442,14 +16051,14 @@
         <v>1015</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1015.tga</v>
+        <v>1015.png</v>
       </c>
       <c r="E21" s="7">
         <v>4</v>
@@ -15484,14 +16093,14 @@
         <v>1016</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1016.tga</v>
+        <v>1016.png</v>
       </c>
       <c r="E22" s="7">
         <v>4</v>
@@ -15526,14 +16135,14 @@
         <v>1017</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1017.tga</v>
+        <v>1017.png</v>
       </c>
       <c r="E23" s="7">
         <v>5</v>
@@ -15568,14 +16177,14 @@
         <v>1018</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1018.tga</v>
+        <v>1018.png</v>
       </c>
       <c r="E24" s="7">
         <v>5</v>
@@ -15610,14 +16219,14 @@
         <v>1019</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>1019.tga</v>
+        <v>1019.png</v>
       </c>
       <c r="E25" s="7">
         <v>5</v>
@@ -15655,13 +16264,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A6:D85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D7"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15674,30 +16283,30 @@
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -16878,7 +17487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:N4"/>
@@ -16895,16 +17504,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -16919,16 +17528,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -16946,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -16971,7 +17580,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
@@ -16998,73 +17607,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A6:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A6" sqref="A6:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="G6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -17072,7 +17681,7 @@
         <v>3000</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="49">
         <v>1</v>
@@ -17098,7 +17707,7 @@
         <v>3001</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="49">
         <v>2</v>
@@ -17124,7 +17733,7 @@
         <v>3002</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="49">
         <v>3</v>
@@ -17150,7 +17759,7 @@
         <v>3004</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="49">
         <v>1</v>
@@ -17176,7 +17785,7 @@
         <v>3005</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="49">
         <v>2</v>
@@ -17202,7 +17811,7 @@
         <v>3006</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="49">
         <v>3</v>
@@ -17228,7 +17837,7 @@
         <v>3007</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="49">
         <v>0</v>
@@ -17243,127 +17852,7 @@
         <v>200</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A8:F13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,70 +221,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-100:包裹内有道具内丹</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-200:拿走道具内丹</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="297">
   <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,10 +935,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[啊啊啊~啊~~~~~！]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1177,10 +1111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[千万要小心呀！;少侠，谢谢你。]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[走走走游游游，不学无术我不发愁。逢人不说真心话，全凭三寸烂舌头。马屁拍的那腿抽筋，老虎嘴上揩点油，东南西北混饭吃，坑蒙拐骗最拿手，我最拿手。]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1221,22 +1151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postCond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preCond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>音效ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,6 +1333,30 @@
   </si>
   <si>
     <t>0.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭灵的内丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[好，得赶紧把祭灵的内丹带回村里。]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[千万要小心呀！#r;这次幸亏少侠你及时把内丹带回来了。]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3531,22 +3469,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A8:F13"/>
+  <dimension ref="A8:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F13"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>133</v>
       </c>
@@ -3554,19 +3491,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="50" t="s">
         <v>136</v>
       </c>
@@ -3574,79 +3505,76 @@
         <v>15</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="D9" s="51" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>1000</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>1001</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>1002</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>1003</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>232</v>
+      <c r="C13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>1004</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3667,30 +3595,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3698,13 +3626,13 @@
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3712,13 +3640,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3726,13 +3654,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3740,13 +3668,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3754,13 +3682,13 @@
         <v>1004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3768,13 +3696,13 @@
         <v>1005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -3782,13 +3710,13 @@
         <v>1006</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3796,13 +3724,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3815,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3828,30 +3756,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3859,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D3" s="84"/>
     </row>
@@ -3871,13 +3799,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3885,13 +3813,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3899,13 +3827,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3913,13 +3841,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4083,24 +4011,24 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="42"/>
       <c r="D1" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="39"/>
       <c r="G1" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
       <c r="L1" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
@@ -4109,7 +4037,7 @@
       <c r="Q1" s="39"/>
       <c r="R1" s="40"/>
       <c r="T1" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="39"/>
@@ -4119,7 +4047,7 @@
       <c r="Z1" s="39"/>
       <c r="AA1" s="40"/>
       <c r="AC1" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD1" s="27"/>
       <c r="AE1" s="27"/>
@@ -4129,7 +4057,7 @@
       <c r="AI1" s="27"/>
       <c r="AJ1" s="28"/>
       <c r="AL1" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AM1" s="39"/>
       <c r="AN1" s="39"/>
@@ -4137,11 +4065,11 @@
       <c r="AP1" s="39"/>
       <c r="AQ1" s="39"/>
       <c r="AR1" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AS1" s="40"/>
       <c r="AT1" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AU1" s="39"/>
       <c r="AV1" s="39"/>
@@ -4213,119 +4141,119 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="R3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AJ3" s="11" t="s">
-        <v>208</v>
-      </c>
       <c r="AL3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AO3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="AR3" s="22" t="s">
         <v>118</v>
@@ -4334,19 +4262,19 @@
         <v>119</v>
       </c>
       <c r="AT3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU3" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AW3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AX3" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.15">
@@ -4392,83 +4320,83 @@
         <v>0</v>
       </c>
       <c r="T4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AF4" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AG4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AH4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AI4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="AL4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AN4" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AO4" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AO4" s="6" t="s">
+      <c r="AP4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AQ4" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="AT4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU4" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AU4" s="6" t="s">
+      <c r="AV4" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AW4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AW4" s="6" t="s">
+      <c r="AX4" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.15">
@@ -6308,7 +6236,7 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" s="48">
         <f t="shared" si="4"/>
@@ -14127,8 +14055,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A6:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14172,7 +14100,7 @@
         <v>98</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>158</v>
@@ -14234,7 +14162,7 @@
         <v>105</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>101</v>
@@ -14337,7 +14265,7 @@
         <v>2000</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>175</v>
@@ -14380,7 +14308,7 @@
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -14388,7 +14316,7 @@
         <v>2001</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>38</v>
@@ -14431,7 +14359,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -14482,7 +14410,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -14490,7 +14418,7 @@
         <v>3000</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>178</v>
@@ -14664,7 +14592,7 @@
         <v>3003</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>85</v>
@@ -14722,7 +14650,7 @@
         <v>3004</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>86</v>
@@ -14838,7 +14766,7 @@
         <v>3006</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>88</v>
@@ -15186,7 +15114,7 @@
         <v>3012</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>94</v>
@@ -15304,10 +15232,10 @@
       <c r="R25" s="8">
         <v>1003</v>
       </c>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8" t="s">
-        <v>188</v>
-      </c>
+      <c r="S25" s="8">
+        <v>1004</v>
+      </c>
+      <c r="T25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15335,18 +15263,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A4:K25"/>
+  <dimension ref="A4:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>55</v>
       </c>
@@ -15357,31 +15286,34 @@
         <v>80</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -15392,31 +15324,34 @@
         <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>1000</v>
       </c>
@@ -15426,39 +15361,42 @@
       <c r="C6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="str">
         <f>A6&amp;".png"</f>
         <v>1000.png</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="7" t="str">
+      <c r="G6" s="7" t="str">
         <f>IF(Sheet2!U5=0,"",Sheet2!U5)</f>
         <v/>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <f>IF(Sheet2!V5=0,"",Sheet2!V5)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="7" t="str">
+      <c r="I6" s="7" t="str">
         <f>IF(Sheet2!W5=0,"",Sheet2!W5)</f>
         <v/>
       </c>
-      <c r="I6" s="7" t="str">
+      <c r="J6" s="7" t="str">
         <f>IF(Sheet2!X5=0,"",Sheet2!X5)</f>
         <v/>
       </c>
-      <c r="J6" s="7" t="str">
+      <c r="K6" s="7" t="str">
         <f>IF(Sheet2!Y5=0,"",Sheet2!Y5)</f>
         <v/>
       </c>
-      <c r="K6" s="7" t="str">
+      <c r="L6" s="7" t="str">
         <f>IF(Sheet2!Z5=0,"",Sheet2!Z5)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>1001</v>
       </c>
@@ -15468,39 +15406,42 @@
       <c r="C7" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D25" si="0">A7&amp;".png"</f>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" ref="E7:E25" si="0">A7&amp;".png"</f>
         <v>1001.png</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="G7" s="7" t="str">
         <f>IF(Sheet2!U6=0,"",Sheet2!U6)</f>
         <v/>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <f>IF(Sheet2!V6=0,"",Sheet2!V6)</f>
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="str">
+      <c r="I7" s="7" t="str">
         <f>IF(Sheet2!W6=0,"",Sheet2!W6)</f>
         <v/>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="J7" s="7" t="str">
         <f>IF(Sheet2!X6=0,"",Sheet2!X6)</f>
         <v/>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f>IF(Sheet2!Y6=0,"",Sheet2!Y6)</f>
         <v/>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="L7" s="7" t="str">
         <f>IF(Sheet2!Z6=0,"",Sheet2!Z6)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>1002</v>
       </c>
@@ -15510,39 +15451,42 @@
       <c r="C8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1002.png</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="str">
+      <c r="G8" s="7" t="str">
         <f>IF(Sheet2!U7=0,"",Sheet2!U7)</f>
         <v/>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <f>IF(Sheet2!V7=0,"",Sheet2!V7)</f>
         <v>15</v>
       </c>
-      <c r="H8" s="7" t="str">
+      <c r="I8" s="7" t="str">
         <f>IF(Sheet2!W7=0,"",Sheet2!W7)</f>
         <v/>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="J8" s="7" t="str">
         <f>IF(Sheet2!X7=0,"",Sheet2!X7)</f>
         <v/>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f>IF(Sheet2!Y7=0,"",Sheet2!Y7)</f>
         <v/>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="L8" s="7" t="str">
         <f>IF(Sheet2!Z7=0,"",Sheet2!Z7)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>1003</v>
       </c>
@@ -15552,39 +15496,42 @@
       <c r="C9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1003.png</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <f>IF(Sheet2!U8=0,"",Sheet2!U8)</f>
         <v>5</v>
       </c>
-      <c r="G9" s="7" t="str">
+      <c r="H9" s="7" t="str">
         <f>IF(Sheet2!V8=0,"",Sheet2!V8)</f>
         <v/>
       </c>
-      <c r="H9" s="7" t="str">
+      <c r="I9" s="7" t="str">
         <f>IF(Sheet2!W8=0,"",Sheet2!W8)</f>
         <v/>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="J9" s="7" t="str">
         <f>IF(Sheet2!X8=0,"",Sheet2!X8)</f>
         <v/>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f>IF(Sheet2!Y8=0,"",Sheet2!Y8)</f>
         <v/>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="L9" s="7" t="str">
         <f>IF(Sheet2!Z8=0,"",Sheet2!Z8)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>1004</v>
       </c>
@@ -15594,39 +15541,42 @@
       <c r="C10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1004.png</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <f>IF(Sheet2!U9=0,"",Sheet2!U9)</f>
         <v>10</v>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="H10" s="7" t="str">
         <f>IF(Sheet2!V9=0,"",Sheet2!V9)</f>
         <v/>
       </c>
-      <c r="H10" s="7" t="str">
+      <c r="I10" s="7" t="str">
         <f>IF(Sheet2!W9=0,"",Sheet2!W9)</f>
         <v/>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="J10" s="7" t="str">
         <f>IF(Sheet2!X9=0,"",Sheet2!X9)</f>
         <v/>
       </c>
-      <c r="J10" s="7" t="str">
+      <c r="K10" s="7" t="str">
         <f>IF(Sheet2!Y9=0,"",Sheet2!Y9)</f>
         <v/>
       </c>
-      <c r="K10" s="7" t="str">
+      <c r="L10" s="7" t="str">
         <f>IF(Sheet2!Z9=0,"",Sheet2!Z9)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>1005</v>
       </c>
@@ -15636,39 +15586,42 @@
       <c r="C11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1005.png</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <f>IF(Sheet2!U10=0,"",Sheet2!U10)</f>
         <v>15</v>
       </c>
-      <c r="G11" s="7" t="str">
+      <c r="H11" s="7" t="str">
         <f>IF(Sheet2!V10=0,"",Sheet2!V10)</f>
         <v/>
       </c>
-      <c r="H11" s="7" t="str">
+      <c r="I11" s="7" t="str">
         <f>IF(Sheet2!W10=0,"",Sheet2!W10)</f>
         <v/>
       </c>
-      <c r="I11" s="7" t="str">
+      <c r="J11" s="7" t="str">
         <f>IF(Sheet2!X10=0,"",Sheet2!X10)</f>
         <v/>
       </c>
-      <c r="J11" s="7" t="str">
+      <c r="K11" s="7" t="str">
         <f>IF(Sheet2!Y10=0,"",Sheet2!Y10)</f>
         <v/>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="L11" s="7" t="str">
         <f>IF(Sheet2!Z10=0,"",Sheet2!Z10)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>1006</v>
       </c>
@@ -15678,39 +15631,42 @@
       <c r="C12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="7" t="str">
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1006.png</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="F12" s="7" t="str">
+      <c r="G12" s="7" t="str">
         <f>IF(Sheet2!U11=0,"",Sheet2!U11)</f>
         <v/>
       </c>
-      <c r="G12" s="7" t="str">
+      <c r="H12" s="7" t="str">
         <f>IF(Sheet2!V11=0,"",Sheet2!V11)</f>
         <v/>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <f>IF(Sheet2!W11=0,"",Sheet2!W11)</f>
         <v>50</v>
       </c>
-      <c r="I12" s="7" t="str">
+      <c r="J12" s="7" t="str">
         <f>IF(Sheet2!X11=0,"",Sheet2!X11)</f>
         <v/>
       </c>
-      <c r="J12" s="7" t="str">
+      <c r="K12" s="7" t="str">
         <f>IF(Sheet2!Y11=0,"",Sheet2!Y11)</f>
         <v/>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="L12" s="7" t="str">
         <f>IF(Sheet2!Z11=0,"",Sheet2!Z11)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>1007</v>
       </c>
@@ -15720,39 +15676,42 @@
       <c r="C13" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1007.png</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="G13" s="7" t="str">
         <f>IF(Sheet2!U12=0,"",Sheet2!U12)</f>
         <v/>
       </c>
-      <c r="G13" s="7" t="str">
+      <c r="H13" s="7" t="str">
         <f>IF(Sheet2!V12=0,"",Sheet2!V12)</f>
         <v/>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <f>IF(Sheet2!W12=0,"",Sheet2!W12)</f>
         <v>100</v>
       </c>
-      <c r="I13" s="7" t="str">
+      <c r="J13" s="7" t="str">
         <f>IF(Sheet2!X12=0,"",Sheet2!X12)</f>
         <v/>
       </c>
-      <c r="J13" s="7" t="str">
+      <c r="K13" s="7" t="str">
         <f>IF(Sheet2!Y12=0,"",Sheet2!Y12)</f>
         <v/>
       </c>
-      <c r="K13" s="7" t="str">
+      <c r="L13" s="7" t="str">
         <f>IF(Sheet2!Z12=0,"",Sheet2!Z12)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>1008</v>
       </c>
@@ -15762,39 +15721,42 @@
       <c r="C14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="7" t="str">
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1008.png</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="7" t="str">
+      <c r="G14" s="7" t="str">
         <f>IF(Sheet2!U13=0,"",Sheet2!U13)</f>
         <v/>
       </c>
-      <c r="G14" s="7" t="str">
+      <c r="H14" s="7" t="str">
         <f>IF(Sheet2!V13=0,"",Sheet2!V13)</f>
         <v/>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <f>IF(Sheet2!W13=0,"",Sheet2!W13)</f>
         <v>200</v>
       </c>
-      <c r="I14" s="7" t="str">
+      <c r="J14" s="7" t="str">
         <f>IF(Sheet2!X13=0,"",Sheet2!X13)</f>
         <v/>
       </c>
-      <c r="J14" s="7" t="str">
+      <c r="K14" s="7" t="str">
         <f>IF(Sheet2!Y13=0,"",Sheet2!Y13)</f>
         <v/>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="L14" s="7" t="str">
         <f>IF(Sheet2!Z13=0,"",Sheet2!Z13)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>1009</v>
       </c>
@@ -15804,39 +15766,42 @@
       <c r="C15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1009.png</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>6</v>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="G15" s="7" t="str">
         <f>IF(Sheet2!U14=0,"",Sheet2!U14)</f>
         <v/>
       </c>
-      <c r="G15" s="7" t="str">
+      <c r="H15" s="7" t="str">
         <f>IF(Sheet2!V14=0,"",Sheet2!V14)</f>
         <v/>
       </c>
-      <c r="H15" s="7" t="str">
+      <c r="I15" s="7" t="str">
         <f>IF(Sheet2!W14=0,"",Sheet2!W14)</f>
         <v/>
       </c>
-      <c r="I15" s="7" t="str">
+      <c r="J15" s="7" t="str">
         <f>IF(Sheet2!X14=0,"",Sheet2!X14)</f>
         <v/>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="K15" s="7" t="str">
         <f>IF(Sheet2!Y14=0,"",Sheet2!Y14)</f>
         <v/>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <f>IF(Sheet2!Z14=0,"",Sheet2!Z14)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>1010</v>
       </c>
@@ -15846,39 +15811,42 @@
       <c r="C16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="7" t="str">
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1010.png</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>6</v>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="G16" s="7" t="str">
         <f>IF(Sheet2!U15=0,"",Sheet2!U15)</f>
         <v/>
       </c>
-      <c r="G16" s="7" t="str">
+      <c r="H16" s="7" t="str">
         <f>IF(Sheet2!V15=0,"",Sheet2!V15)</f>
         <v/>
       </c>
-      <c r="H16" s="7" t="str">
+      <c r="I16" s="7" t="str">
         <f>IF(Sheet2!W15=0,"",Sheet2!W15)</f>
         <v/>
       </c>
-      <c r="I16" s="7" t="str">
+      <c r="J16" s="7" t="str">
         <f>IF(Sheet2!X15=0,"",Sheet2!X15)</f>
         <v/>
       </c>
-      <c r="J16" s="7" t="str">
+      <c r="K16" s="7" t="str">
         <f>IF(Sheet2!Y15=0,"",Sheet2!Y15)</f>
         <v/>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <f>IF(Sheet2!Z15=0,"",Sheet2!Z15)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>1011</v>
       </c>
@@ -15888,39 +15856,42 @@
       <c r="C17" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1011.png</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>6</v>
       </c>
-      <c r="F17" s="7" t="str">
+      <c r="G17" s="7" t="str">
         <f>IF(Sheet2!U16=0,"",Sheet2!U16)</f>
         <v/>
       </c>
-      <c r="G17" s="7" t="str">
+      <c r="H17" s="7" t="str">
         <f>IF(Sheet2!V16=0,"",Sheet2!V16)</f>
         <v/>
       </c>
-      <c r="H17" s="7" t="str">
+      <c r="I17" s="7" t="str">
         <f>IF(Sheet2!W16=0,"",Sheet2!W16)</f>
         <v/>
       </c>
-      <c r="I17" s="7" t="str">
+      <c r="J17" s="7" t="str">
         <f>IF(Sheet2!X16=0,"",Sheet2!X16)</f>
         <v/>
       </c>
-      <c r="J17" s="7" t="str">
+      <c r="K17" s="7" t="str">
         <f>IF(Sheet2!Y16=0,"",Sheet2!Y16)</f>
         <v/>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="7">
         <f>IF(Sheet2!Z16=0,"",Sheet2!Z16)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>1012</v>
       </c>
@@ -15930,39 +15901,42 @@
       <c r="C18" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1012.png</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="F18" s="7" t="str">
+      <c r="G18" s="7" t="str">
         <f>IF(Sheet2!U17=0,"",Sheet2!U17)</f>
         <v/>
       </c>
-      <c r="G18" s="7" t="str">
+      <c r="H18" s="7" t="str">
         <f>IF(Sheet2!V17=0,"",Sheet2!V17)</f>
         <v/>
       </c>
-      <c r="H18" s="7" t="str">
+      <c r="I18" s="7" t="str">
         <f>IF(Sheet2!W17=0,"",Sheet2!W17)</f>
         <v/>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="J18" s="7" t="str">
         <f>IF(Sheet2!X17=0,"",Sheet2!X17)</f>
         <v/>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="K18" s="7" t="str">
         <f>IF(Sheet2!Y17=0,"",Sheet2!Y17)</f>
         <v/>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <f>IF(Sheet2!Z17=0,"",Sheet2!Z17)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>1013</v>
       </c>
@@ -15972,39 +15946,42 @@
       <c r="C19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1013.png</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <v>6</v>
       </c>
-      <c r="F19" s="7" t="str">
+      <c r="G19" s="7" t="str">
         <f>IF(Sheet2!U18=0,"",Sheet2!U18)</f>
         <v/>
       </c>
-      <c r="G19" s="7" t="str">
+      <c r="H19" s="7" t="str">
         <f>IF(Sheet2!V18=0,"",Sheet2!V18)</f>
         <v/>
       </c>
-      <c r="H19" s="7" t="str">
+      <c r="I19" s="7" t="str">
         <f>IF(Sheet2!W18=0,"",Sheet2!W18)</f>
         <v/>
       </c>
-      <c r="I19" s="7" t="str">
+      <c r="J19" s="7" t="str">
         <f>IF(Sheet2!X18=0,"",Sheet2!X18)</f>
         <v/>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="K19" s="7" t="str">
         <f>IF(Sheet2!Y18=0,"",Sheet2!Y18)</f>
         <v/>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <f>IF(Sheet2!Z18=0,"",Sheet2!Z18)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>1014</v>
       </c>
@@ -16014,39 +15991,42 @@
       <c r="C20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1014.png</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="F20" s="7" t="str">
+      <c r="G20" s="7" t="str">
         <f>IF(Sheet2!U19=0,"",Sheet2!U19)</f>
         <v/>
       </c>
-      <c r="G20" s="7" t="str">
+      <c r="H20" s="7" t="str">
         <f>IF(Sheet2!V19=0,"",Sheet2!V19)</f>
         <v/>
       </c>
-      <c r="H20" s="7" t="str">
+      <c r="I20" s="7" t="str">
         <f>IF(Sheet2!W19=0,"",Sheet2!W19)</f>
         <v/>
       </c>
-      <c r="I20" s="7">
+      <c r="J20" s="7">
         <f>IF(Sheet2!X19=0,"",Sheet2!X19)</f>
         <v>2</v>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="K20" s="7" t="str">
         <f>IF(Sheet2!Y19=0,"",Sheet2!Y19)</f>
         <v/>
       </c>
-      <c r="K20" s="7" t="str">
+      <c r="L20" s="7" t="str">
         <f>IF(Sheet2!Z19=0,"",Sheet2!Z19)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>1015</v>
       </c>
@@ -16056,39 +16036,42 @@
       <c r="C21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1015.png</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>4</v>
       </c>
-      <c r="F21" s="7" t="str">
+      <c r="G21" s="7" t="str">
         <f>IF(Sheet2!U20=0,"",Sheet2!U20)</f>
         <v/>
       </c>
-      <c r="G21" s="7" t="str">
+      <c r="H21" s="7" t="str">
         <f>IF(Sheet2!V20=0,"",Sheet2!V20)</f>
         <v/>
       </c>
-      <c r="H21" s="7" t="str">
+      <c r="I21" s="7" t="str">
         <f>IF(Sheet2!W20=0,"",Sheet2!W20)</f>
         <v/>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <f>IF(Sheet2!X20=0,"",Sheet2!X20)</f>
         <v>4</v>
       </c>
-      <c r="J21" s="7" t="str">
+      <c r="K21" s="7" t="str">
         <f>IF(Sheet2!Y20=0,"",Sheet2!Y20)</f>
         <v/>
       </c>
-      <c r="K21" s="7" t="str">
+      <c r="L21" s="7" t="str">
         <f>IF(Sheet2!Z20=0,"",Sheet2!Z20)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>1016</v>
       </c>
@@ -16098,39 +16081,42 @@
       <c r="C22" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="7" t="str">
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1016.png</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>4</v>
       </c>
-      <c r="F22" s="7" t="str">
+      <c r="G22" s="7" t="str">
         <f>IF(Sheet2!U21=0,"",Sheet2!U21)</f>
         <v/>
       </c>
-      <c r="G22" s="7" t="str">
+      <c r="H22" s="7" t="str">
         <f>IF(Sheet2!V21=0,"",Sheet2!V21)</f>
         <v/>
       </c>
-      <c r="H22" s="7" t="str">
+      <c r="I22" s="7" t="str">
         <f>IF(Sheet2!W21=0,"",Sheet2!W21)</f>
         <v/>
       </c>
-      <c r="I22" s="7">
+      <c r="J22" s="7">
         <f>IF(Sheet2!X21=0,"",Sheet2!X21)</f>
         <v>6</v>
       </c>
-      <c r="J22" s="7" t="str">
+      <c r="K22" s="7" t="str">
         <f>IF(Sheet2!Y21=0,"",Sheet2!Y21)</f>
         <v/>
       </c>
-      <c r="K22" s="7" t="str">
+      <c r="L22" s="7" t="str">
         <f>IF(Sheet2!Z21=0,"",Sheet2!Z21)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>1017</v>
       </c>
@@ -16140,39 +16126,42 @@
       <c r="C23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1017.png</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <v>5</v>
       </c>
-      <c r="F23" s="7" t="str">
+      <c r="G23" s="7" t="str">
         <f>IF(Sheet2!U22=0,"",Sheet2!U22)</f>
         <v/>
       </c>
-      <c r="G23" s="7" t="str">
+      <c r="H23" s="7" t="str">
         <f>IF(Sheet2!V22=0,"",Sheet2!V22)</f>
         <v/>
       </c>
-      <c r="H23" s="7" t="str">
+      <c r="I23" s="7" t="str">
         <f>IF(Sheet2!W22=0,"",Sheet2!W22)</f>
         <v/>
       </c>
-      <c r="I23" s="7" t="str">
+      <c r="J23" s="7" t="str">
         <f>IF(Sheet2!X22=0,"",Sheet2!X22)</f>
         <v/>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
         <f>IF(Sheet2!Y22=0,"",Sheet2!Y22)</f>
         <v>2</v>
       </c>
-      <c r="K23" s="7" t="str">
+      <c r="L23" s="7" t="str">
         <f>IF(Sheet2!Z22=0,"",Sheet2!Z22)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>1018</v>
       </c>
@@ -16182,39 +16171,42 @@
       <c r="C24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1018.png</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <v>5</v>
       </c>
-      <c r="F24" s="7" t="str">
+      <c r="G24" s="7" t="str">
         <f>IF(Sheet2!U23=0,"",Sheet2!U23)</f>
         <v/>
       </c>
-      <c r="G24" s="7" t="str">
+      <c r="H24" s="7" t="str">
         <f>IF(Sheet2!V23=0,"",Sheet2!V23)</f>
         <v/>
       </c>
-      <c r="H24" s="7" t="str">
+      <c r="I24" s="7" t="str">
         <f>IF(Sheet2!W23=0,"",Sheet2!W23)</f>
         <v/>
       </c>
-      <c r="I24" s="7" t="str">
+      <c r="J24" s="7" t="str">
         <f>IF(Sheet2!X23=0,"",Sheet2!X23)</f>
         <v/>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
         <f>IF(Sheet2!Y23=0,"",Sheet2!Y23)</f>
         <v>4</v>
       </c>
-      <c r="K24" s="7" t="str">
+      <c r="L24" s="7" t="str">
         <f>IF(Sheet2!Z23=0,"",Sheet2!Z23)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>1019</v>
       </c>
@@ -16224,36 +16216,83 @@
       <c r="C25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>1019.png</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
         <v>5</v>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="G25" s="7" t="str">
         <f>IF(Sheet2!U24=0,"",Sheet2!U24)</f>
         <v/>
       </c>
-      <c r="G25" s="7" t="str">
+      <c r="H25" s="7" t="str">
         <f>IF(Sheet2!V24=0,"",Sheet2!V24)</f>
         <v/>
       </c>
-      <c r="H25" s="7" t="str">
+      <c r="I25" s="7" t="str">
         <f>IF(Sheet2!W24=0,"",Sheet2!W24)</f>
         <v/>
       </c>
-      <c r="I25" s="7" t="str">
+      <c r="J25" s="7" t="str">
         <f>IF(Sheet2!X24=0,"",Sheet2!X24)</f>
         <v/>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
         <f>IF(Sheet2!Y24=0,"",Sheet2!Y24)</f>
         <v>6</v>
       </c>
-      <c r="K25" s="7" t="str">
+      <c r="L25" s="7" t="str">
         <f>IF(Sheet2!Z24=0,"",Sheet2!Z24)</f>
         <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>1020</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="7" t="str">
+        <f t="shared" ref="E26" si="1">A26&amp;".png"</f>
+        <v>1020.png</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f>IF(Sheet2!U25=0,"",Sheet2!U25)</f>
+        <v/>
+      </c>
+      <c r="H26" s="7" t="str">
+        <f>IF(Sheet2!V25=0,"",Sheet2!V25)</f>
+        <v/>
+      </c>
+      <c r="I26" s="7" t="str">
+        <f>IF(Sheet2!W25=0,"",Sheet2!W25)</f>
+        <v/>
+      </c>
+      <c r="J26" s="7" t="str">
+        <f>IF(Sheet2!X25=0,"",Sheet2!X25)</f>
+        <v/>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f>IF(Sheet2!Y25=0,"",Sheet2!Y25)</f>
+        <v/>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -17493,7 +17532,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17586,8 +17625,8 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f>"这位少年，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费"&amp;goods!H11&amp;"点经验值，ESC键离开)"</f>
-        <v>这位少年，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费200点经验值，ESC键离开)</v>
+        <f>"这位少侠，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费"&amp;goods!H11&amp;"点经验值，ESC键离开)"</f>
+        <v>这位少侠，我观你骨骼惊奇，给你提升一下修为吧！#r(每次花费200点经验值，ESC键离开)</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1127,10 +1127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变异大毛虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>苍狼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,7 +1352,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[千万要小心呀！#r;这次幸亏少侠你及时把内丹带回来了。]</t>
+    <t>[少侠千万要小心呀！;这次幸亏少侠你及时把内丹带回来了。]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异毛虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>231</v>
@@ -3565,10 +3565,10 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3595,30 +3595,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>246</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3626,13 +3626,13 @@
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3640,13 +3640,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3654,13 +3654,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3668,13 +3668,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3682,13 +3682,13 @@
         <v>1004</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3696,13 +3696,13 @@
         <v>1005</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -3710,13 +3710,13 @@
         <v>1006</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3724,13 +3724,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3756,30 +3756,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>289</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>290</v>
       </c>
       <c r="D3" s="84"/>
     </row>
@@ -3799,13 +3799,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3813,13 +3813,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3827,13 +3827,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3841,13 +3841,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -14056,7 +14056,7 @@
   <dimension ref="A6:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14100,7 +14100,7 @@
         <v>98</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>158</v>
@@ -14162,7 +14162,7 @@
         <v>105</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>101</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -14418,7 +14418,7 @@
         <v>3000</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>178</v>
@@ -14592,7 +14592,7 @@
         <v>3003</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>85</v>
@@ -14650,7 +14650,7 @@
         <v>3004</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>86</v>
@@ -14766,7 +14766,7 @@
         <v>3006</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>88</v>
@@ -15114,7 +15114,7 @@
         <v>3012</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>94</v>
@@ -15286,7 +15286,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>44</v>
@@ -15324,7 +15324,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>45</v>
@@ -16256,13 +16256,13 @@
         <v>1020</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E26" s="7" t="str">
         <f t="shared" ref="E26" si="1">A26&amp;".png"</f>
@@ -16480,7 +16480,7 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(INT(A16/10),role!$A$8:$B$25,2,0)</f>
-        <v>变异大毛虫</v>
+        <v>变异毛虫</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -16495,7 +16495,7 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(INT(A17/10),role!$A$8:$B$25,2,0)</f>
-        <v>变异大毛虫</v>
+        <v>变异毛虫</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(INT(A18/10),role!$A$8:$B$25,2,0)</f>
-        <v>变异大毛虫</v>
+        <v>变异毛虫</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -16525,7 +16525,7 @@
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(INT(A19/10),role!$A$8:$B$25,2,0)</f>
-        <v>变异大毛虫</v>
+        <v>变异毛虫</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -16540,7 +16540,7 @@
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(INT(A20/10),role!$A$8:$B$25,2,0)</f>
-        <v>变异大毛虫</v>
+        <v>变异毛虫</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1174,76 +1174,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monster_hurt.mp3</t>
-  </si>
-  <si>
-    <t>hero_attack.mp3</t>
-  </si>
-  <si>
-    <t>hero_hurt.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_die.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_die.mp3</t>
-  </si>
-  <si>
-    <t>monster_attack.mp3</t>
-  </si>
-  <si>
-    <t>longMan_attack.mp3</t>
-  </si>
-  <si>
-    <t>longMan_hurt.mp3</t>
-  </si>
-  <si>
-    <t>longMan_die.mp3</t>
-  </si>
-  <si>
     <t>attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ghost_attack.mp3</t>
-  </si>
-  <si>
-    <t>ghost_die.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foxMonster_attack.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foxMonster_die.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foxMonster_hurt.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiger_attack.mp3</t>
-  </si>
-  <si>
-    <t>tiger_hurt.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiger_die.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullMonster_attack.mp3</t>
-  </si>
-  <si>
-    <t>bullMonster_die.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1357,6 +1291,82 @@
   </si>
   <si>
     <t>变异毛虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longMan_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxMonster_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullMonster_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longMan_hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxMonster_hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger_hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longMan_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghost_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foxMonster_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullMonster_die</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3565,10 +3575,10 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="19" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3582,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3612,7 +3622,7 @@
         <v>242</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>246</v>
@@ -3626,13 +3636,13 @@
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3640,13 +3650,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3654,13 +3664,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3668,13 +3678,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3682,13 +3692,13 @@
         <v>1004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3696,13 +3706,13 @@
         <v>1005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -3710,13 +3720,13 @@
         <v>1006</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3724,18 +3734,19 @@
         <v>1007</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3756,30 +3767,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3787,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D3" s="84"/>
     </row>
@@ -3799,13 +3810,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3813,13 +3824,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3827,13 +3838,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3841,13 +3852,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -14055,8 +14066,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A6:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14308,7 +14319,7 @@
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -14418,7 +14429,7 @@
         <v>3000</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>178</v>
@@ -15286,7 +15297,7 @@
         <v>80</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>44</v>
@@ -15324,7 +15335,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>45</v>
@@ -16256,13 +16267,13 @@
         <v>1020</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="E26" s="7" t="str">
         <f t="shared" ref="E26" si="1">A26&amp;".png"</f>

--- a/comment/gameCouple-p1.xlsx
+++ b/comment/gameCouple-p1.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="object" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
     <sheet name="role" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId5"/>
-    <sheet name="item" sheetId="6" r:id="rId6"/>
-    <sheet name="flash" sheetId="7" r:id="rId7"/>
-    <sheet name="shop" sheetId="9" r:id="rId8"/>
-    <sheet name="goods" sheetId="10" r:id="rId9"/>
-    <sheet name="conversation" sheetId="12" r:id="rId10"/>
-    <sheet name="sound" sheetId="14" r:id="rId11"/>
-    <sheet name="stage" sheetId="15" r:id="rId12"/>
+    <sheet name="item" sheetId="6" r:id="rId5"/>
+    <sheet name="flash" sheetId="7" r:id="rId6"/>
+    <sheet name="shop" sheetId="9" r:id="rId7"/>
+    <sheet name="goods" sheetId="10" r:id="rId8"/>
+    <sheet name="conversation" sheetId="12" r:id="rId9"/>
+    <sheet name="sound" sheetId="14" r:id="rId10"/>
+    <sheet name="stage" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -71,7 +70,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>zhaona:</t>
+          <t>作者:</t>
         </r>
         <r>
           <rPr>
@@ -136,7 +135,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>zhaona：
+          <t>作者:
 1 属性
 2 卖钱</t>
         </r>
@@ -176,7 +175,7 @@
           <t xml:space="preserve">
 动作ID：站立、跑步、攻击、受击、死亡按顺序为1、2、3、4、5
 动画ID = 角色ID + 动作ID，共五位
-每个怪物存贮一份自愿，自愿内每个帧动画命名 = 动画ID + 方向编号 + 序号</t>
+每个怪物储存一份资源，资源内每个帧动画命名 = 动画ID + 方向编号 + 序号</t>
         </r>
       </text>
     </comment>
@@ -1833,6 +1832,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2213,6 +2213,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3480,119 +3481,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A8:D14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
-        <v>1004</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3750,7 +3641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3995,7 +3886,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AX132"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="11" topLeftCell="AL1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AN19" sqref="AN19"/>
     </sheetView>
@@ -15257,26 +15148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A4:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -16314,12 +16190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A6:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -17537,7 +17413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:N4"/>
@@ -17657,7 +17533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A6:I14"/>
@@ -17911,4 +17787,114 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A8:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
+        <v>1004</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>